--- a/EDA_DF/SerieA_Rank_ML.xlsx
+++ b/EDA_DF/SerieA_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.927670071770833</v>
+        <v>3.948176079502315</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>16.92767007177083</v>
+        <v>16.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.04225340510417</v>
+        <v>25.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>36.92767007177083</v>
+        <v>36.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.02142007177083</v>
+        <v>37.04192607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.92767007177083</v>
+        <v>51.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.04225340510417</v>
+        <v>53.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.92767007177083</v>
+        <v>58.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.04225340510417</v>
+        <v>59.06275941283565</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.92767007177083</v>
+        <v>65.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.02142007177083</v>
+        <v>96.04192607950232</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>101.9276700717708</v>
+        <v>101.9481760795023</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.0422534051042</v>
+        <v>116.0627594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9276700717708</v>
+        <v>116.9481760795023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>127.9276700717708</v>
+        <v>127.9481760795023</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>128.9276700717708</v>
+        <v>128.9481760795023</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>130.0422534051042</v>
+        <v>130.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9276700717708</v>
+        <v>149.9481760795023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.0422534051042</v>
+        <v>151.0627594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9276700717708</v>
+        <v>151.9481760795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>163.9693367384375</v>
+        <v>163.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.0839200717708</v>
+        <v>179.1044260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.0839200717708</v>
+        <v>185.1044260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.0839200717708</v>
+        <v>186.1044260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.0839200717708</v>
+        <v>192.1044260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.0839200717708</v>
+        <v>200.1044260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2089200717708</v>
+        <v>200.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.9693367384375</v>
+        <v>214.989842746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.9693367384375</v>
+        <v>220.989842746169</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>225.9693367384375</v>
+        <v>225.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>310.9693367384375</v>
+        <v>310.989842746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.2089200717708</v>
+        <v>311.2294260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>332.3130867384375</v>
+        <v>332.333592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.0839200717708</v>
+        <v>333.1044260795023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.2089200717708</v>
+        <v>333.2294260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>338.9693367384375</v>
+        <v>338.989842746169</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>339.3130867384375</v>
+        <v>339.333592746169</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0839200717708</v>
+        <v>340.1044260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>345.9693367384375</v>
+        <v>345.989842746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.927670071770833</v>
+        <v>3.948176079502315</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>16.92767007177083</v>
+        <v>16.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.04225340510417</v>
+        <v>25.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>36.92767007177083</v>
+        <v>36.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.02142007177083</v>
+        <v>37.04192607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.92767007177083</v>
+        <v>51.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.04225340510417</v>
+        <v>53.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.92767007177083</v>
+        <v>58.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.04225340510417</v>
+        <v>59.06275941283565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.92767007177083</v>
+        <v>65.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.02142007177083</v>
+        <v>96.04192607950232</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>101.9276700717708</v>
+        <v>101.9481760795023</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.0422534051042</v>
+        <v>116.0627594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9276700717708</v>
+        <v>116.9481760795023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>127.9276700717708</v>
+        <v>127.9481760795023</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>128.9276700717708</v>
+        <v>128.9481760795023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>130.0422534051042</v>
+        <v>130.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9276700717708</v>
+        <v>149.9481760795023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.0422534051042</v>
+        <v>151.0627594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9276700717708</v>
+        <v>151.9481760795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>163.9693367384375</v>
+        <v>163.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.0839200717708</v>
+        <v>179.1044260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.0839200717708</v>
+        <v>185.1044260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.0839200717708</v>
+        <v>186.1044260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.0839200717708</v>
+        <v>192.1044260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.0839200717708</v>
+        <v>200.1044260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2089200717708</v>
+        <v>200.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.9693367384375</v>
+        <v>214.989842746169</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.9693367384375</v>
+        <v>220.989842746169</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>225.9693367384375</v>
+        <v>225.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>310.9693367384375</v>
+        <v>310.989842746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.2089200717708</v>
+        <v>311.2294260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>332.3130867384375</v>
+        <v>332.333592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.0839200717708</v>
+        <v>333.1044260795023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.2089200717708</v>
+        <v>333.2294260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>338.9693367384375</v>
+        <v>338.989842746169</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>339.3130867384375</v>
+        <v>339.333592746169</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0839200717708</v>
+        <v>340.1044260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>345.9693367384375</v>
+        <v>345.989842746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.9693367384375</v>
+        <v>1.989842746168982</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.27142007177083</v>
+        <v>17.29192607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.92767007177083</v>
+        <v>23.94817607950231</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.04225340510417</v>
+        <v>24.06275941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.16725340510417</v>
+        <v>24.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.92767007177083</v>
+        <v>29.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.04225340510417</v>
+        <v>31.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>34.92767007177083</v>
+        <v>34.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>37.92767007177083</v>
+        <v>37.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.92767007177083</v>
+        <v>39.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.0005867384375</v>
+        <v>49.02109274616898</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>50.92767007177083</v>
+        <v>50.94817607950232</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.92767007177083</v>
+        <v>66.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.04225340510416</v>
+        <v>67.06275941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>67.16725340510416</v>
+        <v>67.18775941283565</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>74.04225340510416</v>
+        <v>74.06275941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>79.92767007177083</v>
+        <v>79.94817607950232</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.04225340510416</v>
+        <v>80.06275941283565</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>86.92767007177083</v>
+        <v>86.94817607950232</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>88.27142007177083</v>
+        <v>88.29192607950232</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>88.92767007177083</v>
+        <v>88.94817607950232</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>94.92767007177083</v>
+        <v>94.94817607950232</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.1672534051042</v>
+        <v>102.1877594128356</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.0422534051042</v>
+        <v>108.0627594128356</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>108.1672534051042</v>
+        <v>108.1877594128356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>108.2714200717708</v>
+        <v>108.2919260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>114.9276700717708</v>
+        <v>114.9481760795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>115.9276700717708</v>
+        <v>115.9481760795023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0422534051042</v>
+        <v>129.0627594128356</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.9276700717708</v>
+        <v>129.9481760795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.1672534051042</v>
+        <v>143.1877594128356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.9276700717708</v>
+        <v>150.9481760795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0422534051042</v>
+        <v>157.0627594128356</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>157.9693367384375</v>
+        <v>157.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>162.9693367384375</v>
+        <v>162.989842746169</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>164.0839200717708</v>
+        <v>164.1044260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>164.3130867384375</v>
+        <v>164.333592746169</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.2089200717708</v>
+        <v>179.2294260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>185.3130867384375</v>
+        <v>185.333592746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>193.2089200717708</v>
+        <v>193.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>198.9693367384375</v>
+        <v>198.989842746169</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>199.0839200717708</v>
+        <v>199.1044260795023</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>213.0630867384375</v>
+        <v>213.083592746169</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>213.9693367384375</v>
+        <v>213.989842746169</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>220.0630867384375</v>
+        <v>220.083592746169</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>227.9693367384375</v>
+        <v>227.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.9693367384375</v>
+        <v>311.989842746169</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.0839200717708</v>
+        <v>312.1044260795023</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>319.0839200717708</v>
+        <v>319.1044260795023</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>325.0839200717708</v>
+        <v>325.1044260795023</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>325.2089200717708</v>
+        <v>325.2294260795023</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>344.9693367384375</v>
+        <v>344.989842746169</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.271420071770833</v>
+        <v>2.291926079502315</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.04225340510417</v>
+        <v>17.06275941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>38.27142007177083</v>
+        <v>38.29192607950232</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.92767007177083</v>
+        <v>45.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.91725340510417</v>
+        <v>46.93775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.16725340510417</v>
+        <v>52.18775941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.27142007177083</v>
+        <v>52.29192607950232</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>57.92767007177083</v>
+        <v>57.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.92767007177083</v>
+        <v>59.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>77.92767007177083</v>
+        <v>77.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>78.92767007177083</v>
+        <v>78.94817607950232</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.04225340510416</v>
+        <v>95.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.27142007177083</v>
+        <v>95.29192607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.0422534051042</v>
+        <v>102.0627594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>106.9276700717708</v>
+        <v>106.9481760795023</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.1672534051042</v>
+        <v>122.1877594128356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.9276700717708</v>
+        <v>122.9481760795023</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>142.8860034051042</v>
+        <v>142.9065094128356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.0422534051042</v>
+        <v>144.0627594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.0422534051042</v>
+        <v>150.0627594128356</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16870,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.2089200717708</v>
+        <v>164.2294260795023</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>183.9693367384375</v>
+        <v>183.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>184.9693367384375</v>
+        <v>184.989842746169</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>189.9693367384375</v>
+        <v>189.989842746169</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>192.2089200717708</v>
+        <v>192.2294260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.0630867384375</v>
+        <v>214.083592746169</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.0630867384375</v>
+        <v>220.083592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.0630867384375</v>
+        <v>227.083592746169</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>317.0630867384375</v>
+        <v>317.083592746169</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.9693367384375</v>
+        <v>318.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>324.9693367384375</v>
+        <v>324.989842746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.9693367384375</v>
+        <v>325.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -18415,7 +18415,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18518,7 +18518,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>339.0839200717708</v>
+        <v>339.1044260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.0839200717708</v>
+        <v>346.1044260795023</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.042253405104167</v>
+        <v>4.062759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.92767007177083</v>
+        <v>17.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.92767007177083</v>
+        <v>25.94817607950232</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>30.92767007177083</v>
+        <v>30.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.92767007177083</v>
+        <v>32.94817607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.04225340510417</v>
+        <v>38.06275941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.16725340510417</v>
+        <v>38.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.92767007177083</v>
+        <v>40.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.92767007177083</v>
+        <v>44.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>53.16725340510417</v>
+        <v>53.18775941283565</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.04225340510417</v>
+        <v>60.06275941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>66.04225340510416</v>
+        <v>66.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.92767007177083</v>
+        <v>67.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>72.92767007177083</v>
+        <v>72.94817607950232</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>80.92767007177083</v>
+        <v>80.94817607950232</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.16725340510416</v>
+        <v>81.18775941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>87.16725340510416</v>
+        <v>87.18775941283565</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>95.92767007177083</v>
+        <v>95.94817607950232</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>102.2714200717708</v>
+        <v>102.2919260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>107.9276700717708</v>
+        <v>107.9481760795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>109.9276700717708</v>
+        <v>109.9481760795023</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>115.2714200717708</v>
+        <v>115.2919260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>121.9276700717708</v>
+        <v>121.9481760795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>123.9693367384375</v>
+        <v>123.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9276700717708</v>
+        <v>143.9481760795023</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.1672534051042</v>
+        <v>144.1877594128356</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>156.9276700717708</v>
+        <v>156.9481760795023</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.0839200717708</v>
+        <v>158.1044260795023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0839200717708</v>
+        <v>165.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.9693367384375</v>
+        <v>178.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.2089200717708</v>
+        <v>186.2294260795023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.9693367384375</v>
+        <v>199.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>213.9693367384375</v>
+        <v>213.989842746169</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>218.9693367384375</v>
+        <v>218.989842746169</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>226.9693367384375</v>
+        <v>226.989842746169</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>228.0630867384375</v>
+        <v>228.083592746169</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.0630867384375</v>
+        <v>305.083592746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0839200717708</v>
+        <v>318.1044260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.2089200717708</v>
+        <v>325.2294260795023</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.0839200717708</v>
+        <v>347.1044260795023</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.042253405104167</v>
+        <v>2.062759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.167253405104167</v>
+        <v>2.187759412835648</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.167253405104167</v>
+        <v>4.187759412835648</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.271420071770833</v>
+        <v>4.291926079502315</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.92767007177083</v>
+        <v>22.94817607950231</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.27142007177083</v>
+        <v>24.29192607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.92767007177083</v>
+        <v>24.94817607950232</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>31.92767007177083</v>
+        <v>31.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.04225340510417</v>
+        <v>32.06275941283565</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.92767007177083</v>
+        <v>38.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.04225340510417</v>
+        <v>45.06275941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.27142007177083</v>
+        <v>45.29192607950232</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.16725340510417</v>
+        <v>46.18775941283565</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.04225340510417</v>
+        <v>52.06275941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.16725340510417</v>
+        <v>52.18775941283565</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>59.16725340510417</v>
+        <v>59.18775941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>60.92767007177083</v>
+        <v>60.94817607950232</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.16725340510416</v>
+        <v>80.18775941283565</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.16725340510416</v>
+        <v>88.18775941283565</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>95.16725340510416</v>
+        <v>95.18775941283565</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.02142007177083</v>
+        <v>96.04192607950232</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>102.1672534051042</v>
+        <v>102.1877594128356</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.9276700717708</v>
+        <v>102.9481760795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.9276700717708</v>
+        <v>108.9481760795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.1672534051042</v>
+        <v>115.1877594128356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>120.9276700717708</v>
+        <v>120.9481760795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>122.2714200717708</v>
+        <v>122.2919260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1672534051042</v>
+        <v>123.1877594128356</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.1672534051042</v>
+        <v>129.1877594128356</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2714200717708</v>
+        <v>129.2919260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.0422534051042</v>
+        <v>143.0627594128356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>143.2714200717708</v>
+        <v>143.2919260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9276700717708</v>
+        <v>144.9481760795023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.0214200717708</v>
+        <v>149.0419260795023</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>150.1672534051042</v>
+        <v>150.1877594128356</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>155.9276700717708</v>
+        <v>155.9481760795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>157.1672534051042</v>
+        <v>157.1877594128356</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>177.9693367384375</v>
+        <v>177.989842746169</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.0839200717708</v>
+        <v>178.1044260795023</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>178.2089200717708</v>
+        <v>178.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>178.2089200717708</v>
+        <v>178.2294260795023</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>184.0630867384375</v>
+        <v>184.083592746169</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>187.9693367384375</v>
+        <v>187.989842746169</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>188.0630867384375</v>
+        <v>188.083592746169</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>188.0630867384375</v>
+        <v>188.083592746169</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>191.9693367384375</v>
+        <v>191.989842746169</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>192.9693367384375</v>
+        <v>192.989842746169</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>193.9693367384375</v>
+        <v>193.989842746169</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>199.3130867384375</v>
+        <v>199.333592746169</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -28645,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>213.0630867384375</v>
+        <v>213.083592746169</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>219.9693367384375</v>
+        <v>219.989842746169</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>221.0630867384375</v>
+        <v>221.083592746169</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -28954,7 +28954,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>221.0630867384375</v>
+        <v>221.083592746169</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>227.9693367384375</v>
+        <v>227.989842746169</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>318.2089200717708</v>
+        <v>318.2294260795023</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>331.9693367384375</v>
+        <v>331.989842746169</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>332.0839200717708</v>
+        <v>332.1044260795023</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>332.2089200717708</v>
+        <v>332.2294260795023</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>339.9693367384375</v>
+        <v>339.989842746169</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -29881,7 +29881,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>341.0630867384375</v>
+        <v>341.083592746169</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>346.2089200717708</v>
+        <v>346.2294260795023</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.167253405104167</v>
+        <v>4.187759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.16725340510417</v>
+        <v>18.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.16725340510417</v>
+        <v>25.18775941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.16725340510417</v>
+        <v>31.18775941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.0005867384375</v>
+        <v>47.02109274616898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.27142007177083</v>
+        <v>59.29192607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.16725340510416</v>
+        <v>66.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>66.27142007177083</v>
+        <v>66.29192607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>73.27142007177083</v>
+        <v>73.29192607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>80.27142007177083</v>
+        <v>80.29192607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.16725340510416</v>
+        <v>81.18775941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>88.04225340510416</v>
+        <v>88.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.92767007177083</v>
+        <v>95.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.0422534051042</v>
+        <v>109.0627594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1672534051042</v>
+        <v>109.1877594128356</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>113.9276700717708</v>
+        <v>113.9481760795023</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0422534051042</v>
+        <v>123.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>148.9276700717708</v>
+        <v>148.9481760795023</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>157.2714200717708</v>
+        <v>157.2919260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.9693367384375</v>
+        <v>158.989842746169</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.3130867384375</v>
+        <v>178.333592746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.9693367384375</v>
+        <v>179.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>199.2089200717708</v>
+        <v>199.2294260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -32627,7 +32627,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>199.2089200717708</v>
+        <v>199.2294260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>212.9693367384375</v>
+        <v>212.989842746169</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>219.9693367384375</v>
+        <v>219.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>226.0630867384375</v>
+        <v>226.083592746169</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>304.0630867384375</v>
+        <v>304.083592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.0839200717708</v>
+        <v>311.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>311.2089200717708</v>
+        <v>311.2294260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.3130867384375</v>
+        <v>318.333592746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>326.9693367384375</v>
+        <v>326.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>339.1672534051042</v>
+        <v>339.1877594128356</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>353.2089200717708</v>
+        <v>353.2294260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.16725340510417</v>
+        <v>17.18775941283565</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.16725340510417</v>
+        <v>18.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>35.04225340510417</v>
+        <v>35.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.04225340510417</v>
+        <v>46.06275941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.92767007177083</v>
+        <v>52.94817607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.92767007177083</v>
+        <v>73.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>87.04225340510416</v>
+        <v>87.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>87.16725340510416</v>
+        <v>87.18775941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>87.27142007177083</v>
+        <v>87.29192607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>102.9276700717708</v>
+        <v>102.9481760795023</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.0214200717708</v>
+        <v>103.0419260795023</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1672534051042</v>
+        <v>116.1877594128356</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1672534051042</v>
+        <v>130.1877594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1672534051042</v>
+        <v>151.1877594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.9693367384375</v>
+        <v>164.989842746169</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2089200717708</v>
+        <v>165.2294260795023</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>185.9693367384375</v>
+        <v>185.989842746169</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>192.3130867384375</v>
+        <v>192.333592746169</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>193.0839200717708</v>
+        <v>193.1044260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>198.0630867384375</v>
+        <v>198.083592746169</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>212.9693367384375</v>
+        <v>212.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>226.9693367384375</v>
+        <v>226.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>304.9589200717708</v>
+        <v>304.9794260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.2089200717708</v>
+        <v>312.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>316.9693367384375</v>
+        <v>316.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>317.9693367384375</v>
+        <v>317.989842746169</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>325.3130867384375</v>
+        <v>325.333592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>326.0839200717708</v>
+        <v>326.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>334.9693367384375</v>
+        <v>334.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>346.3130867384375</v>
+        <v>346.333592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.167253405104167</v>
+        <v>2.187759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.92767007177083</v>
+        <v>18.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.04225340510417</v>
+        <v>39.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.16725340510417</v>
+        <v>39.18775941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.16725340510417</v>
+        <v>45.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.92767007177083</v>
+        <v>53.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.16725340510417</v>
+        <v>60.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.16725340510417</v>
+        <v>60.18775941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>64.92767007177083</v>
+        <v>64.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>73.04225340510416</v>
+        <v>73.06275941283565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.16725340510416</v>
+        <v>73.18775941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.04225340510416</v>
+        <v>81.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>87.92767007177083</v>
+        <v>87.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.16725340510416</v>
+        <v>95.18775941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.0214200717708</v>
+        <v>103.0419260795023</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.0422534051042</v>
+        <v>115.0627594128356</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.0422534051042</v>
+        <v>122.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1672534051042</v>
+        <v>122.1877594128356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>143.1672534051042</v>
+        <v>143.1877594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.2714200717708</v>
+        <v>150.2919260795023</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.0214200717708</v>
+        <v>156.0419260795023</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2089200717708</v>
+        <v>158.2294260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.0630867384375</v>
+        <v>180.083592746169</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.0630867384375</v>
+        <v>184.083592746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.2089200717708</v>
+        <v>185.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2089200717708</v>
+        <v>192.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>197.9693367384375</v>
+        <v>197.989842746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.0630867384375</v>
+        <v>215.083592746169</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>219.0630867384375</v>
+        <v>219.083592746169</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>220.9693367384375</v>
+        <v>220.989842746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.0630867384375</v>
+        <v>227.083592746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>228.0630867384375</v>
+        <v>228.083592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>305.9797534051042</v>
+        <v>306.0002594128356</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.3130867384375</v>
+        <v>311.333592746169</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.2089200717708</v>
+        <v>312.2294260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>319.2089200717708</v>
+        <v>319.2294260795023</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>319.9693367384375</v>
+        <v>319.989842746169</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>323.9693367384375</v>
+        <v>323.989842746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2089200717708</v>
+        <v>326.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>330.9693367384375</v>
+        <v>330.989842746169</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>334.9693367384375</v>
+        <v>334.989842746169</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -42033,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>339.2089200717708</v>
+        <v>339.2294260795023</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -42136,7 +42136,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.2089200717708</v>
+        <v>339.2294260795023</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -42239,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.9693367384375</v>
+        <v>340.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -42342,7 +42342,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>347.9693367384375</v>
+        <v>347.989842746169</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.04225340510417</v>
+        <v>18.06275941283565</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.16725340510417</v>
+        <v>25.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.16725340510417</v>
+        <v>31.18775941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.27142007177083</v>
+        <v>31.29192607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.16725340510417</v>
+        <v>32.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.16725340510417</v>
+        <v>45.18775941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.16725340510416</v>
+        <v>66.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.04225340510416</v>
+        <v>95.06275941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0422534051042</v>
+        <v>102.0627594128356</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1672534051042</v>
+        <v>108.1877594128356</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.0214200717708</v>
+        <v>114.0419260795023</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.0214200717708</v>
+        <v>128.0419260795023</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>129.1672534051042</v>
+        <v>129.1877594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.0214200717708</v>
+        <v>145.0419260795023</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -44058,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>163.0630867384375</v>
+        <v>163.083592746169</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -44161,7 +44161,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>164.2089200717708</v>
+        <v>164.2294260795023</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -44367,7 +44367,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>194.0630867384375</v>
+        <v>194.083592746169</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44470,7 +44470,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>214.0630867384375</v>
+        <v>214.083592746169</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>304.9589200717708</v>
+        <v>304.9794260795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44676,7 +44676,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.9693367384375</v>
+        <v>312.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>331.0630867384375</v>
+        <v>331.083592746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44882,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.0630867384375</v>
+        <v>331.083592746169</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.9693367384375</v>
+        <v>332.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45088,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>346.2089200717708</v>
+        <v>346.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -45191,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.9693367384375</v>
+        <v>346.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45294,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2089200717708</v>
+        <v>347.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.042253405104167</v>
+        <v>4.062759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.92767007177083</v>
+        <v>17.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.92767007177083</v>
+        <v>25.94817607950232</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>30.92767007177083</v>
+        <v>30.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.92767007177083</v>
+        <v>32.94817607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.04225340510417</v>
+        <v>38.06275941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.16725340510417</v>
+        <v>38.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.92767007177083</v>
+        <v>40.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.92767007177083</v>
+        <v>44.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>53.16725340510417</v>
+        <v>53.18775941283565</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.04225340510417</v>
+        <v>60.06275941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>66.04225340510416</v>
+        <v>66.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.92767007177083</v>
+        <v>67.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>72.92767007177083</v>
+        <v>72.94817607950232</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>80.92767007177083</v>
+        <v>80.94817607950232</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.16725340510416</v>
+        <v>81.18775941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>87.16725340510416</v>
+        <v>87.18775941283565</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>95.92767007177083</v>
+        <v>95.94817607950232</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>102.2714200717708</v>
+        <v>102.2919260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>107.9276700717708</v>
+        <v>107.9481760795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>109.9276700717708</v>
+        <v>109.9481760795023</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>115.2714200717708</v>
+        <v>115.2919260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>121.9276700717708</v>
+        <v>121.9481760795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>123.9693367384375</v>
+        <v>123.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9276700717708</v>
+        <v>143.9481760795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.1672534051042</v>
+        <v>144.1877594128356</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>156.9276700717708</v>
+        <v>156.9481760795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.0839200717708</v>
+        <v>158.1044260795023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0839200717708</v>
+        <v>165.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.9693367384375</v>
+        <v>178.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.2089200717708</v>
+        <v>186.2294260795023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.9693367384375</v>
+        <v>199.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -49070,7 +49070,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>213.9693367384375</v>
+        <v>213.989842746169</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>218.9693367384375</v>
+        <v>218.989842746169</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>226.9693367384375</v>
+        <v>226.989842746169</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>228.0630867384375</v>
+        <v>228.083592746169</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.0630867384375</v>
+        <v>305.083592746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.0839200717708</v>
+        <v>318.1044260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -49688,7 +49688,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.2089200717708</v>
+        <v>325.2294260795023</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.0839200717708</v>
+        <v>347.1044260795023</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.16725340510417</v>
+        <v>17.18775941283565</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.16725340510417</v>
+        <v>18.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>35.04225340510417</v>
+        <v>35.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.04225340510417</v>
+        <v>46.06275941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.92767007177083</v>
+        <v>52.94817607950232</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.92767007177083</v>
+        <v>73.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>87.04225340510416</v>
+        <v>87.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>87.16725340510416</v>
+        <v>87.18775941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>87.27142007177083</v>
+        <v>87.29192607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>102.9276700717708</v>
+        <v>102.9481760795023</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.0214200717708</v>
+        <v>103.0419260795023</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1672534051042</v>
+        <v>116.1877594128356</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1672534051042</v>
+        <v>130.1877594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1672534051042</v>
+        <v>151.1877594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.9693367384375</v>
+        <v>164.989842746169</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2089200717708</v>
+        <v>165.2294260795023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>185.9693367384375</v>
+        <v>185.989842746169</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>192.3130867384375</v>
+        <v>192.333592746169</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>193.0839200717708</v>
+        <v>193.1044260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>198.0630867384375</v>
+        <v>198.083592746169</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>212.9693367384375</v>
+        <v>212.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>226.9693367384375</v>
+        <v>226.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>304.9589200717708</v>
+        <v>304.9794260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.2089200717708</v>
+        <v>312.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>316.9693367384375</v>
+        <v>316.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -52743,7 +52743,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>317.9693367384375</v>
+        <v>317.989842746169</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>325.3130867384375</v>
+        <v>325.333592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>326.0839200717708</v>
+        <v>326.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>334.9693367384375</v>
+        <v>334.989842746169</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>346.3130867384375</v>
+        <v>346.333592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.9693367384375</v>
+        <v>1.989842746168982</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.27142007177083</v>
+        <v>17.29192607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.92767007177083</v>
+        <v>23.94817607950231</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.04225340510417</v>
+        <v>24.06275941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.16725340510417</v>
+        <v>24.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.92767007177083</v>
+        <v>29.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.04225340510417</v>
+        <v>31.06275941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>34.92767007177083</v>
+        <v>34.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>37.92767007177083</v>
+        <v>37.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.92767007177083</v>
+        <v>39.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.0005867384375</v>
+        <v>49.02109274616898</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>50.92767007177083</v>
+        <v>50.94817607950232</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.92767007177083</v>
+        <v>66.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.04225340510416</v>
+        <v>67.06275941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>67.16725340510416</v>
+        <v>67.18775941283565</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>74.04225340510416</v>
+        <v>74.06275941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>79.92767007177083</v>
+        <v>79.94817607950232</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.04225340510416</v>
+        <v>80.06275941283565</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>86.92767007177083</v>
+        <v>86.94817607950232</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>88.27142007177083</v>
+        <v>88.29192607950232</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>88.92767007177083</v>
+        <v>88.94817607950232</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>94.92767007177083</v>
+        <v>94.94817607950232</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.1672534051042</v>
+        <v>102.1877594128356</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.0422534051042</v>
+        <v>108.0627594128356</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>108.1672534051042</v>
+        <v>108.1877594128356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>108.2714200717708</v>
+        <v>108.2919260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>114.9276700717708</v>
+        <v>114.9481760795023</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>115.9276700717708</v>
+        <v>115.9481760795023</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0422534051042</v>
+        <v>129.0627594128356</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.9276700717708</v>
+        <v>129.9481760795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.1672534051042</v>
+        <v>143.1877594128356</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.9276700717708</v>
+        <v>150.9481760795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0422534051042</v>
+        <v>157.0627594128356</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>157.9693367384375</v>
+        <v>157.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>162.9693367384375</v>
+        <v>162.989842746169</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>164.0839200717708</v>
+        <v>164.1044260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>164.3130867384375</v>
+        <v>164.333592746169</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.2089200717708</v>
+        <v>179.2294260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>185.3130867384375</v>
+        <v>185.333592746169</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>193.2089200717708</v>
+        <v>193.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>198.9693367384375</v>
+        <v>198.989842746169</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>199.0839200717708</v>
+        <v>199.1044260795023</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>213.0630867384375</v>
+        <v>213.083592746169</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>213.9693367384375</v>
+        <v>213.989842746169</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58167,7 +58167,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>220.0630867384375</v>
+        <v>220.083592746169</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>227.9693367384375</v>
+        <v>227.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -58373,7 +58373,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -58476,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -58579,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.9693367384375</v>
+        <v>311.989842746169</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -58682,7 +58682,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.0839200717708</v>
+        <v>312.1044260795023</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>319.0839200717708</v>
+        <v>319.1044260795023</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>325.0839200717708</v>
+        <v>325.1044260795023</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -58991,7 +58991,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>325.2089200717708</v>
+        <v>325.2294260795023</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -59094,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>344.9693367384375</v>
+        <v>344.989842746169</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.042253405104167</v>
+        <v>2.062759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.167253405104167</v>
+        <v>2.187759412835648</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.167253405104167</v>
+        <v>4.187759412835648</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.271420071770833</v>
+        <v>4.291926079502315</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.92767007177083</v>
+        <v>22.94817607950231</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.27142007177083</v>
+        <v>24.29192607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.92767007177083</v>
+        <v>24.94817607950232</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>31.92767007177083</v>
+        <v>31.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.04225340510417</v>
+        <v>32.06275941283565</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.92767007177083</v>
+        <v>38.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.04225340510417</v>
+        <v>45.06275941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.27142007177083</v>
+        <v>45.29192607950232</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.16725340510417</v>
+        <v>46.18775941283565</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.04225340510417</v>
+        <v>52.06275941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.16725340510417</v>
+        <v>52.18775941283565</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>59.16725340510417</v>
+        <v>59.18775941283565</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>60.92767007177083</v>
+        <v>60.94817607950232</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.16725340510416</v>
+        <v>80.18775941283565</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.16725340510416</v>
+        <v>88.18775941283565</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>95.16725340510416</v>
+        <v>95.18775941283565</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.02142007177083</v>
+        <v>96.04192607950232</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>102.1672534051042</v>
+        <v>102.1877594128356</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.9276700717708</v>
+        <v>102.9481760795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.9276700717708</v>
+        <v>108.9481760795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.1672534051042</v>
+        <v>115.1877594128356</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>120.9276700717708</v>
+        <v>120.9481760795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>122.2714200717708</v>
+        <v>122.2919260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1672534051042</v>
+        <v>123.1877594128356</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.1672534051042</v>
+        <v>129.1877594128356</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2714200717708</v>
+        <v>129.2919260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.0422534051042</v>
+        <v>143.0627594128356</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>143.2714200717708</v>
+        <v>143.2919260795023</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9276700717708</v>
+        <v>144.9481760795023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.0214200717708</v>
+        <v>149.0419260795023</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>150.1672534051042</v>
+        <v>150.1877594128356</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>155.9276700717708</v>
+        <v>155.9481760795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>157.1672534051042</v>
+        <v>157.1877594128356</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>177.9693367384375</v>
+        <v>177.989842746169</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.0839200717708</v>
+        <v>178.1044260795023</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>178.2089200717708</v>
+        <v>178.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>178.2089200717708</v>
+        <v>178.2294260795023</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>184.0630867384375</v>
+        <v>184.083592746169</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>187.9693367384375</v>
+        <v>187.989842746169</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>188.0630867384375</v>
+        <v>188.083592746169</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>188.0630867384375</v>
+        <v>188.083592746169</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>191.9693367384375</v>
+        <v>191.989842746169</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>192.9693367384375</v>
+        <v>192.989842746169</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>193.9693367384375</v>
+        <v>193.989842746169</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>199.3130867384375</v>
+        <v>199.333592746169</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>213.0630867384375</v>
+        <v>213.083592746169</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>219.9693367384375</v>
+        <v>219.989842746169</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>221.0630867384375</v>
+        <v>221.083592746169</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>221.0630867384375</v>
+        <v>221.083592746169</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>227.9693367384375</v>
+        <v>227.989842746169</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>318.2089200717708</v>
+        <v>318.2294260795023</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>331.9693367384375</v>
+        <v>331.989842746169</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>332.0839200717708</v>
+        <v>332.1044260795023</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>332.2089200717708</v>
+        <v>332.2294260795023</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>339.9693367384375</v>
+        <v>339.989842746169</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>341.0630867384375</v>
+        <v>341.083592746169</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>346.2089200717708</v>
+        <v>346.2294260795023</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.167253405104167</v>
+        <v>2.187759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.92767007177083</v>
+        <v>18.94817607950231</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.04225340510417</v>
+        <v>39.06275941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.16725340510417</v>
+        <v>39.18775941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.16725340510417</v>
+        <v>45.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.92767007177083</v>
+        <v>53.94817607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.16725340510417</v>
+        <v>60.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.16725340510417</v>
+        <v>60.18775941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>64.92767007177083</v>
+        <v>64.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>73.04225340510416</v>
+        <v>73.06275941283565</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.16725340510416</v>
+        <v>73.18775941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.04225340510416</v>
+        <v>81.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>87.92767007177083</v>
+        <v>87.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.16725340510416</v>
+        <v>95.18775941283565</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.0214200717708</v>
+        <v>103.0419260795023</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -67676,7 +67676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.0422534051042</v>
+        <v>115.0627594128356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.0422534051042</v>
+        <v>122.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1672534051042</v>
+        <v>122.1877594128356</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>143.1672534051042</v>
+        <v>143.1877594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68088,7 +68088,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.2714200717708</v>
+        <v>150.2919260795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.0214200717708</v>
+        <v>156.0419260795023</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2089200717708</v>
+        <v>158.2294260795023</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.0630867384375</v>
+        <v>180.083592746169</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.0630867384375</v>
+        <v>184.083592746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.2089200717708</v>
+        <v>185.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2089200717708</v>
+        <v>192.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>197.9693367384375</v>
+        <v>197.989842746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.0630867384375</v>
+        <v>215.083592746169</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>219.0630867384375</v>
+        <v>219.083592746169</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>220.9693367384375</v>
+        <v>220.989842746169</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.0630867384375</v>
+        <v>227.083592746169</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>228.0630867384375</v>
+        <v>228.083592746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>305.9797534051042</v>
+        <v>306.0002594128356</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.3130867384375</v>
+        <v>311.333592746169</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.2089200717708</v>
+        <v>312.2294260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>319.2089200717708</v>
+        <v>319.2294260795023</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>319.9693367384375</v>
+        <v>319.989842746169</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>323.9693367384375</v>
+        <v>323.989842746169</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2089200717708</v>
+        <v>326.2294260795023</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>330.9693367384375</v>
+        <v>330.989842746169</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>334.9693367384375</v>
+        <v>334.989842746169</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>339.2089200717708</v>
+        <v>339.2294260795023</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.2089200717708</v>
+        <v>339.2294260795023</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.9693367384375</v>
+        <v>340.989842746169</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>347.9693367384375</v>
+        <v>347.989842746169</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.271420071770833</v>
+        <v>2.291926079502315</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.04225340510417</v>
+        <v>17.06275941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>38.27142007177083</v>
+        <v>38.29192607950232</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.92767007177083</v>
+        <v>45.94817607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.91725340510417</v>
+        <v>46.93775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.16725340510417</v>
+        <v>52.18775941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.27142007177083</v>
+        <v>52.29192607950232</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>57.92767007177083</v>
+        <v>57.94817607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.92767007177083</v>
+        <v>59.94817607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>77.92767007177083</v>
+        <v>77.94817607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>78.92767007177083</v>
+        <v>78.94817607950232</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.04225340510416</v>
+        <v>95.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.27142007177083</v>
+        <v>95.29192607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.0422534051042</v>
+        <v>102.0627594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>106.9276700717708</v>
+        <v>106.9481760795023</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.1672534051042</v>
+        <v>122.1877594128356</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.9276700717708</v>
+        <v>122.9481760795023</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>142.8860034051042</v>
+        <v>142.9065094128356</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.0422534051042</v>
+        <v>144.0627594128356</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.0422534051042</v>
+        <v>150.0627594128356</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.2089200717708</v>
+        <v>164.2294260795023</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>183.9693367384375</v>
+        <v>183.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>184.9693367384375</v>
+        <v>184.989842746169</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>188.9693367384375</v>
+        <v>188.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>189.9693367384375</v>
+        <v>189.989842746169</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>192.2089200717708</v>
+        <v>192.2294260795023</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.0630867384375</v>
+        <v>214.083592746169</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.0630867384375</v>
+        <v>220.083592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.0630867384375</v>
+        <v>227.083592746169</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>303.9589200717708</v>
+        <v>303.9794260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>317.0630867384375</v>
+        <v>317.083592746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.9693367384375</v>
+        <v>318.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -74439,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>324.9693367384375</v>
+        <v>324.989842746169</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.9693367384375</v>
+        <v>325.989842746169</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -74645,7 +74645,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -74748,7 +74748,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -74851,7 +74851,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>336.0839200717708</v>
+        <v>336.1044260795023</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -74954,7 +74954,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>339.0839200717708</v>
+        <v>339.1044260795023</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -75057,7 +75057,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.0839200717708</v>
+        <v>346.1044260795023</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.167253405104167</v>
+        <v>4.187759412835648</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.16725340510417</v>
+        <v>18.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.16725340510417</v>
+        <v>25.18775941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.16725340510417</v>
+        <v>31.18775941283565</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.0005867384375</v>
+        <v>47.02109274616898</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.27142007177083</v>
+        <v>59.29192607950232</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.16725340510416</v>
+        <v>66.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>66.27142007177083</v>
+        <v>66.29192607950232</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>73.27142007177083</v>
+        <v>73.29192607950232</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>80.27142007177083</v>
+        <v>80.29192607950232</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.16725340510416</v>
+        <v>81.18775941283565</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>88.04225340510416</v>
+        <v>88.06275941283565</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.92767007177083</v>
+        <v>95.94817607950232</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.0422534051042</v>
+        <v>109.0627594128356</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1672534051042</v>
+        <v>109.1877594128356</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>113.9276700717708</v>
+        <v>113.9481760795023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0422534051042</v>
+        <v>123.0627594128356</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>148.9276700717708</v>
+        <v>148.9481760795023</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>157.2714200717708</v>
+        <v>157.2919260795023</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.9693367384375</v>
+        <v>158.989842746169</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.3130867384375</v>
+        <v>178.333592746169</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.9693367384375</v>
+        <v>179.989842746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>199.2089200717708</v>
+        <v>199.2294260795023</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>199.2089200717708</v>
+        <v>199.2294260795023</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>212.9693367384375</v>
+        <v>212.989842746169</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>219.9693367384375</v>
+        <v>219.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>226.0630867384375</v>
+        <v>226.083592746169</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>304.0630867384375</v>
+        <v>304.083592746169</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.0839200717708</v>
+        <v>311.1044260795023</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -78318,7 +78318,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>311.2089200717708</v>
+        <v>311.2294260795023</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.3130867384375</v>
+        <v>318.333592746169</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>326.9693367384375</v>
+        <v>326.989842746169</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>335.9589200717708</v>
+        <v>335.9794260795023</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>339.1672534051042</v>
+        <v>339.1877594128356</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>353.2089200717708</v>
+        <v>353.2294260795023</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.04225340510417</v>
+        <v>18.06275941283565</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -79210,7 +79210,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.16725340510417</v>
+        <v>25.18775941283565</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.16725340510417</v>
+        <v>31.18775941283565</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.27142007177083</v>
+        <v>31.29192607950232</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.16725340510417</v>
+        <v>32.18775941283565</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.16725340510417</v>
+        <v>45.18775941283565</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.16725340510416</v>
+        <v>66.18775941283565</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.04225340510416</v>
+        <v>95.06275941283565</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0422534051042</v>
+        <v>102.0627594128356</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1672534051042</v>
+        <v>108.1877594128356</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.0214200717708</v>
+        <v>114.0419260795023</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.0214200717708</v>
+        <v>128.0419260795023</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>129.1672534051042</v>
+        <v>129.1877594128356</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.0214200717708</v>
+        <v>145.0419260795023</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>163.0630867384375</v>
+        <v>163.083592746169</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>164.2089200717708</v>
+        <v>164.2294260795023</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>189.0630867384375</v>
+        <v>189.083592746169</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>194.0630867384375</v>
+        <v>194.083592746169</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>214.0630867384375</v>
+        <v>214.083592746169</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>304.9589200717708</v>
+        <v>304.9794260795023</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.9693367384375</v>
+        <v>312.989842746169</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>331.0630867384375</v>
+        <v>331.083592746169</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.0630867384375</v>
+        <v>331.083592746169</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.9693367384375</v>
+        <v>332.989842746169</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>346.2089200717708</v>
+        <v>346.2294260795023</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.9693367384375</v>
+        <v>346.989842746169</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2089200717708</v>
+        <v>347.2294260795023</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>

--- a/EDA_DF/SerieA_Rank_ML.xlsx
+++ b/EDA_DF/SerieA_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.948176079502315</v>
+        <v>4.898115571597223</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>16.94817607950231</v>
+        <v>17.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.06275941283565</v>
+        <v>26.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>36.94817607950232</v>
+        <v>37.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.04192607950232</v>
+        <v>37.99186557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.94817607950232</v>
+        <v>52.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.06275941283565</v>
+        <v>54.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.94817607950232</v>
+        <v>59.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.06275941283565</v>
+        <v>60.01269890493056</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.94817607950232</v>
+        <v>66.89811557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.04192607950232</v>
+        <v>96.99186557159723</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>101.9481760795023</v>
+        <v>102.8981155715972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.0627594128356</v>
+        <v>117.0126989049306</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9481760795023</v>
+        <v>117.8981155715972</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>127.9481760795023</v>
+        <v>128.8981155715972</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>128.9481760795023</v>
+        <v>129.8981155715972</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>130.0627594128356</v>
+        <v>131.0126989049305</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9481760795023</v>
+        <v>150.8981155715972</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.0627594128356</v>
+        <v>152.0126989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9481760795023</v>
+        <v>152.8981155715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>163.989842746169</v>
+        <v>164.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1044260795023</v>
+        <v>180.0543655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.1044260795023</v>
+        <v>186.0543655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.1044260795023</v>
+        <v>187.0543655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.1044260795023</v>
+        <v>193.0543655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1044260795023</v>
+        <v>201.0543655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2294260795023</v>
+        <v>201.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.989842746169</v>
+        <v>215.9397822382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.989842746169</v>
+        <v>221.9397822382639</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>225.989842746169</v>
+        <v>226.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>310.989842746169</v>
+        <v>311.9397822382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.2294260795023</v>
+        <v>312.1793655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>332.333592746169</v>
+        <v>333.2835322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.1044260795023</v>
+        <v>334.0543655715972</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.2294260795023</v>
+        <v>334.1793655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>338.989842746169</v>
+        <v>339.9397822382639</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>339.333592746169</v>
+        <v>340.2835322382639</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.1044260795023</v>
+        <v>341.0543655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>345.989842746169</v>
+        <v>346.9397822382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.948176079502315</v>
+        <v>4.898115571597223</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>16.94817607950231</v>
+        <v>17.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.06275941283565</v>
+        <v>26.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>36.94817607950232</v>
+        <v>37.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.04192607950232</v>
+        <v>37.99186557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>51.94817607950232</v>
+        <v>52.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.06275941283565</v>
+        <v>54.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.94817607950232</v>
+        <v>59.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.06275941283565</v>
+        <v>60.01269890493056</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.94817607950232</v>
+        <v>66.89811557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.04192607950232</v>
+        <v>96.99186557159723</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>101.9481760795023</v>
+        <v>102.8981155715972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.0627594128356</v>
+        <v>117.0126989049306</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>116.9481760795023</v>
+        <v>117.8981155715972</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>127.9481760795023</v>
+        <v>128.8981155715972</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>128.9481760795023</v>
+        <v>129.8981155715972</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>130.0627594128356</v>
+        <v>131.0126989049305</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9481760795023</v>
+        <v>150.8981155715972</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>151.0627594128356</v>
+        <v>152.0126989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.9481760795023</v>
+        <v>152.8981155715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>163.989842746169</v>
+        <v>164.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1044260795023</v>
+        <v>180.0543655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.1044260795023</v>
+        <v>186.0543655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.1044260795023</v>
+        <v>187.0543655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.1044260795023</v>
+        <v>193.0543655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1044260795023</v>
+        <v>201.0543655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.2294260795023</v>
+        <v>201.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.989842746169</v>
+        <v>215.9397822382639</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>220.989842746169</v>
+        <v>221.9397822382639</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>225.989842746169</v>
+        <v>226.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>310.989842746169</v>
+        <v>311.9397822382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>311.2294260795023</v>
+        <v>312.1793655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>332.333592746169</v>
+        <v>333.2835322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.1044260795023</v>
+        <v>334.0543655715972</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.2294260795023</v>
+        <v>334.1793655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>338.989842746169</v>
+        <v>339.9397822382639</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>339.333592746169</v>
+        <v>340.2835322382639</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.1044260795023</v>
+        <v>341.0543655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>345.989842746169</v>
+        <v>346.9397822382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.989842746168982</v>
+        <v>2.939782238263889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.29192607950231</v>
+        <v>18.24186557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.94817607950231</v>
+        <v>24.89811557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.06275941283565</v>
+        <v>25.01269890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.18775941283565</v>
+        <v>25.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.94817607950232</v>
+        <v>30.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.06275941283565</v>
+        <v>32.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>34.94817607950232</v>
+        <v>35.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>37.94817607950232</v>
+        <v>38.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.94817607950232</v>
+        <v>40.89811557159722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.02109274616898</v>
+        <v>49.97103223826389</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>50.94817607950232</v>
+        <v>51.89811557159722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.94817607950232</v>
+        <v>67.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.06275941283565</v>
+        <v>68.01269890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>67.18775941283565</v>
+        <v>68.13769890493056</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>74.06275941283565</v>
+        <v>75.01269890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>79.94817607950232</v>
+        <v>80.89811557159723</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.06275941283565</v>
+        <v>81.01269890493056</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>86.94817607950232</v>
+        <v>87.89811557159723</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>88.29192607950232</v>
+        <v>89.24186557159723</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>88.94817607950232</v>
+        <v>89.89811557159723</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>94.94817607950232</v>
+        <v>95.89811557159723</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.1877594128356</v>
+        <v>103.1376989049306</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.0627594128356</v>
+        <v>109.0126989049306</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>108.1877594128356</v>
+        <v>109.1376989049306</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>108.2919260795023</v>
+        <v>109.2418655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>114.9481760795023</v>
+        <v>115.8981155715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>115.9481760795023</v>
+        <v>116.8981155715972</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0627594128356</v>
+        <v>130.0126989049305</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.9481760795023</v>
+        <v>130.8981155715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.1877594128356</v>
+        <v>144.1376989049305</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.9481760795023</v>
+        <v>151.8981155715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0627594128356</v>
+        <v>158.0126989049305</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>157.989842746169</v>
+        <v>158.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>162.989842746169</v>
+        <v>163.9397822382639</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>164.1044260795023</v>
+        <v>165.0543655715972</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>164.333592746169</v>
+        <v>165.2835322382639</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.2294260795023</v>
+        <v>180.1793655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>185.333592746169</v>
+        <v>186.2835322382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>193.2294260795023</v>
+        <v>194.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>198.989842746169</v>
+        <v>199.9397822382639</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>199.1044260795023</v>
+        <v>200.0543655715972</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>213.083592746169</v>
+        <v>214.0335322382639</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>213.989842746169</v>
+        <v>214.9397822382639</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>220.083592746169</v>
+        <v>221.0335322382639</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>227.989842746169</v>
+        <v>228.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -13730,12 +13730,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Monza18952</t>
+          <t>Verona18956</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -13744,35 +13744,35 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.491</v>
+        <v>0.866</v>
       </c>
       <c r="G48" t="n">
-        <v>3.661</v>
+        <v>2.265</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -13791,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>18952</v>
+        <v>18956</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13833,12 +13833,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Verona18956</t>
+          <t>Monza18952</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -13847,35 +13847,35 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.866</v>
+        <v>1.491</v>
       </c>
       <c r="G49" t="n">
-        <v>2.265</v>
+        <v>3.661</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>18956</v>
+        <v>18952</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.989842746169</v>
+        <v>312.9397822382639</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.1044260795023</v>
+        <v>313.0543655715972</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>319.1044260795023</v>
+        <v>320.0543655715972</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>325.1044260795023</v>
+        <v>326.0543655715972</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>325.2294260795023</v>
+        <v>326.1793655715972</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>344.989842746169</v>
+        <v>345.9397822382639</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.291926079502315</v>
+        <v>3.241865571597223</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.06275941283565</v>
+        <v>18.01269890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>38.29192607950232</v>
+        <v>39.24186557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.94817607950232</v>
+        <v>46.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.93775941283565</v>
+        <v>47.88769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.18775941283565</v>
+        <v>53.13769890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.29192607950232</v>
+        <v>53.24186557159722</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>57.94817607950232</v>
+        <v>58.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.94817607950232</v>
+        <v>60.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>77.94817607950232</v>
+        <v>78.89811557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>78.94817607950232</v>
+        <v>79.89811557159723</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.06275941283565</v>
+        <v>96.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.29192607950232</v>
+        <v>96.24186557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.0627594128356</v>
+        <v>103.0126989049306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>106.9481760795023</v>
+        <v>107.8981155715972</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.1877594128356</v>
+        <v>123.1376989049306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.9481760795023</v>
+        <v>123.8981155715972</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>142.9065094128356</v>
+        <v>143.8564489049305</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.0627594128356</v>
+        <v>145.0126989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.0627594128356</v>
+        <v>151.0126989049305</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16870,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.2294260795023</v>
+        <v>165.1793655715972</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>183.989842746169</v>
+        <v>184.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>184.989842746169</v>
+        <v>185.9397822382639</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>189.989842746169</v>
+        <v>190.9397822382639</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>192.2294260795023</v>
+        <v>193.1793655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.083592746169</v>
+        <v>215.0335322382639</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.083592746169</v>
+        <v>221.0335322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.083592746169</v>
+        <v>228.0335322382639</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>317.083592746169</v>
+        <v>318.0335322382639</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.989842746169</v>
+        <v>319.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>324.989842746169</v>
+        <v>325.9397822382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.989842746169</v>
+        <v>326.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -18330,12 +18330,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spezia18902</t>
+          <t>Lecce18905</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -18344,35 +18344,35 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.321</v>
       </c>
       <c r="G37" t="n">
-        <v>0.922</v>
+        <v>1.717</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K37" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -18385,13 +18385,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>18902</v>
+        <v>18905</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -18415,13 +18415,13 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -18433,12 +18433,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lecce18905</t>
+          <t>Spezia18902</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -18447,35 +18447,35 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.321</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>1.717</v>
+        <v>0.922</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
+        <v>9</v>
+      </c>
+      <c r="K38" t="n">
         <v>14</v>
       </c>
-      <c r="K38" t="n">
-        <v>16</v>
-      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -18488,13 +18488,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>18905</v>
+        <v>18902</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -18518,13 +18518,13 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>339.1044260795023</v>
+        <v>340.0543655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.1044260795023</v>
+        <v>347.0543655715972</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.062759412835648</v>
+        <v>5.012698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.94817607950231</v>
+        <v>18.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.94817607950232</v>
+        <v>26.89811557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>30.94817607950232</v>
+        <v>31.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.94817607950232</v>
+        <v>33.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.06275941283565</v>
+        <v>39.01269890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.18775941283565</v>
+        <v>39.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.94817607950232</v>
+        <v>41.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.94817607950232</v>
+        <v>45.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>53.18775941283565</v>
+        <v>54.13769890493056</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.06275941283565</v>
+        <v>61.01269890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>66.06275941283565</v>
+        <v>67.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.94817607950232</v>
+        <v>68.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>72.94817607950232</v>
+        <v>73.89811557159723</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>80.94817607950232</v>
+        <v>81.89811557159723</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.18775941283565</v>
+        <v>82.13769890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>87.18775941283565</v>
+        <v>88.13769890493056</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>95.94817607950232</v>
+        <v>96.89811557159723</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>102.2919260795023</v>
+        <v>103.2418655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>107.9481760795023</v>
+        <v>108.8981155715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>109.9481760795023</v>
+        <v>110.8981155715972</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>115.2919260795023</v>
+        <v>116.2418655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>121.9481760795023</v>
+        <v>122.8981155715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>123.989842746169</v>
+        <v>124.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9481760795023</v>
+        <v>144.8981155715972</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.1877594128356</v>
+        <v>145.1376989049305</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>156.9481760795023</v>
+        <v>157.8981155715972</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.1044260795023</v>
+        <v>159.0543655715972</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.1044260795023</v>
+        <v>166.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.989842746169</v>
+        <v>179.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.2294260795023</v>
+        <v>187.1793655715972</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.989842746169</v>
+        <v>200.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>213.989842746169</v>
+        <v>214.9397822382639</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>218.989842746169</v>
+        <v>219.9397822382639</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>226.989842746169</v>
+        <v>227.9397822382639</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>228.083592746169</v>
+        <v>229.0335322382639</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.083592746169</v>
+        <v>306.0335322382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.1044260795023</v>
+        <v>319.0543655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.2294260795023</v>
+        <v>326.1793655715972</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.1044260795023</v>
+        <v>348.0543655715972</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.062759412835648</v>
+        <v>3.012698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.187759412835648</v>
+        <v>3.137698904930556</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.187759412835648</v>
+        <v>5.137698904930556</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.291926079502315</v>
+        <v>5.241865571597223</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.94817607950231</v>
+        <v>23.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.29192607950232</v>
+        <v>25.24186557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.94817607950232</v>
+        <v>25.89811557159722</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>31.94817607950232</v>
+        <v>32.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.06275941283565</v>
+        <v>33.01269890493056</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.94817607950232</v>
+        <v>39.89811557159722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.06275941283565</v>
+        <v>46.01269890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.29192607950232</v>
+        <v>46.24186557159722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.18775941283565</v>
+        <v>47.13769890493056</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.06275941283565</v>
+        <v>53.01269890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.18775941283565</v>
+        <v>53.13769890493056</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>59.18775941283565</v>
+        <v>60.13769890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>60.94817607950232</v>
+        <v>61.89811557159722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.18775941283565</v>
+        <v>81.13769890493056</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.18775941283565</v>
+        <v>89.13769890493056</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>95.18775941283565</v>
+        <v>96.13769890493056</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.04192607950232</v>
+        <v>96.99186557159723</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>102.1877594128356</v>
+        <v>103.1376989049306</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.9481760795023</v>
+        <v>103.8981155715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.9481760795023</v>
+        <v>109.8981155715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.1877594128356</v>
+        <v>116.1376989049306</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>120.9481760795023</v>
+        <v>121.8981155715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>122.2919260795023</v>
+        <v>123.2418655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1877594128356</v>
+        <v>124.1376989049306</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.1877594128356</v>
+        <v>130.1376989049305</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2919260795023</v>
+        <v>130.2418655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.0627594128356</v>
+        <v>144.0126989049305</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>143.2919260795023</v>
+        <v>144.2418655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9481760795023</v>
+        <v>145.8981155715972</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.0419260795023</v>
+        <v>149.9918655715972</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>150.1877594128356</v>
+        <v>151.1376989049305</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>155.9481760795023</v>
+        <v>156.8981155715972</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>157.1877594128356</v>
+        <v>158.1376989049305</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>177.989842746169</v>
+        <v>178.9397822382639</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.1044260795023</v>
+        <v>179.0543655715972</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -27427,12 +27427,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Verona22377</t>
+          <t>Atalanta22382</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -27441,25 +27441,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.507</v>
+        <v>1.002</v>
       </c>
       <c r="G41" t="n">
-        <v>1.971</v>
+        <v>1.662</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -27488,7 +27488,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>22377</v>
+        <v>22382</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>178.2294260795023</v>
+        <v>179.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -27530,12 +27530,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Atalanta22382</t>
+          <t>Verona22377</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -27544,25 +27544,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.002</v>
+        <v>0.507</v>
       </c>
       <c r="G42" t="n">
-        <v>1.662</v>
+        <v>1.971</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -27591,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>22382</v>
+        <v>22377</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>178.2294260795023</v>
+        <v>179.1793655715972</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>184.083592746169</v>
+        <v>185.0335322382639</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>187.989842746169</v>
+        <v>188.9397822382639</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>188.083592746169</v>
+        <v>189.0335322382639</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>188.083592746169</v>
+        <v>189.0335322382639</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>191.989842746169</v>
+        <v>192.9397822382639</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>192.989842746169</v>
+        <v>193.9397822382639</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>193.989842746169</v>
+        <v>194.9397822382639</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>199.333592746169</v>
+        <v>200.2835322382639</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -28645,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>213.083592746169</v>
+        <v>214.0335322382639</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>219.989842746169</v>
+        <v>220.9397822382639</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -28766,12 +28766,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Atalanta22315</t>
+          <t>Empoli22316</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.443</v>
+        <v>1.14</v>
       </c>
       <c r="G54" t="n">
-        <v>0.761</v>
+        <v>2.047</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -28795,27 +28795,27 @@
         <v>18</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -28827,7 +28827,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>22315</v>
+        <v>22316</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -28851,13 +28851,13 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>221.083592746169</v>
+        <v>222.0335322382639</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -28869,12 +28869,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Empoli22316</t>
+          <t>Atalanta22315</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -28883,13 +28883,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.14</v>
+        <v>1.443</v>
       </c>
       <c r="G55" t="n">
-        <v>2.047</v>
+        <v>0.761</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -28898,27 +28898,27 @@
         <v>18</v>
       </c>
       <c r="K55" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -28930,7 +28930,7 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>22316</v>
+        <v>22315</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -28954,13 +28954,13 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>221.083592746169</v>
+        <v>222.0335322382639</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>227.989842746169</v>
+        <v>228.9397822382639</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>318.2294260795023</v>
+        <v>319.1793655715972</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>331.989842746169</v>
+        <v>332.9397822382639</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>332.1044260795023</v>
+        <v>333.0543655715972</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>332.2294260795023</v>
+        <v>333.1793655715972</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>339.989842746169</v>
+        <v>340.9397822382639</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -29881,7 +29881,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>341.083592746169</v>
+        <v>342.0335322382639</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>346.2294260795023</v>
+        <v>347.1793655715972</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.187759412835648</v>
+        <v>5.137698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.18775941283565</v>
+        <v>19.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.18775941283565</v>
+        <v>26.13769890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.18775941283565</v>
+        <v>32.13769890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.02109274616898</v>
+        <v>47.97103223826389</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.29192607950232</v>
+        <v>60.24186557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.18775941283565</v>
+        <v>67.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>66.29192607950232</v>
+        <v>67.24186557159723</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>73.29192607950232</v>
+        <v>74.24186557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>80.29192607950232</v>
+        <v>81.24186557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.18775941283565</v>
+        <v>82.13769890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>88.06275941283565</v>
+        <v>89.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.94817607950232</v>
+        <v>96.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.0627594128356</v>
+        <v>110.0126989049306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1877594128356</v>
+        <v>110.1376989049306</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>113.9481760795023</v>
+        <v>114.8981155715972</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0627594128356</v>
+        <v>124.0126989049306</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>148.9481760795023</v>
+        <v>149.8981155715972</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>157.2919260795023</v>
+        <v>158.2418655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.989842746169</v>
+        <v>159.9397822382639</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.333592746169</v>
+        <v>179.2835322382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.989842746169</v>
+        <v>180.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -32439,12 +32439,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lecce22340</t>
+          <t>Sassuolo22339</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -32453,35 +32453,35 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.896</v>
+        <v>1.934</v>
       </c>
       <c r="G24" t="n">
-        <v>3.331</v>
+        <v>2.976</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -32500,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>22340</v>
+        <v>22339</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -32518,13 +32518,13 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>199.2294260795023</v>
+        <v>200.1793655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -32542,12 +32542,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sassuolo22339</t>
+          <t>Lecce22340</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -32556,35 +32556,35 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.934</v>
+        <v>0.896</v>
       </c>
       <c r="G25" t="n">
-        <v>2.976</v>
+        <v>3.331</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
         <v>4</v>
       </c>
-      <c r="J25" t="n">
-        <v>18</v>
-      </c>
       <c r="K25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -32603,7 +32603,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>22339</v>
+        <v>22340</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>199.2294260795023</v>
+        <v>200.1793655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>212.989842746169</v>
+        <v>213.9397822382639</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>219.989842746169</v>
+        <v>220.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>226.083592746169</v>
+        <v>227.0335322382639</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>304.083592746169</v>
+        <v>305.0335322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.1044260795023</v>
+        <v>312.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>311.2294260795023</v>
+        <v>312.1793655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.333592746169</v>
+        <v>319.2835322382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>326.989842746169</v>
+        <v>327.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>339.1877594128356</v>
+        <v>340.1376989049305</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>353.2294260795023</v>
+        <v>354.1793655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.18775941283565</v>
+        <v>18.13769890493056</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.18775941283565</v>
+        <v>19.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>35.06275941283565</v>
+        <v>36.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.06275941283565</v>
+        <v>47.01269890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.94817607950232</v>
+        <v>53.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.94817607950232</v>
+        <v>74.89811557159723</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>87.06275941283565</v>
+        <v>88.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>87.18775941283565</v>
+        <v>88.13769890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>87.29192607950232</v>
+        <v>88.24186557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>102.9481760795023</v>
+        <v>103.8981155715972</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.0419260795023</v>
+        <v>103.9918655715972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1877594128356</v>
+        <v>117.1376989049306</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1877594128356</v>
+        <v>131.1376989049305</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1877594128356</v>
+        <v>152.1376989049305</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.989842746169</v>
+        <v>165.9397822382639</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2294260795023</v>
+        <v>166.1793655715972</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>185.989842746169</v>
+        <v>186.9397822382639</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>192.333592746169</v>
+        <v>193.2835322382639</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>193.1044260795023</v>
+        <v>194.0543655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>198.083592746169</v>
+        <v>199.0335322382639</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>212.989842746169</v>
+        <v>213.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>226.989842746169</v>
+        <v>227.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>304.9794260795023</v>
+        <v>305.9293655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.2294260795023</v>
+        <v>313.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>316.989842746169</v>
+        <v>317.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>317.989842746169</v>
+        <v>318.9397822382639</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>325.333592746169</v>
+        <v>326.2835322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>326.1044260795023</v>
+        <v>327.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>334.989842746169</v>
+        <v>335.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>346.333592746169</v>
+        <v>347.2835322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.187759412835648</v>
+        <v>3.137698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.94817607950231</v>
+        <v>19.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.06275941283565</v>
+        <v>40.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.18775941283565</v>
+        <v>40.13769890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.18775941283565</v>
+        <v>46.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.94817607950232</v>
+        <v>54.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.18775941283565</v>
+        <v>61.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.18775941283565</v>
+        <v>61.13769890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>64.94817607950232</v>
+        <v>65.89811557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>73.06275941283565</v>
+        <v>74.01269890493056</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.18775941283565</v>
+        <v>74.13769890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.06275941283565</v>
+        <v>82.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>87.94817607950232</v>
+        <v>88.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.18775941283565</v>
+        <v>96.13769890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.0419260795023</v>
+        <v>103.9918655715972</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.0627594128356</v>
+        <v>116.0126989049306</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.0627594128356</v>
+        <v>123.0126989049306</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1877594128356</v>
+        <v>123.1376989049306</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>143.1877594128356</v>
+        <v>144.1376989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.2919260795023</v>
+        <v>151.2418655715972</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.0419260795023</v>
+        <v>156.9918655715972</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2294260795023</v>
+        <v>159.1793655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.083592746169</v>
+        <v>181.0335322382639</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.083592746169</v>
+        <v>185.0335322382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.2294260795023</v>
+        <v>186.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2294260795023</v>
+        <v>193.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>197.989842746169</v>
+        <v>198.9397822382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.083592746169</v>
+        <v>216.0335322382639</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>219.083592746169</v>
+        <v>220.0335322382639</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>220.989842746169</v>
+        <v>221.9397822382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.083592746169</v>
+        <v>228.0335322382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>228.083592746169</v>
+        <v>229.0335322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>306.0002594128356</v>
+        <v>306.9501989049305</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.333592746169</v>
+        <v>312.2835322382639</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.2294260795023</v>
+        <v>313.1793655715972</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>319.2294260795023</v>
+        <v>320.1793655715972</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>319.989842746169</v>
+        <v>320.9397822382639</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>323.989842746169</v>
+        <v>324.9397822382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2294260795023</v>
+        <v>327.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>330.989842746169</v>
+        <v>331.9397822382639</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>334.989842746169</v>
+        <v>335.9397822382639</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -41948,12 +41948,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Verona18893</t>
+          <t>Empoli18899</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -41962,35 +41962,35 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.864</v>
+        <v>0.793</v>
       </c>
       <c r="G45" t="n">
-        <v>0.55</v>
+        <v>2.332</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -42003,13 +42003,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>18893</v>
+        <v>18899</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -42027,19 +42027,19 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>339.2294260795023</v>
+        <v>340.1793655715972</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -42051,12 +42051,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Empoli18899</t>
+          <t>Verona18893</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -42065,35 +42065,35 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.793</v>
+        <v>0.864</v>
       </c>
       <c r="G46" t="n">
-        <v>2.332</v>
+        <v>0.55</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -42106,13 +42106,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>18899</v>
+        <v>18893</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -42130,19 +42130,19 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.2294260795023</v>
+        <v>340.1793655715972</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -42239,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.989842746169</v>
+        <v>341.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -42342,7 +42342,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>347.989842746169</v>
+        <v>348.9397822382639</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.06275941283565</v>
+        <v>19.01269890493056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.18775941283565</v>
+        <v>26.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.18775941283565</v>
+        <v>32.13769890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.29192607950232</v>
+        <v>32.24186557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.18775941283565</v>
+        <v>33.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.18775941283565</v>
+        <v>46.13769890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.18775941283565</v>
+        <v>67.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.06275941283565</v>
+        <v>96.01269890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0627594128356</v>
+        <v>103.0126989049306</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1877594128356</v>
+        <v>109.1376989049306</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.0419260795023</v>
+        <v>114.9918655715972</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.0419260795023</v>
+        <v>128.9918655715972</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>129.1877594128356</v>
+        <v>130.1376989049305</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.0419260795023</v>
+        <v>145.9918655715972</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -44058,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>163.083592746169</v>
+        <v>164.0335322382639</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -44161,7 +44161,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>164.2294260795023</v>
+        <v>165.1793655715972</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -44367,7 +44367,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>194.083592746169</v>
+        <v>195.0335322382639</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44470,7 +44470,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>214.083592746169</v>
+        <v>215.0335322382639</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>304.9794260795023</v>
+        <v>305.9293655715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44676,7 +44676,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.989842746169</v>
+        <v>313.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>331.083592746169</v>
+        <v>332.0335322382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44882,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.083592746169</v>
+        <v>332.0335322382639</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.989842746169</v>
+        <v>333.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45088,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>346.2294260795023</v>
+        <v>347.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -45191,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.989842746169</v>
+        <v>347.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45294,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2294260795023</v>
+        <v>348.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.062759412835648</v>
+        <v>5.012698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.94817607950231</v>
+        <v>18.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.94817607950232</v>
+        <v>26.89811557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>30.94817607950232</v>
+        <v>31.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.94817607950232</v>
+        <v>33.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.06275941283565</v>
+        <v>39.01269890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.18775941283565</v>
+        <v>39.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.94817607950232</v>
+        <v>41.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>44.94817607950232</v>
+        <v>45.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>53.18775941283565</v>
+        <v>54.13769890493056</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.06275941283565</v>
+        <v>61.01269890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>66.06275941283565</v>
+        <v>67.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.94817607950232</v>
+        <v>68.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>72.94817607950232</v>
+        <v>73.89811557159723</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>80.94817607950232</v>
+        <v>81.89811557159723</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>81.18775941283565</v>
+        <v>82.13769890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>87.18775941283565</v>
+        <v>88.13769890493056</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>95.94817607950232</v>
+        <v>96.89811557159723</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>102.2919260795023</v>
+        <v>103.2418655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>107.9481760795023</v>
+        <v>108.8981155715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>109.9481760795023</v>
+        <v>110.8981155715972</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>115.2919260795023</v>
+        <v>116.2418655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>121.9481760795023</v>
+        <v>122.8981155715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>123.989842746169</v>
+        <v>124.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.9481760795023</v>
+        <v>144.8981155715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>144.1877594128356</v>
+        <v>145.1376989049305</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>156.9481760795023</v>
+        <v>157.8981155715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.1044260795023</v>
+        <v>159.0543655715972</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.1044260795023</v>
+        <v>166.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.989842746169</v>
+        <v>179.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.2294260795023</v>
+        <v>187.1793655715972</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.989842746169</v>
+        <v>200.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -49070,7 +49070,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>213.989842746169</v>
+        <v>214.9397822382639</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>218.989842746169</v>
+        <v>219.9397822382639</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>226.989842746169</v>
+        <v>227.9397822382639</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>228.083592746169</v>
+        <v>229.0335322382639</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>305.083592746169</v>
+        <v>306.0335322382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.1044260795023</v>
+        <v>319.0543655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -49688,7 +49688,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.2294260795023</v>
+        <v>326.1793655715972</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>347.1044260795023</v>
+        <v>348.0543655715972</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.18775941283565</v>
+        <v>18.13769890493056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.18775941283565</v>
+        <v>19.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>35.06275941283565</v>
+        <v>36.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.06275941283565</v>
+        <v>47.01269890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.94817607950232</v>
+        <v>53.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>73.94817607950232</v>
+        <v>74.89811557159723</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>87.06275941283565</v>
+        <v>88.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>87.18775941283565</v>
+        <v>88.13769890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>87.29192607950232</v>
+        <v>88.24186557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>102.9481760795023</v>
+        <v>103.8981155715972</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.0419260795023</v>
+        <v>103.9918655715972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1877594128356</v>
+        <v>117.1376989049306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1877594128356</v>
+        <v>131.1376989049305</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1877594128356</v>
+        <v>152.1376989049305</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.989842746169</v>
+        <v>165.9397822382639</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2294260795023</v>
+        <v>166.1793655715972</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>185.989842746169</v>
+        <v>186.9397822382639</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>192.333592746169</v>
+        <v>193.2835322382639</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>193.1044260795023</v>
+        <v>194.0543655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>198.083592746169</v>
+        <v>199.0335322382639</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>212.989842746169</v>
+        <v>213.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>226.989842746169</v>
+        <v>227.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>304.9794260795023</v>
+        <v>305.9293655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.2294260795023</v>
+        <v>313.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>316.989842746169</v>
+        <v>317.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -52743,7 +52743,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>317.989842746169</v>
+        <v>318.9397822382639</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>325.333592746169</v>
+        <v>326.2835322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>326.1044260795023</v>
+        <v>327.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>334.989842746169</v>
+        <v>335.9397822382639</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>346.333592746169</v>
+        <v>347.2835322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.989842746168982</v>
+        <v>2.939782238263889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.29192607950231</v>
+        <v>18.24186557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>23.94817607950231</v>
+        <v>24.89811557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.06275941283565</v>
+        <v>25.01269890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.18775941283565</v>
+        <v>25.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>29.94817607950232</v>
+        <v>30.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>31.06275941283565</v>
+        <v>32.01269890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>34.94817607950232</v>
+        <v>35.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>37.94817607950232</v>
+        <v>38.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.94817607950232</v>
+        <v>40.89811557159722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.02109274616898</v>
+        <v>49.97103223826389</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>50.94817607950232</v>
+        <v>51.89811557159722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>66.94817607950232</v>
+        <v>67.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>67.06275941283565</v>
+        <v>68.01269890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>67.18775941283565</v>
+        <v>68.13769890493056</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>74.06275941283565</v>
+        <v>75.01269890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>79.94817607950232</v>
+        <v>80.89811557159723</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.06275941283565</v>
+        <v>81.01269890493056</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>86.94817607950232</v>
+        <v>87.89811557159723</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>88.29192607950232</v>
+        <v>89.24186557159723</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>88.94817607950232</v>
+        <v>89.89811557159723</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>94.94817607950232</v>
+        <v>95.89811557159723</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.1877594128356</v>
+        <v>103.1376989049306</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.0627594128356</v>
+        <v>109.0126989049306</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>108.1877594128356</v>
+        <v>109.1376989049306</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>108.2919260795023</v>
+        <v>109.2418655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>114.9481760795023</v>
+        <v>115.8981155715972</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>115.9481760795023</v>
+        <v>116.8981155715972</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.0627594128356</v>
+        <v>130.0126989049305</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.9481760795023</v>
+        <v>130.8981155715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.1877594128356</v>
+        <v>144.1376989049305</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>150.9481760795023</v>
+        <v>151.8981155715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>157.0627594128356</v>
+        <v>158.0126989049305</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>157.989842746169</v>
+        <v>158.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>162.989842746169</v>
+        <v>163.9397822382639</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>164.1044260795023</v>
+        <v>165.0543655715972</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>164.333592746169</v>
+        <v>165.2835322382639</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.2294260795023</v>
+        <v>180.1793655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>185.333592746169</v>
+        <v>186.2835322382639</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>193.2294260795023</v>
+        <v>194.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>198.989842746169</v>
+        <v>199.9397822382639</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>199.1044260795023</v>
+        <v>200.0543655715972</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>213.083592746169</v>
+        <v>214.0335322382639</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>213.989842746169</v>
+        <v>214.9397822382639</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58167,7 +58167,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>220.083592746169</v>
+        <v>221.0335322382639</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>227.989842746169</v>
+        <v>228.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -58288,12 +58288,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Atalanta18952</t>
+          <t>AC Milan18956</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -58302,35 +58302,35 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.661</v>
+        <v>2.265</v>
       </c>
       <c r="G48" t="n">
-        <v>1.491</v>
+        <v>0.866</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -58349,7 +58349,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>18952</v>
+        <v>18956</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -58373,7 +58373,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -58391,12 +58391,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AC Milan18956</t>
+          <t>Atalanta18952</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -58405,35 +58405,35 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.265</v>
+        <v>3.661</v>
       </c>
       <c r="G49" t="n">
-        <v>0.866</v>
+        <v>1.491</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -58452,7 +58452,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>18956</v>
+        <v>18952</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -58476,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -58579,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>311.989842746169</v>
+        <v>312.9397822382639</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -58682,7 +58682,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.1044260795023</v>
+        <v>313.0543655715972</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>319.1044260795023</v>
+        <v>320.0543655715972</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>325.1044260795023</v>
+        <v>326.0543655715972</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -58991,7 +58991,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>325.2294260795023</v>
+        <v>326.1793655715972</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -59094,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>344.989842746169</v>
+        <v>345.9397822382639</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.062759412835648</v>
+        <v>3.012698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.187759412835648</v>
+        <v>3.137698904930556</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.187759412835648</v>
+        <v>5.137698904930556</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.291926079502315</v>
+        <v>5.241865571597223</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.94817607950231</v>
+        <v>23.89811557159722</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.29192607950232</v>
+        <v>25.24186557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.94817607950232</v>
+        <v>25.89811557159722</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>31.94817607950232</v>
+        <v>32.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.06275941283565</v>
+        <v>33.01269890493056</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>38.94817607950232</v>
+        <v>39.89811557159722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>45.06275941283565</v>
+        <v>46.01269890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>45.29192607950232</v>
+        <v>46.24186557159722</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.18775941283565</v>
+        <v>47.13769890493056</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>52.06275941283565</v>
+        <v>53.01269890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>52.18775941283565</v>
+        <v>53.13769890493056</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>59.18775941283565</v>
+        <v>60.13769890493056</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>60.94817607950232</v>
+        <v>61.89811557159722</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>80.18775941283565</v>
+        <v>81.13769890493056</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.18775941283565</v>
+        <v>89.13769890493056</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>95.18775941283565</v>
+        <v>96.13769890493056</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.04192607950232</v>
+        <v>96.99186557159723</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>102.1877594128356</v>
+        <v>103.1376989049306</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>102.9481760795023</v>
+        <v>103.8981155715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.9481760795023</v>
+        <v>109.8981155715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>115.1877594128356</v>
+        <v>116.1376989049306</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>120.9481760795023</v>
+        <v>121.8981155715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>122.2919260795023</v>
+        <v>123.2418655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1877594128356</v>
+        <v>124.1376989049306</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>129.1877594128356</v>
+        <v>130.1376989049305</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>129.2919260795023</v>
+        <v>130.2418655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>143.0627594128356</v>
+        <v>144.0126989049305</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>143.2919260795023</v>
+        <v>144.2418655715972</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9481760795023</v>
+        <v>145.8981155715972</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.0419260795023</v>
+        <v>149.9918655715972</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>150.1877594128356</v>
+        <v>151.1376989049305</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>155.9481760795023</v>
+        <v>156.8981155715972</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>157.1877594128356</v>
+        <v>158.1376989049305</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>177.989842746169</v>
+        <v>178.9397822382639</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.1044260795023</v>
+        <v>179.0543655715972</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -63300,12 +63300,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Frosinone22377</t>
+          <t>Lazio22382</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -63314,35 +63314,35 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.971</v>
+        <v>1.662</v>
       </c>
       <c r="G41" t="n">
-        <v>0.507</v>
+        <v>1.002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -63361,7 +63361,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>22377</v>
+        <v>22382</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>178.2294260795023</v>
+        <v>179.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -63403,12 +63403,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lazio22382</t>
+          <t>Frosinone22377</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -63417,35 +63417,35 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.662</v>
+        <v>1.971</v>
       </c>
       <c r="G42" t="n">
-        <v>1.002</v>
+        <v>0.507</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -63464,7 +63464,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>22382</v>
+        <v>22377</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>178.2294260795023</v>
+        <v>179.1793655715972</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>184.083592746169</v>
+        <v>185.0335322382639</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>187.989842746169</v>
+        <v>188.9397822382639</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -63712,12 +63712,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Monza22363</t>
+          <t>Frosinone22364</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -63726,22 +63726,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.034</v>
+        <v>0.978</v>
       </c>
       <c r="G45" t="n">
-        <v>1.042</v>
+        <v>1.453</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -63754,32 +63754,32 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>22363</v>
+        <v>22364</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>2</v>
@@ -63797,13 +63797,13 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>188.083592746169</v>
+        <v>189.0335322382639</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -63815,12 +63815,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Frosinone22364</t>
+          <t>Monza22363</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -63829,22 +63829,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.978</v>
+        <v>1.034</v>
       </c>
       <c r="G46" t="n">
-        <v>1.453</v>
+        <v>1.042</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -63857,32 +63857,32 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>22364</v>
+        <v>22363</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>2</v>
@@ -63900,13 +63900,13 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>188.083592746169</v>
+        <v>189.0335322382639</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>191.989842746169</v>
+        <v>192.9397822382639</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>192.989842746169</v>
+        <v>193.9397822382639</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>193.989842746169</v>
+        <v>194.9397822382639</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>199.333592746169</v>
+        <v>200.2835322382639</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>213.083592746169</v>
+        <v>214.0335322382639</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>219.989842746169</v>
+        <v>220.9397822382639</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -64639,12 +64639,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Frosinone22315</t>
+          <t>Monza22316</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -64653,45 +64653,45 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.761</v>
+        <v>2.047</v>
       </c>
       <c r="G54" t="n">
-        <v>1.443</v>
+        <v>1.14</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K54" t="n">
         <v>18</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>3</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -64700,7 +64700,7 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>22315</v>
+        <v>22316</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -64724,10 +64724,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>221.083592746169</v>
+        <v>222.0335322382639</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -64742,12 +64742,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Monza22316</t>
+          <t>Frosinone22315</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -64756,45 +64756,45 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.047</v>
+        <v>0.761</v>
       </c>
       <c r="G55" t="n">
-        <v>1.14</v>
+        <v>1.443</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K55" t="n">
         <v>18</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -64803,7 +64803,7 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>22316</v>
+        <v>22315</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -64827,10 +64827,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>221.083592746169</v>
+        <v>222.0335322382639</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>227.989842746169</v>
+        <v>228.9397822382639</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>318.2294260795023</v>
+        <v>319.1793655715972</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>331.989842746169</v>
+        <v>332.9397822382639</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>332.1044260795023</v>
+        <v>333.0543655715972</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>332.2294260795023</v>
+        <v>333.1793655715972</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>339.989842746169</v>
+        <v>340.9397822382639</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>341.083592746169</v>
+        <v>342.0335322382639</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>346.2294260795023</v>
+        <v>347.1793655715972</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.187759412835648</v>
+        <v>3.137698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.94817607950231</v>
+        <v>19.89811557159722</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.06275941283565</v>
+        <v>40.01269890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.18775941283565</v>
+        <v>40.13769890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>45.18775941283565</v>
+        <v>46.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.94817607950232</v>
+        <v>54.89811557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.18775941283565</v>
+        <v>61.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.18775941283565</v>
+        <v>61.13769890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>64.94817607950232</v>
+        <v>65.89811557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>73.06275941283565</v>
+        <v>74.01269890493056</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.18775941283565</v>
+        <v>74.13769890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.06275941283565</v>
+        <v>82.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>87.94817607950232</v>
+        <v>88.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.18775941283565</v>
+        <v>96.13769890493056</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.0419260795023</v>
+        <v>103.9918655715972</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -67676,7 +67676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.0627594128356</v>
+        <v>116.0126989049306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.0627594128356</v>
+        <v>123.0126989049306</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1877594128356</v>
+        <v>123.1376989049306</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>143.1877594128356</v>
+        <v>144.1376989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68088,7 +68088,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.2919260795023</v>
+        <v>151.2418655715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.0419260795023</v>
+        <v>156.9918655715972</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2294260795023</v>
+        <v>159.1793655715972</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.083592746169</v>
+        <v>181.0335322382639</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>184.083592746169</v>
+        <v>185.0335322382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>185.2294260795023</v>
+        <v>186.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2294260795023</v>
+        <v>193.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>197.989842746169</v>
+        <v>198.9397822382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>215.083592746169</v>
+        <v>216.0335322382639</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>219.083592746169</v>
+        <v>220.0335322382639</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>220.989842746169</v>
+        <v>221.9397822382639</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.083592746169</v>
+        <v>228.0335322382639</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>228.083592746169</v>
+        <v>229.0335322382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>306.0002594128356</v>
+        <v>306.9501989049305</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>311.333592746169</v>
+        <v>312.2835322382639</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.2294260795023</v>
+        <v>313.1793655715972</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>319.2294260795023</v>
+        <v>320.1793655715972</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>319.989842746169</v>
+        <v>320.9397822382639</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>323.989842746169</v>
+        <v>324.9397822382639</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2294260795023</v>
+        <v>327.1793655715972</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>330.989842746169</v>
+        <v>331.9397822382639</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>334.989842746169</v>
+        <v>335.9397822382639</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70475,12 +70475,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sassuolo18899</t>
+          <t>Cremonese18893</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -70489,35 +70489,35 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.332</v>
+        <v>0.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0.793</v>
+        <v>0.864</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -70530,13 +70530,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>18899</v>
+        <v>18893</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -70551,22 +70551,22 @@
         <v>3</v>
       </c>
       <c r="Z45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>339.2294260795023</v>
+        <v>340.1793655715972</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -70578,12 +70578,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cremonese18893</t>
+          <t>Sassuolo18899</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -70592,35 +70592,35 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.55</v>
+        <v>2.332</v>
       </c>
       <c r="G46" t="n">
-        <v>0.864</v>
+        <v>0.793</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -70633,13 +70633,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>18893</v>
+        <v>18899</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -70654,22 +70654,22 @@
         <v>3</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>339.2294260795023</v>
+        <v>340.1793655715972</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>340.989842746169</v>
+        <v>341.9397822382639</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>347.989842746169</v>
+        <v>348.9397822382639</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.291926079502315</v>
+        <v>3.241865571597223</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.06275941283565</v>
+        <v>18.01269890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>38.29192607950232</v>
+        <v>39.24186557159722</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.94817607950232</v>
+        <v>46.89811557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.93775941283565</v>
+        <v>47.88769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.18775941283565</v>
+        <v>53.13769890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.29192607950232</v>
+        <v>53.24186557159722</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>57.94817607950232</v>
+        <v>58.89811557159722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>59.94817607950232</v>
+        <v>60.89811557159722</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>77.94817607950232</v>
+        <v>78.89811557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>78.94817607950232</v>
+        <v>79.89811557159723</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.06275941283565</v>
+        <v>96.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.29192607950232</v>
+        <v>96.24186557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.0627594128356</v>
+        <v>103.0126989049306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>106.9481760795023</v>
+        <v>107.8981155715972</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>122.1877594128356</v>
+        <v>123.1376989049306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>122.9481760795023</v>
+        <v>123.8981155715972</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>142.9065094128356</v>
+        <v>143.8564489049305</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.0627594128356</v>
+        <v>145.0126989049305</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>150.0627594128356</v>
+        <v>151.0126989049305</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.2294260795023</v>
+        <v>165.1793655715972</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>183.989842746169</v>
+        <v>184.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>184.989842746169</v>
+        <v>185.9397822382639</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>188.989842746169</v>
+        <v>189.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>189.989842746169</v>
+        <v>190.9397822382639</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>192.2294260795023</v>
+        <v>193.1793655715972</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.083592746169</v>
+        <v>215.0335322382639</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.083592746169</v>
+        <v>221.0335322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>227.083592746169</v>
+        <v>228.0335322382639</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>303.9794260795023</v>
+        <v>304.9293655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>317.083592746169</v>
+        <v>318.0335322382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.989842746169</v>
+        <v>319.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -74439,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>324.989842746169</v>
+        <v>325.9397822382639</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>325.989842746169</v>
+        <v>326.9397822382639</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -74645,7 +74645,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -74663,12 +74663,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Atalanta18902</t>
+          <t>Juventus18905</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -74677,25 +74677,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.922</v>
+        <v>1.717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.321</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
+        <v>16</v>
+      </c>
+      <c r="K37" t="n">
         <v>14</v>
       </c>
-      <c r="K37" t="n">
-        <v>9</v>
-      </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -74705,7 +74705,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -74718,13 +74718,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>18902</v>
+        <v>18905</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -74748,13 +74748,13 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -74766,12 +74766,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Juventus18905</t>
+          <t>Atalanta18902</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -74780,25 +74780,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.717</v>
+        <v>0.922</v>
       </c>
       <c r="G38" t="n">
-        <v>1.321</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -74808,7 +74808,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -74821,13 +74821,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>18905</v>
+        <v>18902</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -74851,13 +74851,13 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>336.1044260795023</v>
+        <v>337.0543655715972</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -74954,7 +74954,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>339.1044260795023</v>
+        <v>340.0543655715972</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -75057,7 +75057,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.1044260795023</v>
+        <v>347.0543655715972</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.187759412835648</v>
+        <v>5.137698904930556</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.18775941283565</v>
+        <v>19.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.18775941283565</v>
+        <v>26.13769890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.18775941283565</v>
+        <v>32.13769890493056</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.02109274616898</v>
+        <v>47.97103223826389</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.29192607950232</v>
+        <v>60.24186557159722</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.18775941283565</v>
+        <v>67.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>66.29192607950232</v>
+        <v>67.24186557159723</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>73.29192607950232</v>
+        <v>74.24186557159723</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>80.29192607950232</v>
+        <v>81.24186557159723</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>81.18775941283565</v>
+        <v>82.13769890493056</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>88.06275941283565</v>
+        <v>89.01269890493056</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>95.94817607950232</v>
+        <v>96.89811557159723</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>109.0627594128356</v>
+        <v>110.0126989049306</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1877594128356</v>
+        <v>110.1376989049306</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>113.9481760795023</v>
+        <v>114.8981155715972</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0627594128356</v>
+        <v>124.0126989049306</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>148.9481760795023</v>
+        <v>149.8981155715972</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>157.2919260795023</v>
+        <v>158.2418655715972</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.989842746169</v>
+        <v>159.9397822382639</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>178.333592746169</v>
+        <v>179.2835322382639</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.989842746169</v>
+        <v>180.9397822382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>199.2294260795023</v>
+        <v>200.1793655715972</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>199.2294260795023</v>
+        <v>200.1793655715972</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>212.989842746169</v>
+        <v>213.9397822382639</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>219.989842746169</v>
+        <v>220.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>226.083592746169</v>
+        <v>227.0335322382639</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>304.083592746169</v>
+        <v>305.0335322382639</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.1044260795023</v>
+        <v>312.0543655715972</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -78318,7 +78318,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>311.2294260795023</v>
+        <v>312.1793655715972</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.333592746169</v>
+        <v>319.2835322382639</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>326.989842746169</v>
+        <v>327.9397822382639</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>335.9794260795023</v>
+        <v>336.9293655715972</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>339.1877594128356</v>
+        <v>340.1376989049305</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>353.2294260795023</v>
+        <v>354.1793655715972</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.06275941283565</v>
+        <v>19.01269890493056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -79210,7 +79210,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.18775941283565</v>
+        <v>26.13769890493056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.18775941283565</v>
+        <v>32.13769890493056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.29192607950232</v>
+        <v>32.24186557159722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.18775941283565</v>
+        <v>33.13769890493056</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.18775941283565</v>
+        <v>46.13769890493056</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.18775941283565</v>
+        <v>67.13769890493056</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.06275941283565</v>
+        <v>96.01269890493056</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0627594128356</v>
+        <v>103.0126989049306</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.1877594128356</v>
+        <v>109.1376989049306</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.0419260795023</v>
+        <v>114.9918655715972</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.0419260795023</v>
+        <v>128.9918655715972</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>129.1877594128356</v>
+        <v>130.1376989049305</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.0419260795023</v>
+        <v>145.9918655715972</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>163.083592746169</v>
+        <v>164.0335322382639</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>164.2294260795023</v>
+        <v>165.1793655715972</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>189.083592746169</v>
+        <v>190.0335322382639</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>194.083592746169</v>
+        <v>195.0335322382639</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>214.083592746169</v>
+        <v>215.0335322382639</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>304.9794260795023</v>
+        <v>305.9293655715972</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>312.989842746169</v>
+        <v>313.9397822382639</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>331.083592746169</v>
+        <v>332.0335322382639</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>331.083592746169</v>
+        <v>332.0335322382639</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>332.989842746169</v>
+        <v>333.9397822382639</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>346.2294260795023</v>
+        <v>347.1793655715972</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>346.989842746169</v>
+        <v>347.9397822382639</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>347.2294260795023</v>
+        <v>348.1793655715972</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>

--- a/EDA_DF/SerieA_Rank_ML.xlsx
+++ b/EDA_DF/SerieA_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.898115571597223</v>
+        <v>4.983579164525462</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.89811557159722</v>
+        <v>17.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.01269890493056</v>
+        <v>26.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>37.89811557159722</v>
+        <v>37.98357916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.99186557159722</v>
+        <v>38.07732916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.89811557159722</v>
+        <v>52.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.01269890493056</v>
+        <v>54.0981624978588</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.89811557159722</v>
+        <v>59.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.01269890493056</v>
+        <v>60.0981624978588</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.89811557159723</v>
+        <v>66.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.99186557159723</v>
+        <v>97.07732916452547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>102.8981155715972</v>
+        <v>102.9835791645255</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.0126989049306</v>
+        <v>117.0981624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.8981155715972</v>
+        <v>117.9835791645255</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>128.8981155715972</v>
+        <v>128.9835791645255</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.8981155715972</v>
+        <v>129.9835791645255</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.0126989049305</v>
+        <v>131.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.8981155715972</v>
+        <v>150.9835791645255</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.0126989049305</v>
+        <v>152.0981624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.8981155715972</v>
+        <v>152.9835791645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.9397822382639</v>
+        <v>165.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.0543655715972</v>
+        <v>180.1398291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.0543655715972</v>
+        <v>186.1398291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.0543655715972</v>
+        <v>187.1398291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.0543655715972</v>
+        <v>193.1398291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.0543655715972</v>
+        <v>201.1398291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.1793655715972</v>
+        <v>201.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.9397822382639</v>
+        <v>216.0252458311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.9397822382639</v>
+        <v>222.0252458311921</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>226.9397822382639</v>
+        <v>227.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>311.9397822382639</v>
+        <v>312.0252458311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.1793655715972</v>
+        <v>312.2648291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.2835322382639</v>
+        <v>333.3689958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.0543655715972</v>
+        <v>334.1398291645255</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.1793655715972</v>
+        <v>334.2648291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>339.9397822382639</v>
+        <v>340.0252458311921</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.2835322382639</v>
+        <v>340.3689958311921</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.0543655715972</v>
+        <v>341.1398291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.9397822382639</v>
+        <v>347.0252458311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.898115571597223</v>
+        <v>4.983579164525462</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.89811557159722</v>
+        <v>17.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.01269890493056</v>
+        <v>26.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>37.89811557159722</v>
+        <v>37.98357916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>37.99186557159722</v>
+        <v>38.07732916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.89811557159722</v>
+        <v>52.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.01269890493056</v>
+        <v>54.0981624978588</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.89811557159722</v>
+        <v>59.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.01269890493056</v>
+        <v>60.0981624978588</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.89811557159723</v>
+        <v>66.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>96.99186557159723</v>
+        <v>97.07732916452547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>102.8981155715972</v>
+        <v>102.9835791645255</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.0126989049306</v>
+        <v>117.0981624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.8981155715972</v>
+        <v>117.9835791645255</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>128.8981155715972</v>
+        <v>128.9835791645255</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.8981155715972</v>
+        <v>129.9835791645255</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.0126989049305</v>
+        <v>131.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.8981155715972</v>
+        <v>150.9835791645255</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.0126989049305</v>
+        <v>152.0981624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.8981155715972</v>
+        <v>152.9835791645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>164.9397822382639</v>
+        <v>165.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.0543655715972</v>
+        <v>180.1398291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.0543655715972</v>
+        <v>186.1398291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.0543655715972</v>
+        <v>187.1398291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.0543655715972</v>
+        <v>193.1398291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.0543655715972</v>
+        <v>201.1398291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.1793655715972</v>
+        <v>201.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.9397822382639</v>
+        <v>216.0252458311921</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.9397822382639</v>
+        <v>222.0252458311921</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>226.9397822382639</v>
+        <v>227.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>311.9397822382639</v>
+        <v>312.0252458311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.1793655715972</v>
+        <v>312.2648291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.2835322382639</v>
+        <v>333.3689958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.0543655715972</v>
+        <v>334.1398291645255</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.1793655715972</v>
+        <v>334.2648291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>339.9397822382639</v>
+        <v>340.0252458311921</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.2835322382639</v>
+        <v>340.3689958311921</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.0543655715972</v>
+        <v>341.1398291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>346.9397822382639</v>
+        <v>347.0252458311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.939782238263889</v>
+        <v>3.02524583119213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.24186557159722</v>
+        <v>18.32732916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.89811557159722</v>
+        <v>24.98357916452546</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.01269890493056</v>
+        <v>25.09816249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.13769890493056</v>
+        <v>25.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.89811557159722</v>
+        <v>30.98357916452546</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.01269890493056</v>
+        <v>32.09816249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>35.89811557159722</v>
+        <v>35.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.89811557159722</v>
+        <v>38.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.89811557159722</v>
+        <v>40.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.97103223826389</v>
+        <v>50.05649583119214</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>51.89811557159722</v>
+        <v>51.98357916452547</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.89811557159723</v>
+        <v>67.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.01269890493056</v>
+        <v>68.09816249785879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.13769890493056</v>
+        <v>68.22316249785879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.01269890493056</v>
+        <v>75.09816249785879</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>80.89811557159723</v>
+        <v>80.98357916452547</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.01269890493056</v>
+        <v>81.09816249785879</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>87.89811557159723</v>
+        <v>87.98357916452547</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.24186557159723</v>
+        <v>89.32732916452547</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>89.89811557159723</v>
+        <v>89.98357916452547</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>95.89811557159723</v>
+        <v>95.98357916452547</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.1376989049306</v>
+        <v>103.2231624978588</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.0126989049306</v>
+        <v>109.0981624978588</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.1376989049306</v>
+        <v>109.2231624978588</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.2418655715972</v>
+        <v>109.3273291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>115.8981155715972</v>
+        <v>115.9835791645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>116.8981155715972</v>
+        <v>116.9835791645255</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.0126989049305</v>
+        <v>130.0981624978588</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.8981155715972</v>
+        <v>130.9835791645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.1376989049305</v>
+        <v>144.2231624978588</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.8981155715972</v>
+        <v>151.9835791645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.0126989049305</v>
+        <v>158.0981624978588</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>158.9397822382639</v>
+        <v>159.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>163.9397822382639</v>
+        <v>164.0252458311921</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.0543655715972</v>
+        <v>165.1398291645255</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.2835322382639</v>
+        <v>165.3689958311921</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.1793655715972</v>
+        <v>180.2648291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.2835322382639</v>
+        <v>186.3689958311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.1793655715972</v>
+        <v>194.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>199.9397822382639</v>
+        <v>200.0252458311921</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.0543655715972</v>
+        <v>200.1398291645255</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.0335322382639</v>
+        <v>214.1189958311921</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>214.9397822382639</v>
+        <v>215.0252458311921</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.0335322382639</v>
+        <v>221.1189958311921</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>228.9397822382639</v>
+        <v>229.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -13730,12 +13730,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Verona18956</t>
+          <t>Monza18952</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -13744,35 +13744,35 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.866</v>
+        <v>1.491</v>
       </c>
       <c r="G48" t="n">
-        <v>2.265</v>
+        <v>3.661</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -13791,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>18956</v>
+        <v>18952</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13833,12 +13833,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Monza18952</t>
+          <t>Verona18956</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -13847,35 +13847,35 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.491</v>
+        <v>0.866</v>
       </c>
       <c r="G49" t="n">
-        <v>3.661</v>
+        <v>2.265</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -13894,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>18952</v>
+        <v>18956</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>312.9397822382639</v>
+        <v>313.0252458311921</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.0543655715972</v>
+        <v>313.1398291645255</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.0543655715972</v>
+        <v>320.1398291645255</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.0543655715972</v>
+        <v>326.1398291645255</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.1793655715972</v>
+        <v>326.2648291645255</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>345.9397822382639</v>
+        <v>346.0252458311921</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.241865571597223</v>
+        <v>3.327329164525463</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.01269890493056</v>
+        <v>18.09816249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.24186557159722</v>
+        <v>39.32732916452547</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.89811557159722</v>
+        <v>46.98357916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.88769890493056</v>
+        <v>47.97316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.13769890493056</v>
+        <v>53.2231624978588</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.24186557159722</v>
+        <v>53.32732916452547</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.89811557159722</v>
+        <v>58.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.89811557159722</v>
+        <v>60.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>78.89811557159723</v>
+        <v>78.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>79.89811557159723</v>
+        <v>79.98357916452547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.01269890493056</v>
+        <v>96.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.24186557159723</v>
+        <v>96.32732916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.0126989049306</v>
+        <v>103.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>107.8981155715972</v>
+        <v>107.9835791645255</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.1376989049306</v>
+        <v>123.2231624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.8981155715972</v>
+        <v>123.9835791645255</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.8564489049305</v>
+        <v>143.9419124978588</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.0126989049305</v>
+        <v>145.0981624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.0126989049305</v>
+        <v>151.0981624978588</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16870,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.1793655715972</v>
+        <v>165.2648291645255</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>184.9397822382639</v>
+        <v>185.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.9397822382639</v>
+        <v>186.0252458311921</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>190.9397822382639</v>
+        <v>191.0252458311921</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.1793655715972</v>
+        <v>193.2648291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.0335322382639</v>
+        <v>215.1189958311921</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.0335322382639</v>
+        <v>221.1189958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.0335322382639</v>
+        <v>228.1189958311921</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.0335322382639</v>
+        <v>318.1189958311921</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.9397822382639</v>
+        <v>320.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>325.9397822382639</v>
+        <v>326.0252458311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.9397822382639</v>
+        <v>327.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -18330,12 +18330,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lecce18905</t>
+          <t>Spezia18902</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -18344,35 +18344,35 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.321</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>1.717</v>
+        <v>0.922</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" t="n">
         <v>14</v>
       </c>
-      <c r="K37" t="n">
-        <v>16</v>
-      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -18385,13 +18385,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>18905</v>
+        <v>18902</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -18415,13 +18415,13 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -18433,12 +18433,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spezia18902</t>
+          <t>Lecce18905</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -18447,35 +18447,35 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.922</v>
+        <v>1.717</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -18488,13 +18488,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>18902</v>
+        <v>18905</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -18518,13 +18518,13 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0543655715972</v>
+        <v>340.1398291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.0543655715972</v>
+        <v>347.1398291645255</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.012698904930556</v>
+        <v>5.098162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.89811557159722</v>
+        <v>18.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.89811557159722</v>
+        <v>26.98357916452546</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.89811557159722</v>
+        <v>31.98357916452546</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.89811557159722</v>
+        <v>33.98357916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.01269890493056</v>
+        <v>39.09816249785879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.13769890493056</v>
+        <v>39.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>41.89811557159722</v>
+        <v>41.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.89811557159722</v>
+        <v>45.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.13769890493056</v>
+        <v>54.2231624978588</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.01269890493056</v>
+        <v>61.0981624978588</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.01269890493056</v>
+        <v>67.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.89811557159723</v>
+        <v>68.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>73.89811557159723</v>
+        <v>73.98357916452547</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.89811557159723</v>
+        <v>81.98357916452547</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.13769890493056</v>
+        <v>82.22316249785879</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.13769890493056</v>
+        <v>88.22316249785879</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>96.89811557159723</v>
+        <v>96.98357916452547</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.2418655715972</v>
+        <v>103.3273291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.8981155715972</v>
+        <v>108.9835791645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>110.8981155715972</v>
+        <v>110.9835791645255</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.2418655715972</v>
+        <v>116.3273291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.8981155715972</v>
+        <v>122.9835791645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>124.9397822382639</v>
+        <v>125.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.8981155715972</v>
+        <v>144.9835791645255</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.1376989049305</v>
+        <v>145.2231624978588</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>157.8981155715972</v>
+        <v>157.9835791645255</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.0543655715972</v>
+        <v>159.1398291645255</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.0543655715972</v>
+        <v>166.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>179.9397822382639</v>
+        <v>180.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.1793655715972</v>
+        <v>187.2648291645255</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.9397822382639</v>
+        <v>201.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.9397822382639</v>
+        <v>215.0252458311921</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.9397822382639</v>
+        <v>220.0252458311921</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>227.9397822382639</v>
+        <v>228.0252458311921</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.0335322382639</v>
+        <v>229.1189958311921</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.0335322382639</v>
+        <v>306.1189958311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.0543655715972</v>
+        <v>319.1398291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.1793655715972</v>
+        <v>326.2648291645255</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.0543655715972</v>
+        <v>348.1398291645255</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.012698904930556</v>
+        <v>3.098162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.137698904930556</v>
+        <v>3.223162497858796</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.137698904930556</v>
+        <v>5.223162497858796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.241865571597223</v>
+        <v>5.327329164525462</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.89811557159722</v>
+        <v>23.98357916452546</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.24186557159722</v>
+        <v>25.32732916452546</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.89811557159722</v>
+        <v>25.98357916452546</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.89811557159722</v>
+        <v>32.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.01269890493056</v>
+        <v>33.09816249785879</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.89811557159722</v>
+        <v>39.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.01269890493056</v>
+        <v>46.09816249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.24186557159722</v>
+        <v>46.32732916452547</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.13769890493056</v>
+        <v>47.22316249785879</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.01269890493056</v>
+        <v>53.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.13769890493056</v>
+        <v>53.2231624978588</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.13769890493056</v>
+        <v>60.2231624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>61.89811557159722</v>
+        <v>61.98357916452547</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.13769890493056</v>
+        <v>81.22316249785879</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.13769890493056</v>
+        <v>89.22316249785879</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.13769890493056</v>
+        <v>96.22316249785879</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.99186557159723</v>
+        <v>97.07732916452547</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.1376989049306</v>
+        <v>103.2231624978588</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.8981155715972</v>
+        <v>103.9835791645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.8981155715972</v>
+        <v>109.9835791645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.1376989049306</v>
+        <v>116.2231624978588</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>121.8981155715972</v>
+        <v>121.9835791645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.2418655715972</v>
+        <v>123.3273291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.1376989049306</v>
+        <v>124.2231624978588</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.1376989049305</v>
+        <v>130.2231624978588</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.2418655715972</v>
+        <v>130.3273291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0126989049305</v>
+        <v>144.0981624978588</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.2418655715972</v>
+        <v>144.3273291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.8981155715972</v>
+        <v>145.9835791645255</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.9918655715972</v>
+        <v>150.0773291645255</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.1376989049305</v>
+        <v>151.2231624978588</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>156.8981155715972</v>
+        <v>156.9835791645255</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.1376989049305</v>
+        <v>158.2231624978588</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>178.9397822382639</v>
+        <v>179.0252458311921</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.0543655715972</v>
+        <v>179.1398291645255</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -27427,12 +27427,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Atalanta22382</t>
+          <t>Verona22377</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -27441,25 +27441,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.002</v>
+        <v>0.507</v>
       </c>
       <c r="G41" t="n">
-        <v>1.662</v>
+        <v>1.971</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -27488,7 +27488,7 @@
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>22382</v>
+        <v>22377</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.1793655715972</v>
+        <v>179.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -27530,12 +27530,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Verona22377</t>
+          <t>Atalanta22382</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -27544,25 +27544,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.507</v>
+        <v>1.002</v>
       </c>
       <c r="G42" t="n">
-        <v>1.971</v>
+        <v>1.662</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -27591,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>22377</v>
+        <v>22382</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.1793655715972</v>
+        <v>179.2648291645255</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.0335322382639</v>
+        <v>185.1189958311921</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>188.9397822382639</v>
+        <v>189.0252458311921</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.0335322382639</v>
+        <v>189.1189958311921</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.0335322382639</v>
+        <v>189.1189958311921</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>192.9397822382639</v>
+        <v>193.0252458311921</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>193.9397822382639</v>
+        <v>194.0252458311921</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>194.9397822382639</v>
+        <v>195.0252458311921</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.2835322382639</v>
+        <v>200.3689958311921</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -28645,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.0335322382639</v>
+        <v>214.1189958311921</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>220.9397822382639</v>
+        <v>221.0252458311921</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -28766,12 +28766,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Empoli22316</t>
+          <t>Atalanta22315</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -28780,13 +28780,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.14</v>
+        <v>1.443</v>
       </c>
       <c r="G54" t="n">
-        <v>2.047</v>
+        <v>0.761</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -28795,27 +28795,27 @@
         <v>18</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -28827,7 +28827,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>22316</v>
+        <v>22315</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -28851,13 +28851,13 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.0335322382639</v>
+        <v>222.1189958311921</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -28869,12 +28869,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Atalanta22315</t>
+          <t>Empoli22316</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -28883,13 +28883,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.443</v>
+        <v>1.14</v>
       </c>
       <c r="G55" t="n">
-        <v>0.761</v>
+        <v>2.047</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -28898,27 +28898,27 @@
         <v>18</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -28930,7 +28930,7 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>22315</v>
+        <v>22316</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -28954,13 +28954,13 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.0335322382639</v>
+        <v>222.1189958311921</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>228.9397822382639</v>
+        <v>229.0252458311921</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.1793655715972</v>
+        <v>319.2648291645255</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>332.9397822382639</v>
+        <v>333.0252458311921</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.0543655715972</v>
+        <v>333.1398291645255</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.1793655715972</v>
+        <v>333.2648291645255</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>340.9397822382639</v>
+        <v>341.0252458311921</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -29881,7 +29881,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.0335322382639</v>
+        <v>342.1189958311921</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.1793655715972</v>
+        <v>347.2648291645255</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.137698904930556</v>
+        <v>5.223162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.13769890493056</v>
+        <v>19.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.13769890493056</v>
+        <v>26.22316249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.13769890493056</v>
+        <v>32.22316249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.97103223826389</v>
+        <v>48.05649583119213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.24186557159722</v>
+        <v>60.32732916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.13769890493056</v>
+        <v>67.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.24186557159723</v>
+        <v>67.32732916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.24186557159723</v>
+        <v>74.32732916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.24186557159723</v>
+        <v>81.32732916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.13769890493056</v>
+        <v>82.22316249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.01269890493056</v>
+        <v>89.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.89811557159723</v>
+        <v>96.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.0126989049306</v>
+        <v>110.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.1376989049306</v>
+        <v>110.2231624978588</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>114.8981155715972</v>
+        <v>114.9835791645255</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.0126989049306</v>
+        <v>124.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.8981155715972</v>
+        <v>149.9835791645255</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.2418655715972</v>
+        <v>158.3273291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.9397822382639</v>
+        <v>160.0252458311921</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.2835322382639</v>
+        <v>179.3689958311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.9397822382639</v>
+        <v>181.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -32439,12 +32439,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sassuolo22339</t>
+          <t>Lecce22340</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -32453,35 +32453,35 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.934</v>
+        <v>0.896</v>
       </c>
       <c r="G24" t="n">
-        <v>2.976</v>
+        <v>3.331</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="n">
-        <v>18</v>
-      </c>
       <c r="K24" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -32500,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>22339</v>
+        <v>22340</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -32518,13 +32518,13 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.1793655715972</v>
+        <v>200.2648291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -32542,12 +32542,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lecce22340</t>
+          <t>Sassuolo22339</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -32556,35 +32556,35 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.896</v>
+        <v>1.934</v>
       </c>
       <c r="G25" t="n">
-        <v>3.331</v>
+        <v>2.976</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -32603,7 +32603,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>22340</v>
+        <v>22339</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.1793655715972</v>
+        <v>200.2648291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>213.9397822382639</v>
+        <v>214.0252458311921</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>220.9397822382639</v>
+        <v>221.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.0335322382639</v>
+        <v>227.1189958311921</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.0335322382639</v>
+        <v>305.1189958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.0543655715972</v>
+        <v>312.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.1793655715972</v>
+        <v>312.2648291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.2835322382639</v>
+        <v>319.3689958311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>327.9397822382639</v>
+        <v>328.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.1376989049305</v>
+        <v>340.2231624978588</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.1793655715972</v>
+        <v>354.2648291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.13769890493056</v>
+        <v>18.22316249785879</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.13769890493056</v>
+        <v>19.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.01269890493056</v>
+        <v>36.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.01269890493056</v>
+        <v>47.09816249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.89811557159722</v>
+        <v>53.98357916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.89811557159723</v>
+        <v>74.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.01269890493056</v>
+        <v>88.09816249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.13769890493056</v>
+        <v>88.22316249785879</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.24186557159723</v>
+        <v>88.32732916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>103.8981155715972</v>
+        <v>103.9835791645255</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.9918655715972</v>
+        <v>104.0773291645255</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.1376989049306</v>
+        <v>117.2231624978588</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.1376989049305</v>
+        <v>131.2231624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.1376989049305</v>
+        <v>152.2231624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>165.9397822382639</v>
+        <v>166.0252458311921</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.1793655715972</v>
+        <v>166.2648291645255</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>186.9397822382639</v>
+        <v>187.0252458311921</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.2835322382639</v>
+        <v>193.3689958311921</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.0543655715972</v>
+        <v>194.1398291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.0335322382639</v>
+        <v>199.1189958311921</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>213.9397822382639</v>
+        <v>214.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>227.9397822382639</v>
+        <v>228.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>305.9293655715972</v>
+        <v>306.0148291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.1793655715972</v>
+        <v>313.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>317.9397822382639</v>
+        <v>318.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>318.9397822382639</v>
+        <v>319.0252458311921</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.2835322382639</v>
+        <v>326.3689958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.0543655715972</v>
+        <v>327.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>335.9397822382639</v>
+        <v>336.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.2835322382639</v>
+        <v>347.3689958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.137698904930556</v>
+        <v>3.223162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.89811557159722</v>
+        <v>19.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.01269890493056</v>
+        <v>40.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.13769890493056</v>
+        <v>40.22316249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.13769890493056</v>
+        <v>46.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.89811557159722</v>
+        <v>54.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.13769890493056</v>
+        <v>61.2231624978588</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.13769890493056</v>
+        <v>61.2231624978588</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>65.89811557159723</v>
+        <v>65.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.01269890493056</v>
+        <v>74.09816249785879</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.13769890493056</v>
+        <v>74.22316249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.01269890493056</v>
+        <v>82.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>88.89811557159723</v>
+        <v>88.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.13769890493056</v>
+        <v>96.22316249785879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.9918655715972</v>
+        <v>104.0773291645255</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.0126989049306</v>
+        <v>116.0981624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0126989049306</v>
+        <v>123.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.1376989049306</v>
+        <v>123.2231624978588</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.1376989049305</v>
+        <v>144.2231624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.2418655715972</v>
+        <v>151.3273291645255</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.9918655715972</v>
+        <v>157.0773291645255</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.1793655715972</v>
+        <v>159.2648291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.0335322382639</v>
+        <v>181.1189958311921</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.0335322382639</v>
+        <v>185.1189958311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.1793655715972</v>
+        <v>186.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.1793655715972</v>
+        <v>193.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>198.9397822382639</v>
+        <v>199.0252458311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.0335322382639</v>
+        <v>216.1189958311921</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.0335322382639</v>
+        <v>220.1189958311921</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.9397822382639</v>
+        <v>222.0252458311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.0335322382639</v>
+        <v>228.1189958311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.0335322382639</v>
+        <v>229.1189958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>306.9501989049305</v>
+        <v>307.0356624978588</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.2835322382639</v>
+        <v>312.3689958311921</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.1793655715972</v>
+        <v>313.2648291645255</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.1793655715972</v>
+        <v>320.2648291645255</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>320.9397822382639</v>
+        <v>321.0252458311921</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>324.9397822382639</v>
+        <v>325.0252458311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.1793655715972</v>
+        <v>327.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>331.9397822382639</v>
+        <v>332.0252458311921</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>335.9397822382639</v>
+        <v>336.0252458311921</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -41948,12 +41948,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Empoli18899</t>
+          <t>Verona18893</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -41962,35 +41962,35 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.793</v>
+        <v>0.864</v>
       </c>
       <c r="G45" t="n">
-        <v>2.332</v>
+        <v>0.55</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -42003,13 +42003,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>18899</v>
+        <v>18893</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -42027,19 +42027,19 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.1793655715972</v>
+        <v>340.2648291645255</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -42051,12 +42051,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Verona18893</t>
+          <t>Empoli18899</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -42065,35 +42065,35 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.864</v>
+        <v>0.793</v>
       </c>
       <c r="G46" t="n">
-        <v>0.55</v>
+        <v>2.332</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -42106,13 +42106,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>18893</v>
+        <v>18899</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -42130,19 +42130,19 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.1793655715972</v>
+        <v>340.2648291645255</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -42239,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>341.9397822382639</v>
+        <v>342.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -42342,7 +42342,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>348.9397822382639</v>
+        <v>349.0252458311921</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.01269890493056</v>
+        <v>19.09816249785879</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.13769890493056</v>
+        <v>26.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.13769890493056</v>
+        <v>32.22316249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.24186557159722</v>
+        <v>32.32732916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.13769890493056</v>
+        <v>33.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.13769890493056</v>
+        <v>46.22316249785879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.13769890493056</v>
+        <v>67.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.01269890493056</v>
+        <v>96.09816249785879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.0126989049306</v>
+        <v>103.0981624978588</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.1376989049306</v>
+        <v>109.2231624978588</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.9918655715972</v>
+        <v>115.0773291645255</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.9918655715972</v>
+        <v>129.0773291645255</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1376989049305</v>
+        <v>130.2231624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.9918655715972</v>
+        <v>146.0773291645255</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -44058,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.0335322382639</v>
+        <v>164.1189958311921</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -44161,7 +44161,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.1793655715972</v>
+        <v>165.2648291645255</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -44367,7 +44367,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.0335322382639</v>
+        <v>195.1189958311921</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44470,7 +44470,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.0335322382639</v>
+        <v>215.1189958311921</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.9293655715972</v>
+        <v>306.0148291645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44676,7 +44676,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>313.9397822382639</v>
+        <v>314.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.0335322382639</v>
+        <v>332.1189958311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44882,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.0335322382639</v>
+        <v>332.1189958311921</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.9397822382639</v>
+        <v>334.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45088,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.1793655715972</v>
+        <v>347.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -45191,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.9397822382639</v>
+        <v>348.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45294,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.1793655715972</v>
+        <v>348.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.012698904930556</v>
+        <v>5.098162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.89811557159722</v>
+        <v>18.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.89811557159722</v>
+        <v>26.98357916452546</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.89811557159722</v>
+        <v>31.98357916452546</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.89811557159722</v>
+        <v>33.98357916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.01269890493056</v>
+        <v>39.09816249785879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.13769890493056</v>
+        <v>39.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>41.89811557159722</v>
+        <v>41.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.89811557159722</v>
+        <v>45.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.13769890493056</v>
+        <v>54.2231624978588</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.01269890493056</v>
+        <v>61.0981624978588</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.01269890493056</v>
+        <v>67.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.89811557159723</v>
+        <v>68.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>73.89811557159723</v>
+        <v>73.98357916452547</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.89811557159723</v>
+        <v>81.98357916452547</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.13769890493056</v>
+        <v>82.22316249785879</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.13769890493056</v>
+        <v>88.22316249785879</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>96.89811557159723</v>
+        <v>96.98357916452547</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.2418655715972</v>
+        <v>103.3273291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.8981155715972</v>
+        <v>108.9835791645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>110.8981155715972</v>
+        <v>110.9835791645255</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.2418655715972</v>
+        <v>116.3273291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.8981155715972</v>
+        <v>122.9835791645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>124.9397822382639</v>
+        <v>125.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.8981155715972</v>
+        <v>144.9835791645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.1376989049305</v>
+        <v>145.2231624978588</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>157.8981155715972</v>
+        <v>157.9835791645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.0543655715972</v>
+        <v>159.1398291645255</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.0543655715972</v>
+        <v>166.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>179.9397822382639</v>
+        <v>180.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.1793655715972</v>
+        <v>187.2648291645255</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.9397822382639</v>
+        <v>201.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -49070,7 +49070,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>214.9397822382639</v>
+        <v>215.0252458311921</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>219.9397822382639</v>
+        <v>220.0252458311921</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>227.9397822382639</v>
+        <v>228.0252458311921</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.0335322382639</v>
+        <v>229.1189958311921</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.0335322382639</v>
+        <v>306.1189958311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.0543655715972</v>
+        <v>319.1398291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -49688,7 +49688,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.1793655715972</v>
+        <v>326.2648291645255</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.0543655715972</v>
+        <v>348.1398291645255</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.13769890493056</v>
+        <v>18.22316249785879</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.13769890493056</v>
+        <v>19.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.01269890493056</v>
+        <v>36.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.01269890493056</v>
+        <v>47.09816249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.89811557159722</v>
+        <v>53.98357916452547</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.89811557159723</v>
+        <v>74.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.01269890493056</v>
+        <v>88.09816249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.13769890493056</v>
+        <v>88.22316249785879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.24186557159723</v>
+        <v>88.32732916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>103.8981155715972</v>
+        <v>103.9835791645255</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>103.9918655715972</v>
+        <v>104.0773291645255</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.1376989049306</v>
+        <v>117.2231624978588</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.1376989049305</v>
+        <v>131.2231624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.1376989049305</v>
+        <v>152.2231624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>165.9397822382639</v>
+        <v>166.0252458311921</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.1793655715972</v>
+        <v>166.2648291645255</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>186.9397822382639</v>
+        <v>187.0252458311921</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.2835322382639</v>
+        <v>193.3689958311921</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.0543655715972</v>
+        <v>194.1398291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.0335322382639</v>
+        <v>199.1189958311921</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>213.9397822382639</v>
+        <v>214.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>227.9397822382639</v>
+        <v>228.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>305.9293655715972</v>
+        <v>306.0148291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.1793655715972</v>
+        <v>313.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>317.9397822382639</v>
+        <v>318.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -52743,7 +52743,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>318.9397822382639</v>
+        <v>319.0252458311921</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.2835322382639</v>
+        <v>326.3689958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.0543655715972</v>
+        <v>327.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>335.9397822382639</v>
+        <v>336.0252458311921</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.2835322382639</v>
+        <v>347.3689958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.939782238263889</v>
+        <v>3.02524583119213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.24186557159722</v>
+        <v>18.32732916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.89811557159722</v>
+        <v>24.98357916452546</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.01269890493056</v>
+        <v>25.09816249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.13769890493056</v>
+        <v>25.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.89811557159722</v>
+        <v>30.98357916452546</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.01269890493056</v>
+        <v>32.09816249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>35.89811557159722</v>
+        <v>35.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.89811557159722</v>
+        <v>38.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.89811557159722</v>
+        <v>40.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>49.97103223826389</v>
+        <v>50.05649583119214</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>51.89811557159722</v>
+        <v>51.98357916452547</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.89811557159723</v>
+        <v>67.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.01269890493056</v>
+        <v>68.09816249785879</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.13769890493056</v>
+        <v>68.22316249785879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.01269890493056</v>
+        <v>75.09816249785879</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>80.89811557159723</v>
+        <v>80.98357916452547</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.01269890493056</v>
+        <v>81.09816249785879</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>87.89811557159723</v>
+        <v>87.98357916452547</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.24186557159723</v>
+        <v>89.32732916452547</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>89.89811557159723</v>
+        <v>89.98357916452547</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>95.89811557159723</v>
+        <v>95.98357916452547</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.1376989049306</v>
+        <v>103.2231624978588</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.0126989049306</v>
+        <v>109.0981624978588</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.1376989049306</v>
+        <v>109.2231624978588</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.2418655715972</v>
+        <v>109.3273291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>115.8981155715972</v>
+        <v>115.9835791645255</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>116.8981155715972</v>
+        <v>116.9835791645255</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.0126989049305</v>
+        <v>130.0981624978588</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.8981155715972</v>
+        <v>130.9835791645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.1376989049305</v>
+        <v>144.2231624978588</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.8981155715972</v>
+        <v>151.9835791645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.0126989049305</v>
+        <v>158.0981624978588</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>158.9397822382639</v>
+        <v>159.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>163.9397822382639</v>
+        <v>164.0252458311921</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.0543655715972</v>
+        <v>165.1398291645255</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.2835322382639</v>
+        <v>165.3689958311921</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.1793655715972</v>
+        <v>180.2648291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.2835322382639</v>
+        <v>186.3689958311921</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.1793655715972</v>
+        <v>194.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>199.9397822382639</v>
+        <v>200.0252458311921</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.0543655715972</v>
+        <v>200.1398291645255</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.0335322382639</v>
+        <v>214.1189958311921</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>214.9397822382639</v>
+        <v>215.0252458311921</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58167,7 +58167,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.0335322382639</v>
+        <v>221.1189958311921</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>228.9397822382639</v>
+        <v>229.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -58288,12 +58288,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AC Milan18956</t>
+          <t>Atalanta18952</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -58302,35 +58302,35 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.265</v>
+        <v>3.661</v>
       </c>
       <c r="G48" t="n">
-        <v>0.866</v>
+        <v>1.491</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
         <v>3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -58349,7 +58349,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>18956</v>
+        <v>18952</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -58373,7 +58373,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -58391,12 +58391,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atalanta18952</t>
+          <t>AC Milan18956</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -58405,35 +58405,35 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.661</v>
+        <v>2.265</v>
       </c>
       <c r="G49" t="n">
-        <v>1.491</v>
+        <v>0.866</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -58452,7 +58452,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>18952</v>
+        <v>18956</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -58476,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -58579,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>312.9397822382639</v>
+        <v>313.0252458311921</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -58682,7 +58682,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.0543655715972</v>
+        <v>313.1398291645255</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.0543655715972</v>
+        <v>320.1398291645255</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.0543655715972</v>
+        <v>326.1398291645255</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -58991,7 +58991,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.1793655715972</v>
+        <v>326.2648291645255</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -59094,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>345.9397822382639</v>
+        <v>346.0252458311921</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.012698904930556</v>
+        <v>3.098162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.137698904930556</v>
+        <v>3.223162497858796</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.137698904930556</v>
+        <v>5.223162497858796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.241865571597223</v>
+        <v>5.327329164525462</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.89811557159722</v>
+        <v>23.98357916452546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.24186557159722</v>
+        <v>25.32732916452546</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.89811557159722</v>
+        <v>25.98357916452546</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.89811557159722</v>
+        <v>32.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.01269890493056</v>
+        <v>33.09816249785879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.89811557159722</v>
+        <v>39.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.01269890493056</v>
+        <v>46.09816249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.24186557159722</v>
+        <v>46.32732916452547</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.13769890493056</v>
+        <v>47.22316249785879</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.01269890493056</v>
+        <v>53.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.13769890493056</v>
+        <v>53.2231624978588</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.13769890493056</v>
+        <v>60.2231624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>61.89811557159722</v>
+        <v>61.98357916452547</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.13769890493056</v>
+        <v>81.22316249785879</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.13769890493056</v>
+        <v>89.22316249785879</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.13769890493056</v>
+        <v>96.22316249785879</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>96.99186557159723</v>
+        <v>97.07732916452547</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.1376989049306</v>
+        <v>103.2231624978588</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.8981155715972</v>
+        <v>103.9835791645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.8981155715972</v>
+        <v>109.9835791645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.1376989049306</v>
+        <v>116.2231624978588</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>121.8981155715972</v>
+        <v>121.9835791645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.2418655715972</v>
+        <v>123.3273291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.1376989049306</v>
+        <v>124.2231624978588</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.1376989049305</v>
+        <v>130.2231624978588</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.2418655715972</v>
+        <v>130.3273291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0126989049305</v>
+        <v>144.0981624978588</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.2418655715972</v>
+        <v>144.3273291645255</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.8981155715972</v>
+        <v>145.9835791645255</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>149.9918655715972</v>
+        <v>150.0773291645255</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.1376989049305</v>
+        <v>151.2231624978588</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>156.8981155715972</v>
+        <v>156.9835791645255</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.1376989049305</v>
+        <v>158.2231624978588</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>178.9397822382639</v>
+        <v>179.0252458311921</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.0543655715972</v>
+        <v>179.1398291645255</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -63300,12 +63300,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lazio22382</t>
+          <t>Frosinone22377</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -63314,35 +63314,35 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.662</v>
+        <v>1.971</v>
       </c>
       <c r="G41" t="n">
-        <v>1.002</v>
+        <v>0.507</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>3</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -63361,7 +63361,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>22382</v>
+        <v>22377</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.1793655715972</v>
+        <v>179.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -63403,12 +63403,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Frosinone22377</t>
+          <t>Lazio22382</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -63417,35 +63417,35 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.971</v>
+        <v>1.662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.507</v>
+        <v>1.002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -63464,7 +63464,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>22377</v>
+        <v>22382</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.1793655715972</v>
+        <v>179.2648291645255</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.0335322382639</v>
+        <v>185.1189958311921</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>188.9397822382639</v>
+        <v>189.0252458311921</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -63712,12 +63712,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Frosinone22364</t>
+          <t>Monza22363</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -63726,22 +63726,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.978</v>
+        <v>1.034</v>
       </c>
       <c r="G45" t="n">
-        <v>1.453</v>
+        <v>1.042</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>11</v>
       </c>
       <c r="K45" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -63754,32 +63754,32 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>22364</v>
+        <v>22363</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
         <v>2</v>
@@ -63797,13 +63797,13 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.0335322382639</v>
+        <v>189.1189958311921</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -63815,12 +63815,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Monza22363</t>
+          <t>Frosinone22364</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -63829,22 +63829,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.034</v>
+        <v>0.978</v>
       </c>
       <c r="G46" t="n">
-        <v>1.042</v>
+        <v>1.453</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -63857,32 +63857,32 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>22363</v>
+        <v>22364</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>2</v>
@@ -63900,13 +63900,13 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.0335322382639</v>
+        <v>189.1189958311921</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>192.9397822382639</v>
+        <v>193.0252458311921</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>193.9397822382639</v>
+        <v>194.0252458311921</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>194.9397822382639</v>
+        <v>195.0252458311921</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.2835322382639</v>
+        <v>200.3689958311921</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.0335322382639</v>
+        <v>214.1189958311921</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>220.9397822382639</v>
+        <v>221.0252458311921</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -64639,12 +64639,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Monza22316</t>
+          <t>Frosinone22315</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -64653,45 +64653,45 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.047</v>
+        <v>0.761</v>
       </c>
       <c r="G54" t="n">
-        <v>1.14</v>
+        <v>1.443</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K54" t="n">
         <v>18</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
         <v>3</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -64700,7 +64700,7 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>22316</v>
+        <v>22315</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -64724,10 +64724,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.0335322382639</v>
+        <v>222.1189958311921</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -64742,12 +64742,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Frosinone22315</t>
+          <t>Monza22316</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -64756,45 +64756,45 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.761</v>
+        <v>2.047</v>
       </c>
       <c r="G55" t="n">
-        <v>1.443</v>
+        <v>1.14</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K55" t="n">
         <v>18</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>3</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -64803,7 +64803,7 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>22315</v>
+        <v>22316</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -64827,10 +64827,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.0335322382639</v>
+        <v>222.1189958311921</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>228.9397822382639</v>
+        <v>229.0252458311921</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.1793655715972</v>
+        <v>319.2648291645255</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>332.9397822382639</v>
+        <v>333.0252458311921</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.0543655715972</v>
+        <v>333.1398291645255</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.1793655715972</v>
+        <v>333.2648291645255</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>340.9397822382639</v>
+        <v>341.0252458311921</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.0335322382639</v>
+        <v>342.1189958311921</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.1793655715972</v>
+        <v>347.2648291645255</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.137698904930556</v>
+        <v>3.223162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.89811557159722</v>
+        <v>19.98357916452546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.01269890493056</v>
+        <v>40.09816249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.13769890493056</v>
+        <v>40.22316249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.13769890493056</v>
+        <v>46.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.89811557159722</v>
+        <v>54.98357916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.13769890493056</v>
+        <v>61.2231624978588</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.13769890493056</v>
+        <v>61.2231624978588</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>65.89811557159723</v>
+        <v>65.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.01269890493056</v>
+        <v>74.09816249785879</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.13769890493056</v>
+        <v>74.22316249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.01269890493056</v>
+        <v>82.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>88.89811557159723</v>
+        <v>88.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.13769890493056</v>
+        <v>96.22316249785879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.9918655715972</v>
+        <v>104.0773291645255</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -67676,7 +67676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.0126989049306</v>
+        <v>116.0981624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0126989049306</v>
+        <v>123.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.1376989049306</v>
+        <v>123.2231624978588</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.1376989049305</v>
+        <v>144.2231624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68088,7 +68088,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.2418655715972</v>
+        <v>151.3273291645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>156.9918655715972</v>
+        <v>157.0773291645255</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.1793655715972</v>
+        <v>159.2648291645255</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.0335322382639</v>
+        <v>181.1189958311921</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.0335322382639</v>
+        <v>185.1189958311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.1793655715972</v>
+        <v>186.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.1793655715972</v>
+        <v>193.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>198.9397822382639</v>
+        <v>199.0252458311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.0335322382639</v>
+        <v>216.1189958311921</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.0335322382639</v>
+        <v>220.1189958311921</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.9397822382639</v>
+        <v>222.0252458311921</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.0335322382639</v>
+        <v>228.1189958311921</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.0335322382639</v>
+        <v>229.1189958311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>306.9501989049305</v>
+        <v>307.0356624978588</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.2835322382639</v>
+        <v>312.3689958311921</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.1793655715972</v>
+        <v>313.2648291645255</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.1793655715972</v>
+        <v>320.2648291645255</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>320.9397822382639</v>
+        <v>321.0252458311921</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>324.9397822382639</v>
+        <v>325.0252458311921</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.1793655715972</v>
+        <v>327.2648291645255</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>331.9397822382639</v>
+        <v>332.0252458311921</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>335.9397822382639</v>
+        <v>336.0252458311921</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70475,12 +70475,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cremonese18893</t>
+          <t>Sassuolo18899</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -70489,35 +70489,35 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.55</v>
+        <v>2.332</v>
       </c>
       <c r="G45" t="n">
-        <v>0.864</v>
+        <v>0.793</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -70530,13 +70530,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>18893</v>
+        <v>18899</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -70551,22 +70551,22 @@
         <v>3</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.1793655715972</v>
+        <v>340.2648291645255</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -70578,12 +70578,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sassuolo18899</t>
+          <t>Cremonese18893</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -70592,35 +70592,35 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.332</v>
+        <v>0.55</v>
       </c>
       <c r="G46" t="n">
-        <v>0.793</v>
+        <v>0.864</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -70633,13 +70633,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>18899</v>
+        <v>18893</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -70654,22 +70654,22 @@
         <v>3</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.1793655715972</v>
+        <v>340.2648291645255</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>341.9397822382639</v>
+        <v>342.0252458311921</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>348.9397822382639</v>
+        <v>349.0252458311921</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.241865571597223</v>
+        <v>3.327329164525463</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.01269890493056</v>
+        <v>18.09816249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.24186557159722</v>
+        <v>39.32732916452547</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.89811557159722</v>
+        <v>46.98357916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.88769890493056</v>
+        <v>47.97316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.13769890493056</v>
+        <v>53.2231624978588</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.24186557159722</v>
+        <v>53.32732916452547</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.89811557159722</v>
+        <v>58.98357916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.89811557159722</v>
+        <v>60.98357916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>78.89811557159723</v>
+        <v>78.98357916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>79.89811557159723</v>
+        <v>79.98357916452547</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.01269890493056</v>
+        <v>96.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.24186557159723</v>
+        <v>96.32732916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.0126989049306</v>
+        <v>103.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>107.8981155715972</v>
+        <v>107.9835791645255</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.1376989049306</v>
+        <v>123.2231624978588</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.8981155715972</v>
+        <v>123.9835791645255</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.8564489049305</v>
+        <v>143.9419124978588</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.0126989049305</v>
+        <v>145.0981624978588</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.0126989049305</v>
+        <v>151.0981624978588</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.1793655715972</v>
+        <v>165.2648291645255</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>184.9397822382639</v>
+        <v>185.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>185.9397822382639</v>
+        <v>186.0252458311921</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>189.9397822382639</v>
+        <v>190.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>190.9397822382639</v>
+        <v>191.0252458311921</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.1793655715972</v>
+        <v>193.2648291645255</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.0335322382639</v>
+        <v>215.1189958311921</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.0335322382639</v>
+        <v>221.1189958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.0335322382639</v>
+        <v>228.1189958311921</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>304.9293655715972</v>
+        <v>305.0148291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.0335322382639</v>
+        <v>318.1189958311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.9397822382639</v>
+        <v>320.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -74439,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>325.9397822382639</v>
+        <v>326.0252458311921</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>326.9397822382639</v>
+        <v>327.0252458311921</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -74645,7 +74645,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -74663,12 +74663,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Juventus18905</t>
+          <t>Atalanta18902</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -74677,25 +74677,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.717</v>
+        <v>0.922</v>
       </c>
       <c r="G37" t="n">
-        <v>1.321</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -74705,7 +74705,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -74718,13 +74718,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>18905</v>
+        <v>18902</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -74748,13 +74748,13 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -74766,12 +74766,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Atalanta18902</t>
+          <t>Juventus18905</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -74780,25 +74780,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.922</v>
+        <v>1.717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8179999999999999</v>
+        <v>1.321</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
+        <v>16</v>
+      </c>
+      <c r="K38" t="n">
         <v>14</v>
       </c>
-      <c r="K38" t="n">
-        <v>9</v>
-      </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -74808,7 +74808,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -74821,13 +74821,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>18902</v>
+        <v>18905</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -74851,13 +74851,13 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.0543655715972</v>
+        <v>337.1398291645255</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -74954,7 +74954,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.0543655715972</v>
+        <v>340.1398291645255</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -75057,7 +75057,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.0543655715972</v>
+        <v>347.1398291645255</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.137698904930556</v>
+        <v>5.223162497858796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.13769890493056</v>
+        <v>19.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.13769890493056</v>
+        <v>26.22316249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.13769890493056</v>
+        <v>32.22316249785879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.97103223826389</v>
+        <v>48.05649583119213</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.24186557159722</v>
+        <v>60.32732916452547</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.13769890493056</v>
+        <v>67.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.24186557159723</v>
+        <v>67.32732916452547</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.24186557159723</v>
+        <v>74.32732916452547</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.24186557159723</v>
+        <v>81.32732916452547</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.13769890493056</v>
+        <v>82.22316249785879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.01269890493056</v>
+        <v>89.09816249785879</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.89811557159723</v>
+        <v>96.98357916452547</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.0126989049306</v>
+        <v>110.0981624978588</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.1376989049306</v>
+        <v>110.2231624978588</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>114.8981155715972</v>
+        <v>114.9835791645255</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.0126989049306</v>
+        <v>124.0981624978588</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.8981155715972</v>
+        <v>149.9835791645255</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.2418655715972</v>
+        <v>158.3273291645255</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.9397822382639</v>
+        <v>160.0252458311921</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.2835322382639</v>
+        <v>179.3689958311921</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.9397822382639</v>
+        <v>181.0252458311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.1793655715972</v>
+        <v>200.2648291645255</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.1793655715972</v>
+        <v>200.2648291645255</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>213.9397822382639</v>
+        <v>214.0252458311921</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>220.9397822382639</v>
+        <v>221.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.0335322382639</v>
+        <v>227.1189958311921</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.0335322382639</v>
+        <v>305.1189958311921</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.0543655715972</v>
+        <v>312.1398291645255</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -78318,7 +78318,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.1793655715972</v>
+        <v>312.2648291645255</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.2835322382639</v>
+        <v>319.3689958311921</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>327.9397822382639</v>
+        <v>328.0252458311921</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>336.9293655715972</v>
+        <v>337.0148291645255</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.1376989049305</v>
+        <v>340.2231624978588</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.1793655715972</v>
+        <v>354.2648291645255</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.01269890493056</v>
+        <v>19.09816249785879</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -79210,7 +79210,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.13769890493056</v>
+        <v>26.22316249785879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.13769890493056</v>
+        <v>32.22316249785879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.24186557159722</v>
+        <v>32.32732916452547</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.13769890493056</v>
+        <v>33.22316249785879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.13769890493056</v>
+        <v>46.22316249785879</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.13769890493056</v>
+        <v>67.22316249785879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.01269890493056</v>
+        <v>96.09816249785879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.0126989049306</v>
+        <v>103.0981624978588</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.1376989049306</v>
+        <v>109.2231624978588</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>114.9918655715972</v>
+        <v>115.0773291645255</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>128.9918655715972</v>
+        <v>129.0773291645255</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.1376989049305</v>
+        <v>130.2231624978588</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.9918655715972</v>
+        <v>146.0773291645255</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.0335322382639</v>
+        <v>164.1189958311921</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.1793655715972</v>
+        <v>165.2648291645255</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.0335322382639</v>
+        <v>190.1189958311921</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.0335322382639</v>
+        <v>195.1189958311921</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.0335322382639</v>
+        <v>215.1189958311921</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>305.9293655715972</v>
+        <v>306.0148291645255</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>313.9397822382639</v>
+        <v>314.0252458311921</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.0335322382639</v>
+        <v>332.1189958311921</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.0335322382639</v>
+        <v>332.1189958311921</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.9397822382639</v>
+        <v>334.0252458311921</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.1793655715972</v>
+        <v>347.2648291645255</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.9397822382639</v>
+        <v>348.0252458311921</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.1793655715972</v>
+        <v>348.2648291645255</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>

--- a/EDA_DF/SerieA_Rank_ML.xlsx
+++ b/EDA_DF/SerieA_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.983579164525462</v>
+        <v>5.465949761909722</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.98357916452546</v>
+        <v>18.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.09816249785879</v>
+        <v>26.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>37.98357916452547</v>
+        <v>38.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.07732916452547</v>
+        <v>38.55969976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.98357916452547</v>
+        <v>53.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.0981624978588</v>
+        <v>54.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.98357916452547</v>
+        <v>60.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.0981624978588</v>
+        <v>60.58053309524306</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.98357916452547</v>
+        <v>67.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>97.07732916452547</v>
+        <v>97.55969976190971</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>102.9835791645255</v>
+        <v>103.4659497619097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.0981624978588</v>
+        <v>117.580533095243</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.9835791645255</v>
+        <v>118.4659497619097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>128.9835791645255</v>
+        <v>129.4659497619097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.9835791645255</v>
+        <v>130.4659497619097</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.0981624978588</v>
+        <v>131.5805330952431</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.9835791645255</v>
+        <v>151.4659497619097</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.0981624978588</v>
+        <v>152.5805330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.9835791645255</v>
+        <v>153.4659497619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.0252458311921</v>
+        <v>165.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.1398291645255</v>
+        <v>180.6221997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.1398291645255</v>
+        <v>186.6221997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.1398291645255</v>
+        <v>187.6221997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.1398291645255</v>
+        <v>193.6221997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.1398291645255</v>
+        <v>201.6221997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.2648291645255</v>
+        <v>201.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>216.0252458311921</v>
+        <v>216.5076164285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.0252458311921</v>
+        <v>222.5076164285764</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.0252458311921</v>
+        <v>227.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.0252458311921</v>
+        <v>312.5076164285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.2648291645255</v>
+        <v>312.7471997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.3689958311921</v>
+        <v>333.8513664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.1398291645255</v>
+        <v>334.6221997619097</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.2648291645255</v>
+        <v>334.7471997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.0252458311921</v>
+        <v>340.5076164285764</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.3689958311921</v>
+        <v>340.8513664285764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.1398291645255</v>
+        <v>341.6221997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.0252458311921</v>
+        <v>347.5076164285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.983579164525462</v>
+        <v>5.465949761909722</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>17.98357916452546</v>
+        <v>18.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.09816249785879</v>
+        <v>26.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>37.98357916452547</v>
+        <v>38.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.07732916452547</v>
+        <v>38.55969976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.98357916452547</v>
+        <v>53.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.0981624978588</v>
+        <v>54.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.98357916452547</v>
+        <v>60.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.0981624978588</v>
+        <v>60.58053309524306</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.98357916452547</v>
+        <v>67.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>97.07732916452547</v>
+        <v>97.55969976190971</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>102.9835791645255</v>
+        <v>103.4659497619097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.0981624978588</v>
+        <v>117.580533095243</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>117.9835791645255</v>
+        <v>118.4659497619097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>128.9835791645255</v>
+        <v>129.4659497619097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.9835791645255</v>
+        <v>130.4659497619097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.0981624978588</v>
+        <v>131.5805330952431</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.9835791645255</v>
+        <v>151.4659497619097</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.0981624978588</v>
+        <v>152.5805330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>152.9835791645255</v>
+        <v>153.4659497619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.0252458311921</v>
+        <v>165.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.1398291645255</v>
+        <v>180.6221997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.1398291645255</v>
+        <v>186.6221997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.1398291645255</v>
+        <v>187.6221997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.1398291645255</v>
+        <v>193.6221997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.1398291645255</v>
+        <v>201.6221997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.2648291645255</v>
+        <v>201.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>216.0252458311921</v>
+        <v>216.5076164285764</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.0252458311921</v>
+        <v>222.5076164285764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.0252458311921</v>
+        <v>227.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.0252458311921</v>
+        <v>312.5076164285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.2648291645255</v>
+        <v>312.7471997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.3689958311921</v>
+        <v>333.8513664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.1398291645255</v>
+        <v>334.6221997619097</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.2648291645255</v>
+        <v>334.7471997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.0252458311921</v>
+        <v>340.5076164285764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.3689958311921</v>
+        <v>340.8513664285764</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.1398291645255</v>
+        <v>341.6221997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.0252458311921</v>
+        <v>347.5076164285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.02524583119213</v>
+        <v>3.507616428576389</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.32732916452546</v>
+        <v>18.80969976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.98357916452546</v>
+        <v>25.46594976190972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.09816249785879</v>
+        <v>25.58053309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.22316249785879</v>
+        <v>25.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.98357916452546</v>
+        <v>31.46594976190972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.09816249785879</v>
+        <v>32.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>35.98357916452547</v>
+        <v>36.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.98357916452547</v>
+        <v>39.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.98357916452547</v>
+        <v>41.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>50.05649583119214</v>
+        <v>50.53886642857639</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>51.98357916452547</v>
+        <v>52.46594976190973</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.98357916452547</v>
+        <v>68.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.09816249785879</v>
+        <v>68.58053309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.22316249785879</v>
+        <v>68.70553309524306</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.09816249785879</v>
+        <v>75.58053309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>80.98357916452547</v>
+        <v>81.46594976190973</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.09816249785879</v>
+        <v>81.58053309524306</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>87.98357916452547</v>
+        <v>88.46594976190973</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.32732916452547</v>
+        <v>89.80969976190973</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>89.98357916452547</v>
+        <v>90.46594976190973</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>95.98357916452547</v>
+        <v>96.46594976190973</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.2231624978588</v>
+        <v>103.705533095243</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.0981624978588</v>
+        <v>109.580533095243</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.2231624978588</v>
+        <v>109.705533095243</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.3273291645255</v>
+        <v>109.8096997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>115.9835791645255</v>
+        <v>116.4659497619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>116.9835791645255</v>
+        <v>117.4659497619097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.0981624978588</v>
+        <v>130.5805330952431</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.9835791645255</v>
+        <v>131.4659497619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.2231624978588</v>
+        <v>144.7055330952431</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.9835791645255</v>
+        <v>152.4659497619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.0981624978588</v>
+        <v>158.5805330952431</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>159.0252458311921</v>
+        <v>159.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>164.0252458311921</v>
+        <v>164.5076164285764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.1398291645255</v>
+        <v>165.6221997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.3689958311921</v>
+        <v>165.8513664285764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.2648291645255</v>
+        <v>180.7471997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.3689958311921</v>
+        <v>186.8513664285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.2648291645255</v>
+        <v>194.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>200.0252458311921</v>
+        <v>200.5076164285764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.1398291645255</v>
+        <v>200.6221997619097</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.1189958311921</v>
+        <v>214.6013664285764</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>215.0252458311921</v>
+        <v>215.5076164285764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.1189958311921</v>
+        <v>221.6013664285764</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>229.0252458311921</v>
+        <v>229.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.0252458311921</v>
+        <v>313.5076164285764</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.1398291645255</v>
+        <v>313.6221997619097</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.1398291645255</v>
+        <v>320.6221997619097</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.1398291645255</v>
+        <v>326.6221997619097</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.2648291645255</v>
+        <v>326.7471997619097</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>346.0252458311921</v>
+        <v>346.5076164285764</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.327329164525463</v>
+        <v>3.809699761909723</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.09816249785879</v>
+        <v>18.58053309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.32732916452547</v>
+        <v>39.80969976190973</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.98357916452547</v>
+        <v>47.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.97316249785879</v>
+        <v>48.45553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.2231624978588</v>
+        <v>53.70553309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.32732916452547</v>
+        <v>53.80969976190973</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.98357916452547</v>
+        <v>59.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.98357916452547</v>
+        <v>61.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>78.98357916452547</v>
+        <v>79.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>79.98357916452547</v>
+        <v>80.46594976190973</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.09816249785879</v>
+        <v>96.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.32732916452547</v>
+        <v>96.80969976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.0981624978588</v>
+        <v>103.580533095243</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>107.9835791645255</v>
+        <v>108.4659497619097</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.2231624978588</v>
+        <v>123.705533095243</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.9835791645255</v>
+        <v>124.4659497619097</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.9419124978588</v>
+        <v>144.4242830952431</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.0981624978588</v>
+        <v>145.5805330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.0981624978588</v>
+        <v>151.5805330952431</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16870,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.2648291645255</v>
+        <v>165.7471997619097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.0252458311921</v>
+        <v>185.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.0252458311921</v>
+        <v>186.5076164285764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>191.0252458311921</v>
+        <v>191.5076164285764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.2648291645255</v>
+        <v>193.7471997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.1189958311921</v>
+        <v>215.6013664285764</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.1189958311921</v>
+        <v>221.6013664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.1189958311921</v>
+        <v>228.6013664285764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.1189958311921</v>
+        <v>318.6013664285764</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.0252458311921</v>
+        <v>320.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.0252458311921</v>
+        <v>326.5076164285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>327.0252458311921</v>
+        <v>327.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -18415,7 +18415,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18518,7 +18518,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.1398291645255</v>
+        <v>340.6221997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.1398291645255</v>
+        <v>347.6221997619097</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.098162497858796</v>
+        <v>5.580533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.98357916452546</v>
+        <v>19.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.98357916452546</v>
+        <v>27.46594976190972</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.98357916452546</v>
+        <v>32.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.98357916452547</v>
+        <v>34.46594976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.09816249785879</v>
+        <v>39.58053309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.22316249785879</v>
+        <v>39.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>41.98357916452547</v>
+        <v>42.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.98357916452547</v>
+        <v>46.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.2231624978588</v>
+        <v>54.70553309524306</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.0981624978588</v>
+        <v>61.58053309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.09816249785879</v>
+        <v>67.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.98357916452547</v>
+        <v>69.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>73.98357916452547</v>
+        <v>74.46594976190973</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.98357916452547</v>
+        <v>82.46594976190973</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.22316249785879</v>
+        <v>82.70553309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.22316249785879</v>
+        <v>88.70553309524306</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>96.98357916452547</v>
+        <v>97.46594976190971</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.3273291645255</v>
+        <v>103.8096997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9835791645255</v>
+        <v>109.4659497619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>110.9835791645255</v>
+        <v>111.4659497619097</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.3273291645255</v>
+        <v>116.8096997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9835791645255</v>
+        <v>123.4659497619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>125.0252458311921</v>
+        <v>125.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.9835791645255</v>
+        <v>145.4659497619097</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.2231624978588</v>
+        <v>145.7055330952431</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>157.9835791645255</v>
+        <v>158.4659497619097</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.1398291645255</v>
+        <v>159.6221997619097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.1398291645255</v>
+        <v>166.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.0252458311921</v>
+        <v>180.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.2648291645255</v>
+        <v>187.7471997619097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>201.0252458311921</v>
+        <v>201.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.0252458311921</v>
+        <v>215.5076164285764</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.0252458311921</v>
+        <v>220.5076164285764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>228.0252458311921</v>
+        <v>228.5076164285764</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.1189958311921</v>
+        <v>229.6013664285764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.1189958311921</v>
+        <v>306.6013664285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.1398291645255</v>
+        <v>319.6221997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2648291645255</v>
+        <v>326.7471997619097</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.1398291645255</v>
+        <v>348.6221997619097</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.098162497858796</v>
+        <v>3.580533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.223162497858796</v>
+        <v>3.705533095243056</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.223162497858796</v>
+        <v>5.705533095243056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.327329164525462</v>
+        <v>5.809699761909722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.98357916452546</v>
+        <v>24.46594976190972</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.32732916452546</v>
+        <v>25.80969976190972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.98357916452546</v>
+        <v>26.46594976190972</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.98357916452547</v>
+        <v>33.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.09816249785879</v>
+        <v>33.58053309524306</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.98357916452547</v>
+        <v>40.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.09816249785879</v>
+        <v>46.58053309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.32732916452547</v>
+        <v>46.80969976190973</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.22316249785879</v>
+        <v>47.70553309524306</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.0981624978588</v>
+        <v>53.58053309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.2231624978588</v>
+        <v>53.70553309524306</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.2231624978588</v>
+        <v>60.70553309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>61.98357916452547</v>
+        <v>62.46594976190973</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.22316249785879</v>
+        <v>81.70553309524306</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.22316249785879</v>
+        <v>89.70553309524306</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.22316249785879</v>
+        <v>96.70553309524306</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>97.07732916452547</v>
+        <v>97.55969976190971</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.2231624978588</v>
+        <v>103.705533095243</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.9835791645255</v>
+        <v>104.4659497619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.9835791645255</v>
+        <v>110.4659497619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.2231624978588</v>
+        <v>116.705533095243</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>121.9835791645255</v>
+        <v>122.4659497619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.3273291645255</v>
+        <v>123.8096997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.2231624978588</v>
+        <v>124.705533095243</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.2231624978588</v>
+        <v>130.7055330952431</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.3273291645255</v>
+        <v>130.8096997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0981624978588</v>
+        <v>144.5805330952431</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.3273291645255</v>
+        <v>144.8096997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.9835791645255</v>
+        <v>146.4659497619097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.0773291645255</v>
+        <v>150.5596997619097</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.2231624978588</v>
+        <v>151.7055330952431</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>156.9835791645255</v>
+        <v>157.4659497619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.2231624978588</v>
+        <v>158.7055330952431</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.0252458311921</v>
+        <v>179.5076164285764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.1398291645255</v>
+        <v>179.6221997619097</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.2648291645255</v>
+        <v>179.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.2648291645255</v>
+        <v>179.7471997619097</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.1189958311921</v>
+        <v>185.6013664285764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>189.0252458311921</v>
+        <v>189.5076164285764</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.1189958311921</v>
+        <v>189.6013664285764</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.1189958311921</v>
+        <v>189.6013664285764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>193.0252458311921</v>
+        <v>193.5076164285764</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>194.0252458311921</v>
+        <v>194.5076164285764</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>195.0252458311921</v>
+        <v>195.5076164285764</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.3689958311921</v>
+        <v>200.8513664285764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -28645,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.1189958311921</v>
+        <v>214.6013664285764</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>221.0252458311921</v>
+        <v>221.5076164285764</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.1189958311921</v>
+        <v>222.6013664285764</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -28954,7 +28954,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.1189958311921</v>
+        <v>222.6013664285764</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>229.0252458311921</v>
+        <v>229.5076164285764</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.2648291645255</v>
+        <v>319.7471997619097</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>333.0252458311921</v>
+        <v>333.5076164285764</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.1398291645255</v>
+        <v>333.6221997619097</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.2648291645255</v>
+        <v>333.7471997619097</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>341.0252458311921</v>
+        <v>341.5076164285764</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -29881,7 +29881,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.1189958311921</v>
+        <v>342.6013664285764</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.2648291645255</v>
+        <v>347.7471997619097</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.223162497858796</v>
+        <v>5.705533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.22316249785879</v>
+        <v>19.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.22316249785879</v>
+        <v>26.70553309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.22316249785879</v>
+        <v>32.70553309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.05649583119213</v>
+        <v>48.53886642857639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.32732916452547</v>
+        <v>60.80969976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.22316249785879</v>
+        <v>67.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.32732916452547</v>
+        <v>67.80969976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.32732916452547</v>
+        <v>74.80969976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.32732916452547</v>
+        <v>81.80969976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.22316249785879</v>
+        <v>82.70553309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.09816249785879</v>
+        <v>89.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.98357916452547</v>
+        <v>97.46594976190971</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.0981624978588</v>
+        <v>110.580533095243</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.2231624978588</v>
+        <v>110.705533095243</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>114.9835791645255</v>
+        <v>115.4659497619097</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.0981624978588</v>
+        <v>124.580533095243</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9835791645255</v>
+        <v>150.4659497619097</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.3273291645255</v>
+        <v>158.8096997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>160.0252458311921</v>
+        <v>160.5076164285764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.3689958311921</v>
+        <v>179.8513664285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>181.0252458311921</v>
+        <v>181.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.2648291645255</v>
+        <v>200.7471997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -32627,7 +32627,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.2648291645255</v>
+        <v>200.7471997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.0252458311921</v>
+        <v>214.5076164285764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.0252458311921</v>
+        <v>221.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.1189958311921</v>
+        <v>227.6013664285764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.1189958311921</v>
+        <v>305.6013664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.1398291645255</v>
+        <v>312.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.2648291645255</v>
+        <v>312.7471997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.3689958311921</v>
+        <v>319.8513664285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>328.0252458311921</v>
+        <v>328.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.2231624978588</v>
+        <v>340.7055330952431</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.2648291645255</v>
+        <v>354.7471997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.22316249785879</v>
+        <v>18.70553309524306</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.22316249785879</v>
+        <v>19.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.09816249785879</v>
+        <v>36.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.09816249785879</v>
+        <v>47.58053309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.98357916452547</v>
+        <v>54.46594976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.98357916452547</v>
+        <v>75.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.09816249785879</v>
+        <v>88.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.22316249785879</v>
+        <v>88.70553309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.32732916452547</v>
+        <v>88.80969976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>103.9835791645255</v>
+        <v>104.4659497619097</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.0773291645255</v>
+        <v>104.5596997619097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.2231624978588</v>
+        <v>117.705533095243</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.2231624978588</v>
+        <v>131.7055330952431</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.2231624978588</v>
+        <v>152.7055330952431</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.0252458311921</v>
+        <v>166.5076164285764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.2648291645255</v>
+        <v>166.7471997619097</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.0252458311921</v>
+        <v>187.5076164285764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.3689958311921</v>
+        <v>193.8513664285764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.1398291645255</v>
+        <v>194.6221997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.1189958311921</v>
+        <v>199.6013664285764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>214.0252458311921</v>
+        <v>214.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>228.0252458311921</v>
+        <v>228.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>306.0148291645255</v>
+        <v>306.4971997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.2648291645255</v>
+        <v>313.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.0252458311921</v>
+        <v>318.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>319.0252458311921</v>
+        <v>319.5076164285764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.3689958311921</v>
+        <v>326.8513664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.1398291645255</v>
+        <v>327.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>336.0252458311921</v>
+        <v>336.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.3689958311921</v>
+        <v>347.8513664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.223162497858796</v>
+        <v>3.705533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.98357916452546</v>
+        <v>20.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.09816249785879</v>
+        <v>40.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.22316249785879</v>
+        <v>40.70553309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.22316249785879</v>
+        <v>46.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.98357916452547</v>
+        <v>55.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.2231624978588</v>
+        <v>61.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.2231624978588</v>
+        <v>61.70553309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>65.98357916452547</v>
+        <v>66.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.09816249785879</v>
+        <v>74.58053309524306</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.22316249785879</v>
+        <v>74.70553309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.09816249785879</v>
+        <v>82.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>88.98357916452547</v>
+        <v>89.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.22316249785879</v>
+        <v>96.70553309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>104.0773291645255</v>
+        <v>104.5596997619097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.0981624978588</v>
+        <v>116.580533095243</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0981624978588</v>
+        <v>123.580533095243</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.2231624978588</v>
+        <v>123.705533095243</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.2231624978588</v>
+        <v>144.7055330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.3273291645255</v>
+        <v>151.8096997619097</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>157.0773291645255</v>
+        <v>157.5596997619097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.2648291645255</v>
+        <v>159.7471997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.1189958311921</v>
+        <v>181.6013664285764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.1189958311921</v>
+        <v>185.6013664285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.2648291645255</v>
+        <v>186.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.2648291645255</v>
+        <v>193.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>199.0252458311921</v>
+        <v>199.5076164285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.1189958311921</v>
+        <v>216.6013664285764</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.1189958311921</v>
+        <v>220.6013664285764</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>222.0252458311921</v>
+        <v>222.5076164285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.1189958311921</v>
+        <v>228.6013664285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.1189958311921</v>
+        <v>229.6013664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>307.0356624978588</v>
+        <v>307.5180330952431</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.3689958311921</v>
+        <v>312.8513664285764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.2648291645255</v>
+        <v>313.7471997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.2648291645255</v>
+        <v>320.7471997619097</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>321.0252458311921</v>
+        <v>321.5076164285764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>325.0252458311921</v>
+        <v>325.5076164285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.2648291645255</v>
+        <v>327.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>332.0252458311921</v>
+        <v>332.5076164285764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0252458311921</v>
+        <v>336.5076164285764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -42033,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.2648291645255</v>
+        <v>340.7471997619097</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -42136,7 +42136,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.2648291645255</v>
+        <v>340.7471997619097</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -42239,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>342.0252458311921</v>
+        <v>342.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -42342,7 +42342,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>349.0252458311921</v>
+        <v>349.5076164285764</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.09816249785879</v>
+        <v>19.58053309524306</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.22316249785879</v>
+        <v>26.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.22316249785879</v>
+        <v>32.70553309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.32732916452547</v>
+        <v>32.80969976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.22316249785879</v>
+        <v>33.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.22316249785879</v>
+        <v>46.70553309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.22316249785879</v>
+        <v>67.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.09816249785879</v>
+        <v>96.58053309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.0981624978588</v>
+        <v>103.580533095243</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.2231624978588</v>
+        <v>109.705533095243</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>115.0773291645255</v>
+        <v>115.5596997619097</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>129.0773291645255</v>
+        <v>129.5596997619097</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.2231624978588</v>
+        <v>130.7055330952431</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>146.0773291645255</v>
+        <v>146.5596997619097</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -44058,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.1189958311921</v>
+        <v>164.6013664285764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -44161,7 +44161,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2648291645255</v>
+        <v>165.7471997619097</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -44367,7 +44367,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.1189958311921</v>
+        <v>195.6013664285764</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44470,7 +44470,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.1189958311921</v>
+        <v>215.6013664285764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0148291645255</v>
+        <v>306.4971997619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44676,7 +44676,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>314.0252458311921</v>
+        <v>314.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.1189958311921</v>
+        <v>332.6013664285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44882,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.1189958311921</v>
+        <v>332.6013664285764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.0252458311921</v>
+        <v>334.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45088,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.2648291645255</v>
+        <v>347.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -45191,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.0252458311921</v>
+        <v>348.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45294,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.2648291645255</v>
+        <v>348.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.098162497858796</v>
+        <v>5.580533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.98357916452546</v>
+        <v>19.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.98357916452546</v>
+        <v>27.46594976190972</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.98357916452546</v>
+        <v>32.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.98357916452547</v>
+        <v>34.46594976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.09816249785879</v>
+        <v>39.58053309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.22316249785879</v>
+        <v>39.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>41.98357916452547</v>
+        <v>42.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>45.98357916452547</v>
+        <v>46.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.2231624978588</v>
+        <v>54.70553309524306</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.0981624978588</v>
+        <v>61.58053309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.09816249785879</v>
+        <v>67.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.98357916452547</v>
+        <v>69.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>73.98357916452547</v>
+        <v>74.46594976190973</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.98357916452547</v>
+        <v>82.46594976190973</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.22316249785879</v>
+        <v>82.70553309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.22316249785879</v>
+        <v>88.70553309524306</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>96.98357916452547</v>
+        <v>97.46594976190971</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.3273291645255</v>
+        <v>103.8096997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>108.9835791645255</v>
+        <v>109.4659497619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>110.9835791645255</v>
+        <v>111.4659497619097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.3273291645255</v>
+        <v>116.8096997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>122.9835791645255</v>
+        <v>123.4659497619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>125.0252458311921</v>
+        <v>125.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.9835791645255</v>
+        <v>145.4659497619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.2231624978588</v>
+        <v>145.7055330952431</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>157.9835791645255</v>
+        <v>158.4659497619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.1398291645255</v>
+        <v>159.6221997619097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.1398291645255</v>
+        <v>166.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.0252458311921</v>
+        <v>180.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.2648291645255</v>
+        <v>187.7471997619097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>201.0252458311921</v>
+        <v>201.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -49070,7 +49070,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.0252458311921</v>
+        <v>215.5076164285764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.0252458311921</v>
+        <v>220.5076164285764</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>228.0252458311921</v>
+        <v>228.5076164285764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.1189958311921</v>
+        <v>229.6013664285764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.1189958311921</v>
+        <v>306.6013664285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.1398291645255</v>
+        <v>319.6221997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -49688,7 +49688,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.2648291645255</v>
+        <v>326.7471997619097</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.1398291645255</v>
+        <v>348.6221997619097</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.22316249785879</v>
+        <v>18.70553309524306</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.22316249785879</v>
+        <v>19.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.09816249785879</v>
+        <v>36.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.09816249785879</v>
+        <v>47.58053309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.98357916452547</v>
+        <v>54.46594976190973</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.98357916452547</v>
+        <v>75.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.09816249785879</v>
+        <v>88.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.22316249785879</v>
+        <v>88.70553309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.32732916452547</v>
+        <v>88.80969976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>103.9835791645255</v>
+        <v>104.4659497619097</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.0773291645255</v>
+        <v>104.5596997619097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.2231624978588</v>
+        <v>117.705533095243</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.2231624978588</v>
+        <v>131.7055330952431</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.2231624978588</v>
+        <v>152.7055330952431</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.0252458311921</v>
+        <v>166.5076164285764</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.2648291645255</v>
+        <v>166.7471997619097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.0252458311921</v>
+        <v>187.5076164285764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.3689958311921</v>
+        <v>193.8513664285764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.1398291645255</v>
+        <v>194.6221997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.1189958311921</v>
+        <v>199.6013664285764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>214.0252458311921</v>
+        <v>214.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>228.0252458311921</v>
+        <v>228.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>306.0148291645255</v>
+        <v>306.4971997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.2648291645255</v>
+        <v>313.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.0252458311921</v>
+        <v>318.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -52743,7 +52743,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>319.0252458311921</v>
+        <v>319.5076164285764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.3689958311921</v>
+        <v>326.8513664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.1398291645255</v>
+        <v>327.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>336.0252458311921</v>
+        <v>336.5076164285764</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.3689958311921</v>
+        <v>347.8513664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.02524583119213</v>
+        <v>3.507616428576389</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.32732916452546</v>
+        <v>18.80969976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.98357916452546</v>
+        <v>25.46594976190972</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.09816249785879</v>
+        <v>25.58053309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.22316249785879</v>
+        <v>25.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>30.98357916452546</v>
+        <v>31.46594976190972</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.09816249785879</v>
+        <v>32.58053309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>35.98357916452547</v>
+        <v>36.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>38.98357916452547</v>
+        <v>39.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.98357916452547</v>
+        <v>41.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>50.05649583119214</v>
+        <v>50.53886642857639</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>51.98357916452547</v>
+        <v>52.46594976190973</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>67.98357916452547</v>
+        <v>68.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.09816249785879</v>
+        <v>68.58053309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.22316249785879</v>
+        <v>68.70553309524306</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.09816249785879</v>
+        <v>75.58053309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>80.98357916452547</v>
+        <v>81.46594976190973</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.09816249785879</v>
+        <v>81.58053309524306</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>87.98357916452547</v>
+        <v>88.46594976190973</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.32732916452547</v>
+        <v>89.80969976190973</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>89.98357916452547</v>
+        <v>90.46594976190973</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>95.98357916452547</v>
+        <v>96.46594976190973</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.2231624978588</v>
+        <v>103.705533095243</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.0981624978588</v>
+        <v>109.580533095243</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.2231624978588</v>
+        <v>109.705533095243</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.3273291645255</v>
+        <v>109.8096997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>115.9835791645255</v>
+        <v>116.4659497619097</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>116.9835791645255</v>
+        <v>117.4659497619097</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.0981624978588</v>
+        <v>130.5805330952431</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.9835791645255</v>
+        <v>131.4659497619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.2231624978588</v>
+        <v>144.7055330952431</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>151.9835791645255</v>
+        <v>152.4659497619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.0981624978588</v>
+        <v>158.5805330952431</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>159.0252458311921</v>
+        <v>159.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>164.0252458311921</v>
+        <v>164.5076164285764</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.1398291645255</v>
+        <v>165.6221997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.3689958311921</v>
+        <v>165.8513664285764</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.2648291645255</v>
+        <v>180.7471997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.3689958311921</v>
+        <v>186.8513664285764</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.2648291645255</v>
+        <v>194.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>200.0252458311921</v>
+        <v>200.5076164285764</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.1398291645255</v>
+        <v>200.6221997619097</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.1189958311921</v>
+        <v>214.6013664285764</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>215.0252458311921</v>
+        <v>215.5076164285764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58167,7 +58167,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.1189958311921</v>
+        <v>221.6013664285764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>229.0252458311921</v>
+        <v>229.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -58373,7 +58373,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -58476,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -58579,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.0252458311921</v>
+        <v>313.5076164285764</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -58682,7 +58682,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.1398291645255</v>
+        <v>313.6221997619097</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.1398291645255</v>
+        <v>320.6221997619097</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.1398291645255</v>
+        <v>326.6221997619097</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -58991,7 +58991,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.2648291645255</v>
+        <v>326.7471997619097</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -59094,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>346.0252458311921</v>
+        <v>346.5076164285764</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.098162497858796</v>
+        <v>3.580533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.223162497858796</v>
+        <v>3.705533095243056</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.223162497858796</v>
+        <v>5.705533095243056</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.327329164525462</v>
+        <v>5.809699761909722</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>23.98357916452546</v>
+        <v>24.46594976190972</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.32732916452546</v>
+        <v>25.80969976190972</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.98357916452546</v>
+        <v>26.46594976190972</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.98357916452547</v>
+        <v>33.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.09816249785879</v>
+        <v>33.58053309524306</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.98357916452547</v>
+        <v>40.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.09816249785879</v>
+        <v>46.58053309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.32732916452547</v>
+        <v>46.80969976190973</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.22316249785879</v>
+        <v>47.70553309524306</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.0981624978588</v>
+        <v>53.58053309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.2231624978588</v>
+        <v>53.70553309524306</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.2231624978588</v>
+        <v>60.70553309524306</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>61.98357916452547</v>
+        <v>62.46594976190973</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.22316249785879</v>
+        <v>81.70553309524306</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.22316249785879</v>
+        <v>89.70553309524306</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.22316249785879</v>
+        <v>96.70553309524306</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>97.07732916452547</v>
+        <v>97.55969976190971</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.2231624978588</v>
+        <v>103.705533095243</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.9835791645255</v>
+        <v>104.4659497619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.9835791645255</v>
+        <v>110.4659497619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.2231624978588</v>
+        <v>116.705533095243</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>121.9835791645255</v>
+        <v>122.4659497619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.3273291645255</v>
+        <v>123.8096997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.2231624978588</v>
+        <v>124.705533095243</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.2231624978588</v>
+        <v>130.7055330952431</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.3273291645255</v>
+        <v>130.8096997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0981624978588</v>
+        <v>144.5805330952431</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.3273291645255</v>
+        <v>144.8096997619097</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.9835791645255</v>
+        <v>146.4659497619097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.0773291645255</v>
+        <v>150.5596997619097</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.2231624978588</v>
+        <v>151.7055330952431</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>156.9835791645255</v>
+        <v>157.4659497619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.2231624978588</v>
+        <v>158.7055330952431</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.0252458311921</v>
+        <v>179.5076164285764</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.1398291645255</v>
+        <v>179.6221997619097</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.2648291645255</v>
+        <v>179.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.2648291645255</v>
+        <v>179.7471997619097</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.1189958311921</v>
+        <v>185.6013664285764</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>189.0252458311921</v>
+        <v>189.5076164285764</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.1189958311921</v>
+        <v>189.6013664285764</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.1189958311921</v>
+        <v>189.6013664285764</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>193.0252458311921</v>
+        <v>193.5076164285764</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>194.0252458311921</v>
+        <v>194.5076164285764</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>195.0252458311921</v>
+        <v>195.5076164285764</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.3689958311921</v>
+        <v>200.8513664285764</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.1189958311921</v>
+        <v>214.6013664285764</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>221.0252458311921</v>
+        <v>221.5076164285764</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.1189958311921</v>
+        <v>222.6013664285764</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.1189958311921</v>
+        <v>222.6013664285764</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>229.0252458311921</v>
+        <v>229.5076164285764</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.2648291645255</v>
+        <v>319.7471997619097</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>333.0252458311921</v>
+        <v>333.5076164285764</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.1398291645255</v>
+        <v>333.6221997619097</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.2648291645255</v>
+        <v>333.7471997619097</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>341.0252458311921</v>
+        <v>341.5076164285764</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.1189958311921</v>
+        <v>342.6013664285764</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.2648291645255</v>
+        <v>347.7471997619097</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.223162497858796</v>
+        <v>3.705533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.98357916452546</v>
+        <v>20.46594976190972</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.09816249785879</v>
+        <v>40.58053309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.22316249785879</v>
+        <v>40.70553309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.22316249785879</v>
+        <v>46.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.98357916452547</v>
+        <v>55.46594976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.2231624978588</v>
+        <v>61.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.2231624978588</v>
+        <v>61.70553309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>65.98357916452547</v>
+        <v>66.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.09816249785879</v>
+        <v>74.58053309524306</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.22316249785879</v>
+        <v>74.70553309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.09816249785879</v>
+        <v>82.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>88.98357916452547</v>
+        <v>89.46594976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.22316249785879</v>
+        <v>96.70553309524306</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>104.0773291645255</v>
+        <v>104.5596997619097</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -67676,7 +67676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.0981624978588</v>
+        <v>116.580533095243</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.0981624978588</v>
+        <v>123.580533095243</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.2231624978588</v>
+        <v>123.705533095243</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.2231624978588</v>
+        <v>144.7055330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68088,7 +68088,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.3273291645255</v>
+        <v>151.8096997619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>157.0773291645255</v>
+        <v>157.5596997619097</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.2648291645255</v>
+        <v>159.7471997619097</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.1189958311921</v>
+        <v>181.6013664285764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.1189958311921</v>
+        <v>185.6013664285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.2648291645255</v>
+        <v>186.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.2648291645255</v>
+        <v>193.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>199.0252458311921</v>
+        <v>199.5076164285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.1189958311921</v>
+        <v>216.6013664285764</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.1189958311921</v>
+        <v>220.6013664285764</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>222.0252458311921</v>
+        <v>222.5076164285764</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.1189958311921</v>
+        <v>228.6013664285764</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.1189958311921</v>
+        <v>229.6013664285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>307.0356624978588</v>
+        <v>307.5180330952431</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.3689958311921</v>
+        <v>312.8513664285764</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.2648291645255</v>
+        <v>313.7471997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.2648291645255</v>
+        <v>320.7471997619097</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>321.0252458311921</v>
+        <v>321.5076164285764</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>325.0252458311921</v>
+        <v>325.5076164285764</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.2648291645255</v>
+        <v>327.7471997619097</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>332.0252458311921</v>
+        <v>332.5076164285764</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.0252458311921</v>
+        <v>336.5076164285764</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.2648291645255</v>
+        <v>340.7471997619097</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.2648291645255</v>
+        <v>340.7471997619097</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>342.0252458311921</v>
+        <v>342.5076164285764</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>349.0252458311921</v>
+        <v>349.5076164285764</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.327329164525463</v>
+        <v>3.809699761909723</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.09816249785879</v>
+        <v>18.58053309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.32732916452547</v>
+        <v>39.80969976190973</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.98357916452547</v>
+        <v>47.46594976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.97316249785879</v>
+        <v>48.45553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.2231624978588</v>
+        <v>53.70553309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.32732916452547</v>
+        <v>53.80969976190973</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>58.98357916452547</v>
+        <v>59.46594976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.98357916452547</v>
+        <v>61.46594976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>78.98357916452547</v>
+        <v>79.46594976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>79.98357916452547</v>
+        <v>80.46594976190973</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.09816249785879</v>
+        <v>96.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.32732916452547</v>
+        <v>96.80969976190973</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.0981624978588</v>
+        <v>103.580533095243</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>107.9835791645255</v>
+        <v>108.4659497619097</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.2231624978588</v>
+        <v>123.705533095243</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.9835791645255</v>
+        <v>124.4659497619097</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>143.9419124978588</v>
+        <v>144.4242830952431</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.0981624978588</v>
+        <v>145.5805330952431</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.0981624978588</v>
+        <v>151.5805330952431</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.2648291645255</v>
+        <v>165.7471997619097</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.0252458311921</v>
+        <v>185.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.0252458311921</v>
+        <v>186.5076164285764</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>190.0252458311921</v>
+        <v>190.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>191.0252458311921</v>
+        <v>191.5076164285764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.2648291645255</v>
+        <v>193.7471997619097</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.1189958311921</v>
+        <v>215.6013664285764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.1189958311921</v>
+        <v>221.6013664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.1189958311921</v>
+        <v>228.6013664285764</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>305.0148291645255</v>
+        <v>305.4971997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.1189958311921</v>
+        <v>318.6013664285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.0252458311921</v>
+        <v>320.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -74439,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.0252458311921</v>
+        <v>326.5076164285764</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>327.0252458311921</v>
+        <v>327.5076164285764</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -74645,7 +74645,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -74748,7 +74748,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -74851,7 +74851,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.1398291645255</v>
+        <v>337.6221997619097</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -74954,7 +74954,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.1398291645255</v>
+        <v>340.6221997619097</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -75057,7 +75057,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.1398291645255</v>
+        <v>347.6221997619097</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.223162497858796</v>
+        <v>5.705533095243056</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.22316249785879</v>
+        <v>19.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.22316249785879</v>
+        <v>26.70553309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.22316249785879</v>
+        <v>32.70553309524306</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.05649583119213</v>
+        <v>48.53886642857639</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.32732916452547</v>
+        <v>60.80969976190973</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.22316249785879</v>
+        <v>67.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.32732916452547</v>
+        <v>67.80969976190973</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.32732916452547</v>
+        <v>74.80969976190973</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.32732916452547</v>
+        <v>81.80969976190973</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.22316249785879</v>
+        <v>82.70553309524306</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.09816249785879</v>
+        <v>89.58053309524306</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.98357916452547</v>
+        <v>97.46594976190971</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.0981624978588</v>
+        <v>110.580533095243</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.2231624978588</v>
+        <v>110.705533095243</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>114.9835791645255</v>
+        <v>115.4659497619097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.0981624978588</v>
+        <v>124.580533095243</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>149.9835791645255</v>
+        <v>150.4659497619097</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.3273291645255</v>
+        <v>158.8096997619097</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>160.0252458311921</v>
+        <v>160.5076164285764</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.3689958311921</v>
+        <v>179.8513664285764</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>181.0252458311921</v>
+        <v>181.5076164285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.2648291645255</v>
+        <v>200.7471997619097</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.2648291645255</v>
+        <v>200.7471997619097</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.0252458311921</v>
+        <v>214.5076164285764</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.0252458311921</v>
+        <v>221.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.1189958311921</v>
+        <v>227.6013664285764</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.1189958311921</v>
+        <v>305.6013664285764</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.1398291645255</v>
+        <v>312.6221997619097</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -78318,7 +78318,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.2648291645255</v>
+        <v>312.7471997619097</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.3689958311921</v>
+        <v>319.8513664285764</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>328.0252458311921</v>
+        <v>328.5076164285764</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>337.0148291645255</v>
+        <v>337.4971997619097</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.2231624978588</v>
+        <v>340.7055330952431</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.2648291645255</v>
+        <v>354.7471997619097</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.09816249785879</v>
+        <v>19.58053309524306</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -79210,7 +79210,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.22316249785879</v>
+        <v>26.70553309524306</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.22316249785879</v>
+        <v>32.70553309524306</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.32732916452547</v>
+        <v>32.80969976190973</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.22316249785879</v>
+        <v>33.70553309524306</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.22316249785879</v>
+        <v>46.70553309524306</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.22316249785879</v>
+        <v>67.70553309524306</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.09816249785879</v>
+        <v>96.58053309524306</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.0981624978588</v>
+        <v>103.580533095243</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.2231624978588</v>
+        <v>109.705533095243</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>115.0773291645255</v>
+        <v>115.5596997619097</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>129.0773291645255</v>
+        <v>129.5596997619097</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.2231624978588</v>
+        <v>130.7055330952431</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>146.0773291645255</v>
+        <v>146.5596997619097</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.1189958311921</v>
+        <v>164.6013664285764</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.2648291645255</v>
+        <v>165.7471997619097</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.1189958311921</v>
+        <v>190.6013664285764</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.1189958311921</v>
+        <v>195.6013664285764</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.1189958311921</v>
+        <v>215.6013664285764</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.0148291645255</v>
+        <v>306.4971997619097</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>314.0252458311921</v>
+        <v>314.5076164285764</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.1189958311921</v>
+        <v>332.6013664285764</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.1189958311921</v>
+        <v>332.6013664285764</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.0252458311921</v>
+        <v>334.5076164285764</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.2648291645255</v>
+        <v>347.7471997619097</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.0252458311921</v>
+        <v>348.5076164285764</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.2648291645255</v>
+        <v>348.7471997619097</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>

--- a/EDA_DF/SerieA_Rank_ML.xlsx
+++ b/EDA_DF/SerieA_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.465949761909722</v>
+        <v>5.573292888900463</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.46594976190972</v>
+        <v>18.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.58053309524306</v>
+        <v>26.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.46594976190973</v>
+        <v>38.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.55969976190973</v>
+        <v>38.66704288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.46594976190973</v>
+        <v>53.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.58053309524306</v>
+        <v>54.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.46594976190973</v>
+        <v>60.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.58053309524306</v>
+        <v>60.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.46594976190973</v>
+        <v>67.57329288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>97.55969976190971</v>
+        <v>97.66704288890047</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>103.4659497619097</v>
+        <v>103.5732928889005</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.580533095243</v>
+        <v>117.6878762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>118.4659497619097</v>
+        <v>118.5732928889005</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>129.4659497619097</v>
+        <v>129.5732928889005</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>130.4659497619097</v>
+        <v>130.5732928889005</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.5805330952431</v>
+        <v>131.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.4659497619097</v>
+        <v>151.5732928889005</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.5805330952431</v>
+        <v>152.6878762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>153.4659497619097</v>
+        <v>153.5732928889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.5076164285764</v>
+        <v>165.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.6221997619097</v>
+        <v>180.7295428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.6221997619097</v>
+        <v>186.7295428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.6221997619097</v>
+        <v>187.7295428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.6221997619097</v>
+        <v>193.7295428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.6221997619097</v>
+        <v>201.7295428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.7471997619097</v>
+        <v>201.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>216.5076164285764</v>
+        <v>216.6149595555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.5076164285764</v>
+        <v>222.6149595555671</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.5076164285764</v>
+        <v>227.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.5076164285764</v>
+        <v>312.6149595555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.7471997619097</v>
+        <v>312.8545428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.8513664285764</v>
+        <v>333.9587095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.6221997619097</v>
+        <v>334.7295428889005</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.7471997619097</v>
+        <v>334.8545428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.5076164285764</v>
+        <v>340.6149595555671</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.8513664285764</v>
+        <v>340.9587095555671</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.6221997619097</v>
+        <v>341.7295428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.5076164285764</v>
+        <v>347.6149595555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.465949761909722</v>
+        <v>5.573292888900463</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.46594976190972</v>
+        <v>18.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.58053309524306</v>
+        <v>26.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.46594976190973</v>
+        <v>38.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.55969976190973</v>
+        <v>38.66704288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.46594976190973</v>
+        <v>53.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.58053309524306</v>
+        <v>54.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.46594976190973</v>
+        <v>60.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.58053309524306</v>
+        <v>60.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.46594976190973</v>
+        <v>67.57329288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>97.55969976190971</v>
+        <v>97.66704288890047</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>103.4659497619097</v>
+        <v>103.5732928889005</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.580533095243</v>
+        <v>117.6878762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>118.4659497619097</v>
+        <v>118.5732928889005</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>129.4659497619097</v>
+        <v>129.5732928889005</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>130.4659497619097</v>
+        <v>130.5732928889005</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>131.5805330952431</v>
+        <v>131.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>151.4659497619097</v>
+        <v>151.5732928889005</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>152.5805330952431</v>
+        <v>152.6878762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>153.4659497619097</v>
+        <v>153.5732928889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.5076164285764</v>
+        <v>165.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>180.6221997619097</v>
+        <v>180.7295428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.6221997619097</v>
+        <v>186.7295428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>187.6221997619097</v>
+        <v>187.7295428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.6221997619097</v>
+        <v>193.7295428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.6221997619097</v>
+        <v>201.7295428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.7471997619097</v>
+        <v>201.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>216.5076164285764</v>
+        <v>216.6149595555671</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.5076164285764</v>
+        <v>222.6149595555671</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>227.5076164285764</v>
+        <v>227.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.5076164285764</v>
+        <v>312.6149595555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.7471997619097</v>
+        <v>312.8545428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.8513664285764</v>
+        <v>333.9587095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>334.6221997619097</v>
+        <v>334.7295428889005</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>334.7471997619097</v>
+        <v>334.8545428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.5076164285764</v>
+        <v>340.6149595555671</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>340.8513664285764</v>
+        <v>340.9587095555671</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>341.6221997619097</v>
+        <v>341.7295428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.5076164285764</v>
+        <v>347.6149595555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.507616428576389</v>
+        <v>3.614959555567129</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.80969976190972</v>
+        <v>18.91704288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.46594976190972</v>
+        <v>25.57329288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.58053309524306</v>
+        <v>25.6878762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.70553309524306</v>
+        <v>25.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.46594976190972</v>
+        <v>31.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.58053309524306</v>
+        <v>32.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>36.46594976190973</v>
+        <v>36.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.46594976190973</v>
+        <v>39.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>41.46594976190973</v>
+        <v>41.57329288890046</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>50.53886642857639</v>
+        <v>50.64620955556713</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>52.46594976190973</v>
+        <v>52.57329288890046</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.46594976190973</v>
+        <v>68.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.58053309524306</v>
+        <v>68.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.70553309524306</v>
+        <v>68.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.58053309524306</v>
+        <v>75.6878762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>81.46594976190973</v>
+        <v>81.57329288890047</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.58053309524306</v>
+        <v>81.6878762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.46594976190973</v>
+        <v>88.57329288890047</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.80969976190973</v>
+        <v>89.91704288890047</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>90.46594976190973</v>
+        <v>90.57329288890047</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>96.46594976190973</v>
+        <v>96.57329288890047</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.705533095243</v>
+        <v>103.8128762222338</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.580533095243</v>
+        <v>109.6878762222338</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.705533095243</v>
+        <v>109.8128762222338</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.8096997619097</v>
+        <v>109.9170428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>116.4659497619097</v>
+        <v>116.5732928889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>117.4659497619097</v>
+        <v>117.5732928889005</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.5805330952431</v>
+        <v>130.6878762222338</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.4659497619097</v>
+        <v>131.5732928889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.7055330952431</v>
+        <v>144.8128762222338</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>152.4659497619097</v>
+        <v>152.5732928889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.5805330952431</v>
+        <v>158.6878762222338</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -12476,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>159.5076164285764</v>
+        <v>159.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>164.5076164285764</v>
+        <v>164.6149595555671</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.6221997619097</v>
+        <v>165.7295428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.8513664285764</v>
+        <v>165.9587095555671</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -12888,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.7471997619097</v>
+        <v>180.8545428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.8513664285764</v>
+        <v>186.9587095555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.7471997619097</v>
+        <v>194.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>200.5076164285764</v>
+        <v>200.6149595555671</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.6221997619097</v>
+        <v>200.7295428889005</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -13403,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.6013664285764</v>
+        <v>214.7087095555671</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>215.5076164285764</v>
+        <v>215.6149595555671</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.6013664285764</v>
+        <v>221.7087095555671</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>229.5076164285764</v>
+        <v>229.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.5076164285764</v>
+        <v>313.6149595555671</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.6221997619097</v>
+        <v>313.7295428889005</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.6221997619097</v>
+        <v>320.7295428889005</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.6221997619097</v>
+        <v>326.7295428889005</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.7471997619097</v>
+        <v>326.8545428889005</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>346.5076164285764</v>
+        <v>346.6149595555671</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.809699761909723</v>
+        <v>3.917042888900463</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.58053309524306</v>
+        <v>18.6878762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -15016,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.80969976190973</v>
+        <v>39.91704288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.46594976190973</v>
+        <v>47.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.45553309524306</v>
+        <v>48.5628762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -15325,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.70553309524306</v>
+        <v>53.8128762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.80969976190973</v>
+        <v>53.91704288890046</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.46594976190973</v>
+        <v>59.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.46594976190973</v>
+        <v>61.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>79.46594976190973</v>
+        <v>79.57329288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>80.46594976190973</v>
+        <v>80.57329288890047</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.58053309524306</v>
+        <v>96.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.80969976190973</v>
+        <v>96.91704288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -16149,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.580533095243</v>
+        <v>103.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>108.4659497619097</v>
+        <v>108.5732928889005</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.705533095243</v>
+        <v>123.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.4659497619097</v>
+        <v>124.5732928889005</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.4242830952431</v>
+        <v>144.5316262222338</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.5805330952431</v>
+        <v>145.6878762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.5805330952431</v>
+        <v>151.6878762222338</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -16870,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.7471997619097</v>
+        <v>165.8545428889005</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.5076164285764</v>
+        <v>185.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.5076164285764</v>
+        <v>186.6149595555671</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>191.5076164285764</v>
+        <v>191.6149595555671</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -17385,7 +17385,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.7471997619097</v>
+        <v>193.8545428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.6013664285764</v>
+        <v>215.7087095555671</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.6013664285764</v>
+        <v>221.7087095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.6013664285764</v>
+        <v>228.7087095555671</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.6013664285764</v>
+        <v>318.7087095555671</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.5076164285764</v>
+        <v>320.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.5076164285764</v>
+        <v>326.6149595555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>327.5076164285764</v>
+        <v>327.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -18415,7 +18415,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -18518,7 +18518,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -18621,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.6221997619097</v>
+        <v>340.7295428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.6221997619097</v>
+        <v>347.7295428889005</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.580533095243056</v>
+        <v>5.687876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.46594976190972</v>
+        <v>19.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>27.46594976190972</v>
+        <v>27.57329288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.46594976190973</v>
+        <v>32.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>34.46594976190973</v>
+        <v>34.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.58053309524306</v>
+        <v>39.6878762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19616,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.70553309524306</v>
+        <v>39.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>42.46594976190973</v>
+        <v>42.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -19822,7 +19822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.46594976190973</v>
+        <v>46.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.70553309524306</v>
+        <v>54.8128762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.58053309524306</v>
+        <v>61.6878762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.58053309524306</v>
+        <v>67.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>69.46594976190973</v>
+        <v>69.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.46594976190973</v>
+        <v>74.57329288890047</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.46594976190973</v>
+        <v>82.57329288890047</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.70553309524306</v>
+        <v>82.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.70553309524306</v>
+        <v>88.8128762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -20749,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>97.46594976190971</v>
+        <v>97.57329288890047</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.8096997619097</v>
+        <v>103.9170428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.4659497619097</v>
+        <v>109.5732928889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>111.4659497619097</v>
+        <v>111.5732928889005</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.8096997619097</v>
+        <v>116.9170428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.4659497619097</v>
+        <v>123.5732928889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>125.5076164285764</v>
+        <v>125.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.4659497619097</v>
+        <v>145.5732928889005</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.7055330952431</v>
+        <v>145.8128762222338</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>158.4659497619097</v>
+        <v>158.5732928889005</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.6221997619097</v>
+        <v>159.7295428889005</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.6221997619097</v>
+        <v>166.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.5076164285764</v>
+        <v>180.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.7471997619097</v>
+        <v>187.8545428889005</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22191,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>201.5076164285764</v>
+        <v>201.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22500,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.5076164285764</v>
+        <v>215.6149595555671</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.5076164285764</v>
+        <v>220.6149595555671</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>228.5076164285764</v>
+        <v>228.6149595555671</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.6013664285764</v>
+        <v>229.7087095555671</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.6013664285764</v>
+        <v>306.7087095555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.6221997619097</v>
+        <v>319.7295428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.7471997619097</v>
+        <v>326.8545428889005</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.6221997619097</v>
+        <v>348.7295428889005</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.580533095243056</v>
+        <v>3.687876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.705533095243056</v>
+        <v>3.812876222233796</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -23701,7 +23701,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.705533095243056</v>
+        <v>5.812876222233796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.809699761909722</v>
+        <v>5.917042888900463</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.46594976190972</v>
+        <v>24.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.80969976190972</v>
+        <v>25.91704288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.46594976190972</v>
+        <v>26.57329288890046</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>33.46594976190973</v>
+        <v>33.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.58053309524306</v>
+        <v>33.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.46594976190973</v>
+        <v>40.57329288890046</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.58053309524306</v>
+        <v>46.6878762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.80969976190973</v>
+        <v>46.91704288890046</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.70553309524306</v>
+        <v>47.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.58053309524306</v>
+        <v>53.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.70553309524306</v>
+        <v>53.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.70553309524306</v>
+        <v>60.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>62.46594976190973</v>
+        <v>62.57329288890046</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.70553309524306</v>
+        <v>81.8128762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.70553309524306</v>
+        <v>89.8128762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.70553309524306</v>
+        <v>96.8128762222338</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>97.55969976190971</v>
+        <v>97.66704288890047</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.705533095243</v>
+        <v>103.8128762222338</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>104.4659497619097</v>
+        <v>104.5732928889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>110.4659497619097</v>
+        <v>110.5732928889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.705533095243</v>
+        <v>116.8128762222338</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>122.4659497619097</v>
+        <v>122.5732928889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.8096997619097</v>
+        <v>123.9170428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.705533095243</v>
+        <v>124.8128762222338</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.7055330952431</v>
+        <v>130.8128762222338</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.8096997619097</v>
+        <v>130.9170428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.5805330952431</v>
+        <v>144.6878762222338</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.8096997619097</v>
+        <v>144.9170428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>146.4659497619097</v>
+        <v>146.5732928889005</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.5596997619097</v>
+        <v>150.6670428889005</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.7055330952431</v>
+        <v>151.8128762222338</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>157.4659497619097</v>
+        <v>157.5732928889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.7055330952431</v>
+        <v>158.8128762222338</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.5076164285764</v>
+        <v>179.6149595555671</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.6221997619097</v>
+        <v>179.7295428889005</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.7471997619097</v>
+        <v>179.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.7471997619097</v>
+        <v>179.8545428889005</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.6013664285764</v>
+        <v>185.7087095555671</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>189.5076164285764</v>
+        <v>189.6149595555671</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.6013664285764</v>
+        <v>189.7087095555671</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -28027,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.6013664285764</v>
+        <v>189.7087095555671</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>193.5076164285764</v>
+        <v>193.6149595555671</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>194.5076164285764</v>
+        <v>194.6149595555671</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>195.5076164285764</v>
+        <v>195.6149595555671</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.8513664285764</v>
+        <v>200.9587095555671</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -28645,7 +28645,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.6013664285764</v>
+        <v>214.7087095555671</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>221.5076164285764</v>
+        <v>221.6149595555671</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.6013664285764</v>
+        <v>222.7087095555671</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -28954,7 +28954,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.6013664285764</v>
+        <v>222.7087095555671</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>229.5076164285764</v>
+        <v>229.6149595555671</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -29160,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -29263,7 +29263,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.7471997619097</v>
+        <v>319.8545428889005</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>333.5076164285764</v>
+        <v>333.6149595555671</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.6221997619097</v>
+        <v>333.7295428889005</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.7471997619097</v>
+        <v>333.8545428889005</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>341.5076164285764</v>
+        <v>341.6149595555671</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -29881,7 +29881,7 @@
         <v>1</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.6013664285764</v>
+        <v>342.7087095555671</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.7471997619097</v>
+        <v>347.8545428889005</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.705533095243056</v>
+        <v>5.812876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.70553309524306</v>
+        <v>19.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.70553309524306</v>
+        <v>26.8128762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.70553309524306</v>
+        <v>32.8128762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.53886642857639</v>
+        <v>48.64620955556713</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.80969976190973</v>
+        <v>60.91704288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.70553309524306</v>
+        <v>67.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.80969976190973</v>
+        <v>67.91704288890047</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.80969976190973</v>
+        <v>74.91704288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.80969976190973</v>
+        <v>81.91704288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.70553309524306</v>
+        <v>82.8128762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.58053309524306</v>
+        <v>89.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>97.46594976190971</v>
+        <v>97.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.580533095243</v>
+        <v>110.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.705533095243</v>
+        <v>110.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.4659497619097</v>
+        <v>115.5732928889005</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.580533095243</v>
+        <v>124.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.4659497619097</v>
+        <v>150.5732928889005</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.8096997619097</v>
+        <v>158.9170428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>160.5076164285764</v>
+        <v>160.6149595555671</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.8513664285764</v>
+        <v>179.9587095555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>181.5076164285764</v>
+        <v>181.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.7471997619097</v>
+        <v>200.8545428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -32627,7 +32627,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.7471997619097</v>
+        <v>200.8545428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.5076164285764</v>
+        <v>214.6149595555671</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.5076164285764</v>
+        <v>221.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.6013664285764</v>
+        <v>227.7087095555671</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.6013664285764</v>
+        <v>305.7087095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -33142,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.6221997619097</v>
+        <v>312.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.7471997619097</v>
+        <v>312.8545428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.8513664285764</v>
+        <v>319.9587095555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -33451,7 +33451,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>328.5076164285764</v>
+        <v>328.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -33554,7 +33554,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.7055330952431</v>
+        <v>340.8128762222338</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.7471997619097</v>
+        <v>354.8545428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.70553309524306</v>
+        <v>18.8128762222338</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.70553309524306</v>
+        <v>19.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.58053309524306</v>
+        <v>36.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.58053309524306</v>
+        <v>47.6878762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.46594976190973</v>
+        <v>54.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>75.46594976190973</v>
+        <v>75.57329288890047</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.58053309524306</v>
+        <v>88.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.70553309524306</v>
+        <v>88.8128762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.80969976190973</v>
+        <v>88.91704288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.4659497619097</v>
+        <v>104.5732928889005</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.5596997619097</v>
+        <v>104.6670428889005</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.705533095243</v>
+        <v>117.8128762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.7055330952431</v>
+        <v>131.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.7055330952431</v>
+        <v>152.8128762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.5076164285764</v>
+        <v>166.6149595555671</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.7471997619097</v>
+        <v>166.8545428889005</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.5076164285764</v>
+        <v>187.6149595555671</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.8513664285764</v>
+        <v>193.9587095555671</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.6221997619097</v>
+        <v>194.7295428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.6013664285764</v>
+        <v>199.7087095555671</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>214.5076164285764</v>
+        <v>214.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>228.5076164285764</v>
+        <v>228.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>306.4971997619097</v>
+        <v>306.6045428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.7471997619097</v>
+        <v>313.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.5076164285764</v>
+        <v>318.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>319.5076164285764</v>
+        <v>319.6149595555671</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.8513664285764</v>
+        <v>326.9587095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.6221997619097</v>
+        <v>327.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>336.5076164285764</v>
+        <v>336.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.8513664285764</v>
+        <v>347.9587095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.705533095243056</v>
+        <v>3.812876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>20.46594976190972</v>
+        <v>20.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.58053309524306</v>
+        <v>40.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.70553309524306</v>
+        <v>40.8128762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.70553309524306</v>
+        <v>46.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>55.46594976190973</v>
+        <v>55.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.70553309524306</v>
+        <v>61.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.70553309524306</v>
+        <v>61.8128762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>66.46594976190973</v>
+        <v>66.57329288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.58053309524306</v>
+        <v>74.6878762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.70553309524306</v>
+        <v>74.8128762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.58053309524306</v>
+        <v>82.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>89.46594976190973</v>
+        <v>89.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.70553309524306</v>
+        <v>96.8128762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>104.5596997619097</v>
+        <v>104.6670428889005</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.580533095243</v>
+        <v>116.6878762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.580533095243</v>
+        <v>123.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.705533095243</v>
+        <v>123.8128762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.7055330952431</v>
+        <v>144.8128762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.8096997619097</v>
+        <v>151.9170428889005</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>157.5596997619097</v>
+        <v>157.6670428889005</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.7471997619097</v>
+        <v>159.8545428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.6013664285764</v>
+        <v>181.7087095555671</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.6013664285764</v>
+        <v>185.7087095555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.7471997619097</v>
+        <v>186.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.7471997619097</v>
+        <v>193.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>199.5076164285764</v>
+        <v>199.6149595555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.6013664285764</v>
+        <v>216.7087095555671</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.6013664285764</v>
+        <v>220.7087095555671</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>222.5076164285764</v>
+        <v>222.6149595555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.6013664285764</v>
+        <v>228.7087095555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.6013664285764</v>
+        <v>229.7087095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>307.5180330952431</v>
+        <v>307.6253762222338</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.8513664285764</v>
+        <v>312.9587095555671</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.7471997619097</v>
+        <v>313.8545428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.7471997619097</v>
+        <v>320.8545428889005</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>321.5076164285764</v>
+        <v>321.6149595555671</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>325.5076164285764</v>
+        <v>325.6149595555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41621,7 +41621,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.7471997619097</v>
+        <v>327.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>332.5076164285764</v>
+        <v>332.6149595555671</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.5076164285764</v>
+        <v>336.6149595555671</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -42033,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.7471997619097</v>
+        <v>340.8545428889005</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -42136,7 +42136,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.7471997619097</v>
+        <v>340.8545428889005</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -42239,7 +42239,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>342.5076164285764</v>
+        <v>342.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -42342,7 +42342,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>349.5076164285764</v>
+        <v>349.6149595555671</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.58053309524306</v>
+        <v>19.6878762222338</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.70553309524306</v>
+        <v>26.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.70553309524306</v>
+        <v>32.8128762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.80969976190973</v>
+        <v>32.91704288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.70553309524306</v>
+        <v>33.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.70553309524306</v>
+        <v>46.8128762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.70553309524306</v>
+        <v>67.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.58053309524306</v>
+        <v>96.6878762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43440,7 +43440,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.580533095243</v>
+        <v>103.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.705533095243</v>
+        <v>109.8128762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43646,7 +43646,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>115.5596997619097</v>
+        <v>115.6670428889005</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>129.5596997619097</v>
+        <v>129.6670428889005</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43852,7 +43852,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.7055330952431</v>
+        <v>130.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43955,7 +43955,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>146.5596997619097</v>
+        <v>146.6670428889005</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -44058,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.6013664285764</v>
+        <v>164.7087095555671</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -44161,7 +44161,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.7471997619097</v>
+        <v>165.8545428889005</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -44367,7 +44367,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.6013664285764</v>
+        <v>195.7087095555671</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44470,7 +44470,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.6013664285764</v>
+        <v>215.7087095555671</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44573,7 +44573,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.4971997619097</v>
+        <v>306.6045428889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44676,7 +44676,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>314.5076164285764</v>
+        <v>314.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.6013664285764</v>
+        <v>332.7087095555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44882,7 +44882,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.6013664285764</v>
+        <v>332.7087095555671</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.5076164285764</v>
+        <v>334.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45088,7 +45088,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.7471997619097</v>
+        <v>347.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -45191,7 +45191,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.5076164285764</v>
+        <v>348.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45294,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.7471997619097</v>
+        <v>348.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.580533095243056</v>
+        <v>5.687876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.46594976190972</v>
+        <v>19.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>27.46594976190972</v>
+        <v>27.57329288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -45877,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.46594976190973</v>
+        <v>32.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>34.46594976190973</v>
+        <v>34.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.58053309524306</v>
+        <v>39.6878762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.70553309524306</v>
+        <v>39.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>42.46594976190973</v>
+        <v>42.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.46594976190973</v>
+        <v>46.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>54.70553309524306</v>
+        <v>54.8128762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.58053309524306</v>
+        <v>61.6878762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.58053309524306</v>
+        <v>67.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>69.46594976190973</v>
+        <v>69.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>74.46594976190973</v>
+        <v>74.57329288890047</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.46594976190973</v>
+        <v>82.57329288890047</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>82.70553309524306</v>
+        <v>82.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>88.70553309524306</v>
+        <v>88.8128762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>97.46594976190971</v>
+        <v>97.57329288890047</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>103.8096997619097</v>
+        <v>103.9170428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>109.4659497619097</v>
+        <v>109.5732928889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>111.4659497619097</v>
+        <v>111.5732928889005</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>116.8096997619097</v>
+        <v>116.9170428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.4659497619097</v>
+        <v>123.5732928889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>125.5076164285764</v>
+        <v>125.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.4659497619097</v>
+        <v>145.5732928889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>145.7055330952431</v>
+        <v>145.8128762222338</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>158.4659497619097</v>
+        <v>158.5732928889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -48349,7 +48349,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>159.6221997619097</v>
+        <v>159.7295428889005</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.6221997619097</v>
+        <v>166.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.5076164285764</v>
+        <v>180.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>187.7471997619097</v>
+        <v>187.8545428889005</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -48967,7 +48967,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>201.5076164285764</v>
+        <v>201.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -49070,7 +49070,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.5076164285764</v>
+        <v>215.6149595555671</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>220.5076164285764</v>
+        <v>220.6149595555671</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>228.5076164285764</v>
+        <v>228.6149595555671</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>229.6013664285764</v>
+        <v>229.7087095555671</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>306.6013664285764</v>
+        <v>306.7087095555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>319.6221997619097</v>
+        <v>319.7295428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -49688,7 +49688,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>326.7471997619097</v>
+        <v>326.8545428889005</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>348.6221997619097</v>
+        <v>348.7295428889005</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.70553309524306</v>
+        <v>18.8128762222338</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.70553309524306</v>
+        <v>19.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>36.58053309524306</v>
+        <v>36.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -50374,7 +50374,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.58053309524306</v>
+        <v>47.6878762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.46594976190973</v>
+        <v>54.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>75.46594976190973</v>
+        <v>75.57329288890047</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>88.58053309524306</v>
+        <v>88.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>88.70553309524306</v>
+        <v>88.8128762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>88.80969976190973</v>
+        <v>88.91704288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.4659497619097</v>
+        <v>104.5732928889005</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.5596997619097</v>
+        <v>104.6670428889005</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.705533095243</v>
+        <v>117.8128762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.7055330952431</v>
+        <v>131.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.7055330952431</v>
+        <v>152.8128762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.5076164285764</v>
+        <v>166.6149595555671</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.7471997619097</v>
+        <v>166.8545428889005</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.5076164285764</v>
+        <v>187.6149595555671</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>193.8513664285764</v>
+        <v>193.9587095555671</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.6221997619097</v>
+        <v>194.7295428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>199.6013664285764</v>
+        <v>199.7087095555671</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>214.5076164285764</v>
+        <v>214.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>228.5076164285764</v>
+        <v>228.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>306.4971997619097</v>
+        <v>306.6045428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.7471997619097</v>
+        <v>313.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.5076164285764</v>
+        <v>318.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -52743,7 +52743,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>319.5076164285764</v>
+        <v>319.6149595555671</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.8513664285764</v>
+        <v>326.9587095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>327.6221997619097</v>
+        <v>327.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>336.5076164285764</v>
+        <v>336.6149595555671</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53361,7 +53361,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>347.8513664285764</v>
+        <v>347.9587095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.507616428576389</v>
+        <v>3.614959555567129</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.80969976190972</v>
+        <v>18.91704288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.46594976190972</v>
+        <v>25.57329288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.58053309524306</v>
+        <v>25.6878762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.70553309524306</v>
+        <v>25.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>31.46594976190972</v>
+        <v>31.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.58053309524306</v>
+        <v>32.6878762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>36.46594976190973</v>
+        <v>36.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>39.46594976190973</v>
+        <v>39.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>41.46594976190973</v>
+        <v>41.57329288890046</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>50.53886642857639</v>
+        <v>50.64620955556713</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>52.46594976190973</v>
+        <v>52.57329288890046</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>68.46594976190973</v>
+        <v>68.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>68.58053309524306</v>
+        <v>68.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>68.70553309524306</v>
+        <v>68.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>75.58053309524306</v>
+        <v>75.6878762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>81.46594976190973</v>
+        <v>81.57329288890047</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.58053309524306</v>
+        <v>81.6878762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>88.46594976190973</v>
+        <v>88.57329288890047</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>89.80969976190973</v>
+        <v>89.91704288890047</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>90.46594976190973</v>
+        <v>90.57329288890047</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>96.46594976190973</v>
+        <v>96.57329288890047</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>103.705533095243</v>
+        <v>103.8128762222338</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.580533095243</v>
+        <v>109.6878762222338</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.705533095243</v>
+        <v>109.8128762222338</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>109.8096997619097</v>
+        <v>109.9170428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>116.4659497619097</v>
+        <v>116.5732928889005</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>117.4659497619097</v>
+        <v>117.5732928889005</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.5805330952431</v>
+        <v>130.6878762222338</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.4659497619097</v>
+        <v>131.5732928889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.7055330952431</v>
+        <v>144.8128762222338</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56828,7 +56828,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>152.4659497619097</v>
+        <v>152.5732928889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>158.5805330952431</v>
+        <v>158.6878762222338</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>159.5076164285764</v>
+        <v>159.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>164.5076164285764</v>
+        <v>164.6149595555671</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>165.6221997619097</v>
+        <v>165.7295428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>165.8513664285764</v>
+        <v>165.9587095555671</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>180.7471997619097</v>
+        <v>180.8545428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>186.8513664285764</v>
+        <v>186.9587095555671</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>194.7471997619097</v>
+        <v>194.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>200.5076164285764</v>
+        <v>200.6149595555671</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>200.6221997619097</v>
+        <v>200.7295428889005</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>214.6013664285764</v>
+        <v>214.7087095555671</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>215.5076164285764</v>
+        <v>215.6149595555671</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58167,7 +58167,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>221.6013664285764</v>
+        <v>221.7087095555671</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58270,7 +58270,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>229.5076164285764</v>
+        <v>229.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -58373,7 +58373,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -58476,7 +58476,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -58579,7 +58579,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>313.5076164285764</v>
+        <v>313.6149595555671</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -58682,7 +58682,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.6221997619097</v>
+        <v>313.7295428889005</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -58785,7 +58785,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>320.6221997619097</v>
+        <v>320.7295428889005</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>326.6221997619097</v>
+        <v>326.7295428889005</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -58991,7 +58991,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>326.7471997619097</v>
+        <v>326.8545428889005</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -59094,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>346.5076164285764</v>
+        <v>346.6149595555671</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.580533095243056</v>
+        <v>3.687876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.705533095243056</v>
+        <v>3.812876222233796</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.705533095243056</v>
+        <v>5.812876222233796</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.809699761909722</v>
+        <v>5.917042888900463</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.46594976190972</v>
+        <v>24.57329288890046</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.80969976190972</v>
+        <v>25.91704288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.46594976190972</v>
+        <v>26.57329288890046</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>33.46594976190973</v>
+        <v>33.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.58053309524306</v>
+        <v>33.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>40.46594976190973</v>
+        <v>40.57329288890046</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -60398,7 +60398,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>46.58053309524306</v>
+        <v>46.6878762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.80969976190973</v>
+        <v>46.91704288890046</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>47.70553309524306</v>
+        <v>47.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.58053309524306</v>
+        <v>53.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>53.70553309524306</v>
+        <v>53.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.70553309524306</v>
+        <v>60.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>62.46594976190973</v>
+        <v>62.57329288890046</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>81.70553309524306</v>
+        <v>81.8128762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>89.70553309524306</v>
+        <v>89.8128762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>96.70553309524306</v>
+        <v>96.8128762222338</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>97.55969976190971</v>
+        <v>97.66704288890047</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>103.705533095243</v>
+        <v>103.8128762222338</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>104.4659497619097</v>
+        <v>104.5732928889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>110.4659497619097</v>
+        <v>110.5732928889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>116.705533095243</v>
+        <v>116.8128762222338</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>122.4659497619097</v>
+        <v>122.5732928889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.8096997619097</v>
+        <v>123.9170428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.705533095243</v>
+        <v>124.8128762222338</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>130.7055330952431</v>
+        <v>130.8128762222338</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.8096997619097</v>
+        <v>130.9170428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.5805330952431</v>
+        <v>144.6878762222338</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.8096997619097</v>
+        <v>144.9170428889005</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>146.4659497619097</v>
+        <v>146.5732928889005</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.5596997619097</v>
+        <v>150.6670428889005</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.7055330952431</v>
+        <v>151.8128762222338</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>157.4659497619097</v>
+        <v>157.5732928889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.7055330952431</v>
+        <v>158.8128762222338</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>179.5076164285764</v>
+        <v>179.6149595555671</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.6221997619097</v>
+        <v>179.7295428889005</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>179.7471997619097</v>
+        <v>179.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>179.7471997619097</v>
+        <v>179.8545428889005</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>185.6013664285764</v>
+        <v>185.7087095555671</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>189.5076164285764</v>
+        <v>189.6149595555671</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>189.6013664285764</v>
+        <v>189.7087095555671</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -63900,7 +63900,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>189.6013664285764</v>
+        <v>189.7087095555671</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>193.5076164285764</v>
+        <v>193.6149595555671</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>194.5076164285764</v>
+        <v>194.6149595555671</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>195.5076164285764</v>
+        <v>195.6149595555671</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>200.8513664285764</v>
+        <v>200.9587095555671</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>214.6013664285764</v>
+        <v>214.7087095555671</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>221.5076164285764</v>
+        <v>221.6149595555671</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>222.6013664285764</v>
+        <v>222.7087095555671</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>222.6013664285764</v>
+        <v>222.7087095555671</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>229.5076164285764</v>
+        <v>229.6149595555671</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>319.7471997619097</v>
+        <v>319.8545428889005</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>333.5076164285764</v>
+        <v>333.6149595555671</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>333.6221997619097</v>
+        <v>333.7295428889005</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>333.7471997619097</v>
+        <v>333.8545428889005</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>341.5076164285764</v>
+        <v>341.6149595555671</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>342.6013664285764</v>
+        <v>342.7087095555671</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>347.7471997619097</v>
+        <v>347.8545428889005</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.705533095243056</v>
+        <v>3.812876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>20.46594976190972</v>
+        <v>20.57329288890046</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.58053309524306</v>
+        <v>40.6878762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -66440,7 +66440,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.70553309524306</v>
+        <v>40.8128762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -66543,7 +66543,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.70553309524306</v>
+        <v>46.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>55.46594976190973</v>
+        <v>55.57329288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.70553309524306</v>
+        <v>61.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.70553309524306</v>
+        <v>61.8128762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>66.46594976190973</v>
+        <v>66.57329288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>74.58053309524306</v>
+        <v>74.6878762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.70553309524306</v>
+        <v>74.8128762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>82.58053309524306</v>
+        <v>82.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>89.46594976190973</v>
+        <v>89.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.70553309524306</v>
+        <v>96.8128762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>104.5596997619097</v>
+        <v>104.6670428889005</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -67676,7 +67676,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.580533095243</v>
+        <v>116.6878762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>123.580533095243</v>
+        <v>123.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.705533095243</v>
+        <v>123.8128762222338</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>144.7055330952431</v>
+        <v>144.8128762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68088,7 +68088,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.8096997619097</v>
+        <v>151.9170428889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>157.5596997619097</v>
+        <v>157.6670428889005</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>159.7471997619097</v>
+        <v>159.8545428889005</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>181.6013664285764</v>
+        <v>181.7087095555671</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.6013664285764</v>
+        <v>185.7087095555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.7471997619097</v>
+        <v>186.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>193.7471997619097</v>
+        <v>193.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>199.5076164285764</v>
+        <v>199.6149595555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.6013664285764</v>
+        <v>216.7087095555671</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.6013664285764</v>
+        <v>220.7087095555671</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>222.5076164285764</v>
+        <v>222.6149595555671</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>228.6013664285764</v>
+        <v>228.7087095555671</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.6013664285764</v>
+        <v>229.7087095555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>307.5180330952431</v>
+        <v>307.6253762222338</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>312.8513664285764</v>
+        <v>312.9587095555671</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>313.7471997619097</v>
+        <v>313.8545428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>320.7471997619097</v>
+        <v>320.8545428889005</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>321.5076164285764</v>
+        <v>321.6149595555671</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>325.5076164285764</v>
+        <v>325.6149595555671</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -70148,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>327.7471997619097</v>
+        <v>327.8545428889005</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>332.5076164285764</v>
+        <v>332.6149595555671</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>336.5076164285764</v>
+        <v>336.6149595555671</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>340.7471997619097</v>
+        <v>340.8545428889005</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>340.7471997619097</v>
+        <v>340.8545428889005</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>342.5076164285764</v>
+        <v>342.6149595555671</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>349.5076164285764</v>
+        <v>349.6149595555671</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -71143,7 +71143,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.809699761909723</v>
+        <v>3.917042888900463</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -71246,7 +71246,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.58053309524306</v>
+        <v>18.6878762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71349,7 +71349,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.80969976190973</v>
+        <v>39.91704288890046</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.46594976190973</v>
+        <v>47.57329288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.45553309524306</v>
+        <v>48.5628762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.70553309524306</v>
+        <v>53.8128762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.80969976190973</v>
+        <v>53.91704288890046</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.46594976190973</v>
+        <v>59.57329288890046</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.46594976190973</v>
+        <v>61.57329288890046</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>79.46594976190973</v>
+        <v>79.57329288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>80.46594976190973</v>
+        <v>80.57329288890047</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>96.58053309524306</v>
+        <v>96.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.80969976190973</v>
+        <v>96.91704288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>103.580533095243</v>
+        <v>103.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>108.4659497619097</v>
+        <v>108.5732928889005</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>123.705533095243</v>
+        <v>123.8128762222338</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.4659497619097</v>
+        <v>124.5732928889005</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>144.4242830952431</v>
+        <v>144.5316262222338</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>145.5805330952431</v>
+        <v>145.6878762222338</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>151.5805330952431</v>
+        <v>151.6878762222338</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.7471997619097</v>
+        <v>165.8545428889005</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>185.5076164285764</v>
+        <v>185.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>186.5076164285764</v>
+        <v>186.6149595555671</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>190.5076164285764</v>
+        <v>190.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>191.5076164285764</v>
+        <v>191.6149595555671</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.7471997619097</v>
+        <v>193.8545428889005</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.6013664285764</v>
+        <v>215.7087095555671</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.6013664285764</v>
+        <v>221.7087095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>228.6013664285764</v>
+        <v>228.7087095555671</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>305.4971997619097</v>
+        <v>305.6045428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>318.6013664285764</v>
+        <v>318.7087095555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.5076164285764</v>
+        <v>320.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -74439,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.5076164285764</v>
+        <v>326.6149595555671</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>327.5076164285764</v>
+        <v>327.6149595555671</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -74645,7 +74645,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -74748,7 +74748,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -74851,7 +74851,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>337.6221997619097</v>
+        <v>337.7295428889005</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -74954,7 +74954,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>340.6221997619097</v>
+        <v>340.7295428889005</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -75057,7 +75057,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>347.6221997619097</v>
+        <v>347.7295428889005</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.705533095243056</v>
+        <v>5.812876222233796</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -75434,7 +75434,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.70553309524306</v>
+        <v>19.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.70553309524306</v>
+        <v>26.8128762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.70553309524306</v>
+        <v>32.8128762222338</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.53886642857639</v>
+        <v>48.64620955556713</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.80969976190973</v>
+        <v>60.91704288890046</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.70553309524306</v>
+        <v>67.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.80969976190973</v>
+        <v>67.91704288890047</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -76155,7 +76155,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>74.80969976190973</v>
+        <v>74.91704288890047</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.80969976190973</v>
+        <v>81.91704288890047</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.70553309524306</v>
+        <v>82.8128762222338</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>89.58053309524306</v>
+        <v>89.6878762222338</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>97.46594976190971</v>
+        <v>97.57329288890047</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>110.580533095243</v>
+        <v>110.6878762222338</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.705533095243</v>
+        <v>110.8128762222338</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.4659497619097</v>
+        <v>115.5732928889005</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>124.580533095243</v>
+        <v>124.6878762222338</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>150.4659497619097</v>
+        <v>150.5732928889005</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.8096997619097</v>
+        <v>158.9170428889005</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>160.5076164285764</v>
+        <v>160.6149595555671</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>179.8513664285764</v>
+        <v>179.9587095555671</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>181.5076164285764</v>
+        <v>181.6149595555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>200.7471997619097</v>
+        <v>200.8545428889005</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.7471997619097</v>
+        <v>200.8545428889005</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.5076164285764</v>
+        <v>214.6149595555671</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.5076164285764</v>
+        <v>221.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.6013664285764</v>
+        <v>227.7087095555671</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>305.6013664285764</v>
+        <v>305.7087095555671</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.6221997619097</v>
+        <v>312.7295428889005</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -78318,7 +78318,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>312.7471997619097</v>
+        <v>312.8545428889005</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.8513664285764</v>
+        <v>319.9587095555671</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>328.5076164285764</v>
+        <v>328.6149595555671</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -78627,7 +78627,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>337.4971997619097</v>
+        <v>337.6045428889005</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.7055330952431</v>
+        <v>340.8128762222338</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>354.7471997619097</v>
+        <v>354.8545428889005</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -79107,7 +79107,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.58053309524306</v>
+        <v>19.6878762222338</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -79210,7 +79210,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.70553309524306</v>
+        <v>26.8128762222338</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -79313,7 +79313,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.70553309524306</v>
+        <v>32.8128762222338</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -79416,7 +79416,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.80969976190973</v>
+        <v>32.91704288890046</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.70553309524306</v>
+        <v>33.8128762222338</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -79622,7 +79622,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.70553309524306</v>
+        <v>46.8128762222338</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -79725,7 +79725,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.70553309524306</v>
+        <v>67.8128762222338</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -79828,7 +79828,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>96.58053309524306</v>
+        <v>96.6878762222338</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -79931,7 +79931,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>103.580533095243</v>
+        <v>103.6878762222338</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -80034,7 +80034,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>109.705533095243</v>
+        <v>109.8128762222338</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -80137,7 +80137,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>115.5596997619097</v>
+        <v>115.6670428889005</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -80240,7 +80240,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>129.5596997619097</v>
+        <v>129.6670428889005</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -80343,7 +80343,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>130.7055330952431</v>
+        <v>130.8128762222338</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>146.5596997619097</v>
+        <v>146.6670428889005</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>164.6013664285764</v>
+        <v>164.7087095555671</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.7471997619097</v>
+        <v>165.8545428889005</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>190.6013664285764</v>
+        <v>190.7087095555671</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>195.6013664285764</v>
+        <v>195.7087095555671</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.6013664285764</v>
+        <v>215.7087095555671</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -81064,7 +81064,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>306.4971997619097</v>
+        <v>306.6045428889005</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>314.5076164285764</v>
+        <v>314.6149595555671</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>332.6013664285764</v>
+        <v>332.7087095555671</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>332.6013664285764</v>
+        <v>332.7087095555671</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -81476,7 +81476,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.5076164285764</v>
+        <v>334.6149595555671</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>347.7471997619097</v>
+        <v>347.8545428889005</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.5076164285764</v>
+        <v>348.6149595555671</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>348.7471997619097</v>
+        <v>348.8545428889005</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
